--- a/prediction.xlsx
+++ b/prediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,12 +695,6253 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">I have never felt so prud to be a white man like the way I feel I right now. </t>
+          <t xml:space="preserve">I have never felt so prud to be a white man like the way I feel I right now. I couldn't believe my eyes, a great black heavyweight champion being battered to smithereens by a white man. Brillant!!!! I actually quite liked deontay wilder before his introduction to the ring tonight. I actually he was a decent human being who is unlike the the typical black man. But then he came bursting into the arena with his black supremacist music, which just goes to show how deep the hatred that blacks generally have for whites really is. For this very reason, I have felt so much joy and pleasure as I watched Tyson fury smash this terrestrial baboon all over the ring, the pleasure rippled through my blood like a turbulent winter storm! I just hope it inspires so many more white people to start fighting back against ******s, because ******s are responsible the vast majority of interracial vioence and Tyson fury proved tonight that smashing blacks to a pulp is the only thing they will ever understand! Long live Tyson fury!!!!!!!!!!!!!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You are absolutely right. Africa is completely self-sufficient. We need to stop this wasteful spending immediately: 1. Afghanistan ($4.89 billion) 2. Iraq ($3.36 billion) 3. Israel ($3.18 billion) 4. Jordan ($1.38 billion) 5. Ethiopia ($943 million) 6. South Sudan ($922 million) 7. Kenya ($899 million) 8. Pakistan ($892 million) 9. Nigeria ($644 million) 10. Uganda ($608 million). https://www.concernusa.org/story/for...id-by-country/
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"if the cap fits"... Well, if we're trading retarded insults it probably does fit a person who enjoys lying repeatedly &amp; pushing anti-white, far left media propaganda as you do (for xyz perverse reasons). This was my post vis-à-vis "boomers" in France/Europe: I mean if we've reached the point where elderly people are swallowing media doom mongering hook, line, sinker &amp; actively promoting economic collapse for their children &amp; grandchildren because they're scared of coronavirus, then the word "treason" comes to mind. The situation in Italy in that regard is disgraceful, with economic disaster pending for a majority of white Italians as a result of a demented government lockdown. No healthy society in the history of Europe would ever countenance such an unnatural prioritization of the infirm &gt; the healthy. It would be akin to pushing the elderly &amp; infirm first into the lifeboats on the Titanic whilst women &amp; children are told "screw off, we matter more". But what do I know? As per your litany of recent posts, I'm just an "idiot, moron, Jew". Have a nice day, dirtydog.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>39.86</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They don't care which racial group is good for the environment. You're not going to argue your way out of White genocide by explaining how environmentally friendly White people are. GlobalWarmingClimateChange is an anti-White scam. White genocide is the goal. The anti-White double standard leading to White genocide is the point we want to push.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not to put too fine a point on it, but there's no such thing as security or privacy on the Web. If any site tells you they can provide this, they're lying to you. If someone wants to crack them they can, that's just the reality of the situation. Security and privacy are best handled personally. If there is anything that you want kept private, don't put it out on the Web. And never say anything that you don't want to hear read back to you in open court.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cobblestones honoring Nazi victims dug up and THROWN AWAY at construction dump in Germany Feb 2, 2020 Five bronze cubes in memory of a Jewish family murdered by Nazis were not only uprooted but also thrown away, as telecom workers laid an internet cable in a western German town. The loss was only noticed months later. Five of the cobblestones (known as Stolpersteine in German) were apparently dug up from outside a house in Plettenberg near Dortmund, where a Jewish family of five – including three kids – had lived until 1942, when they were sent to the notorious Treblinka concentration camp, local media reported on Sunday. Cobblestones honoring Nazi victims dug up and THROWN AWAY at construction dump in Germany — RT World News
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think you make a powerful and important point by stating this. Fortunately, the usual slurs and slanders of "Jew", "Fed", "SPLC", "Antifa", ad nauseaum, won't likely come your way, since you've been a Stormfront member since April of 2003 - a whopping seventeen years! And you're right to ask: WHAT money or food precisely has the "Shieldwall Network" actually donated? That's a reasonable question to ask from people who march into a disaster zone full of frightened children wearing skull masks and combat fatigues looking more like they're there to rob, rape, and pillage rather than offer any relief. Talk about bad optics! But, again, if this so-called "Shieldwall Network" is coming on here asking for donations of money and food, then everyone here has a right to know just how much this group has actually given. In my opinion, no one should donate anything - especially money - unless they see incontrovertible proof that said money is not going into somebody's private pocket. Major US charities are known to channel as much as 90% of monetary donations into paying high-salaries to their board of directors. So some oversight is justified. Now, Taylor Swift (whom I can't stand) just donated a million dollars in relief to the tornado victims in Tennessee. In other words, the public knows how much she has given. Likewise, this "Shieldwall Network" should be transparent and post here just how much they have actually given these tornado victims in cash and food. And knowing how they're always looking for a photo op at every turn, then they should have no problem providing photos of their aid distribution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well that's what we are trying to find out. So can you enlighten us? Is there actually a white working class still in existence in SA? I suspect not. I believe that "reverse discrimination" (revenge) has completely disenfranchised that class. The British passport holders have long since got out. The Afrikaners are in the squatter camps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I suggest you stick to attacking the argument instead of the poster.. Infancy yes, you may ignore it but the method of isolating DNA from ancient bones and thus the ability to analyze it was "perfected" only in 2014 (until a better method is found).. So its 6.. might not be an infant exactly.. but a child with a very long way to go prior to it being taken as totally accurate without any thought of doubt.. Hell we just passed the 1000 genome database only on February of 18" which prior to the latest additions was only half as big. (some 600 were documented on that month) So while you choose to fully accept anything thrown at you, I choose to hold a small basket. Now any possibility of explaining the inconsistencies in genetics theories and archaeological finds? How were the invisible IE who conquered without destroying anything and totally displaced the original non-IE population turned into this "mixed race" (your choice of words) group of people when Arrian amomg others spoke of "black" population which they compared to Africans?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I do strongly suspect that Britain's involvement in the Second World War was not worth it. The World Wars were utter nightmares that claimed the lives of many Britons. I try not to think about them, due to how depressing they are. Why should anyone care about the UK Royal Family generally? It is a family of enemy personnel. No one should give the useless rodents even a second of unnecessary attention. The demographic damage inflicted by the Saxon invasion is grossly exaggerated by anti-Britons as part of a psychological warfare tactic. Germanic composition, when inflicted on Britons, condems the future generations to aesthetic inferiority. The greater the variety of racial composition that is assimilated into a society's population, the more vulnerable the society is to disproportionately higher crime rates, foreign cultural colonisation, identity conflict, Islamic infiltration (they will use European converts), globalist subversion, leftist subversion, espionage and other hostile and dangerous elements (the extent of the vulnerability depends on the level of ethnic variety and the composition type(s) introduced). The foreign composition spread threat needs to be dealt with PROPERLY. It is a massive source of embarrassment and shame! Adequately aware people who take seriously the protection and welfare of the British people and their future generations would keep the foreign racial material away. I am fairly sure no one on this island has psychologically suffered from the effects of Germanic composition more than me. Germanic composition should be feared and evaded!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I absolutely would. They are my enemy, our enemy. I wish we could send them all to random Asian villages until they died, because they no longer deserve to benefit from Western Civilization. They can take their ugly little half-breeds with them, too. They're all mentally ill and perverted, no exceptions. Not that those freaks have any right to show up at white nationalist events, anyway. I don't care what stupid uniform a race mixer wears.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jews are the kindest people on earth to Jews. Jews lie to, deceive, exploit, manipulate and shamelessly use non Jews without any conscience, shame or morality whatsoever. Its a badge of honor to a Jew to treat a non Jew badly. Its encoded into your very Religious texts how to treat non Jews as inferior. Your Rabbis and other leaders clearly say this. Now how in the XXX can you claim that Jews are the kindest people on earth with that record? Don't lie to me even though I am not a part of the Jewish master race like you are. As for the way Jews treat children, that is also encoded in your Religious texts. Want me to quote them for you?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There’s that thinly veiled bitterness and resentment harboured towards us English rearing it’s ugly head again, you Jocks rarely can keep it hidden for long. Granted our capital is lost and has been for some time, along with many of our major cities, but there are still lots of white areas remaining and you can guarantee that most of the people who live there will want to keep it that way. We are in dire straights, but with Brexit and the resistance against the Marxist Labour rabble it can be argued that there is a glimmer of hope because a large portion of the country don’t agree with open borders, mass immigration, multiculturalism and the whole globohomo narrative. Can the same be said for Scotland? Because from what I’ve seen, the left appears to be firmly in charge up north and as you probably know it will inevitably spell disaster for white Scots.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aaawwwwww, are you all hurted becuz after a lifetime of sucking off the teat provided for you by Whitey while simultaneously talking smack about Whitey, you found out that Whitey has opinions about you that you don't like? Seethe harder, ingrate. Whitey's getting tired of your near constant bitching and moaning with nary a "thank you" to be heard. Better yet, go back to whatever craphole your parent came from and nag them about how evil we are while crapping out tapeworms the length of boa constrictors, because we're sick of hearing it. Jesus...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How many women have I seen ranting they want to 'Tear down the patriarchy'. I don't know if that is what all women seriously want, or whether they are simply being used as a voice box by the you know who's. I don't even know if the patriarchy they want to tear down exists. All I see is jews telling us what to do and what to think. We need to get the jews off our backs is what. Anything other than that is heffer dust and swamp gas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have noticed a deterioration in the technical side of things since I first became a member. I put it down to Don getting on a bit, has other concerns etc. I do wonder what kind of back-up plan he has for when he's no longer able or willing to keep SF running himself. Besides that, there was that outage summer before last, in which the forum was down for a few weeks and we needed that workaround to get to it. That seemed to hit the member activity quite hard long-term. There have been various other lesser technical faults now and then which have made things...run less than smoothly. It's true that forums have taken a hit in the 2010s compared to the 2000s. Rise of social media has taken its toll. Beyond that, I'm not sure there's been any other notable qualitative hits the forum has taken compared to when I first started observing it at the beginning of last decade. I've certainly seen some worthy members take their leave, which is an unfortunate reality on any forum. I've also seen some very low-brow members gain ground, another reality of forum life.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agreed. Right, CW would be one of the common ancestors the Aryans shared with other Bronze age Europid tribes, along with the Bell-Beaker, and Yamnaya/Kurgan Yes, I agree with all of this. Aryan DNA definitely changed when they expanded into Asia, which happened because they had a surplus population of young men who couldn't find wives at home. But the DNA of the ones who stayed home and had wives among their own tribe remained unchanged. This is the story of our people. The Vikings raided because they were young men who didn't inherit land from their fathers, and had to go elsewhere or live as paupers with no prospects for better lives at home. Alexander's army and the Roman Legions were full of young men with the same problem only they were a lot more focused on empire rather than just raiding, and were more organized and consequently larger and more effective. European men of every ethnicity brought their families to the Americas because they had more opportunities here than at home. And the Aryans expanded west into Asia proper because they were so successful at home on the Caspian/Pontic steppes of eastern Europe that there was little opportunity for a population full of young men without wives, but that doesn't mean that the Aryans who stayed behind and didn't go to new places to find non-Aryan women became less ethnically pure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indo-European is, by definition, a language group, not a race/ethnicity. Indo-Europeans languages originated in the area north of the Black and Caspian Seas. They were Aryans (ie, 'White Face," according to my amateur etymology), but were not all of the Aryans. They migrated widely, westward throughout Europe (then to Anatolia), eastward to western China, southward into Persia and India. Most places were already populated, so they mixed with those inhabitants, to varying degrees. Interesting etymology: Aryan "White Face" = Iran = Eire/Erin = Guenivere/Jennifer; the Roman god Janus (with two faces).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blackburn man wanted in connection with an aggravated burglary and for absconding from HMP Kirkham | Blackpool Gazette Beggars belief, but he was locked up for '10 years' in June 2017, and wanders out of an open prison 2 years later.... Man serving 10 years for drug offences absconds from HMP Kirkham | Lancashire Evening Post
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You are taking the facts as well as history out of context. Comparing Moscow to New York in the year 2020 is a false equivalence and an analogy that cannot be used to draw a comparison to the facts and circumstances surrounding the out of Africa theory. I can't believe that you seriously just tried to do that.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm afraid its already here. I have already reached the conclusion that we all live in a Jew ran slave society but its not the kind of slavery that one can easily identify as slavery. We are not kept in iron chains and locked in our cells at night. Our chains are invisible and America itself is one big open air Jewish prison (or Goyim zoo, if you prefer that term). On the surface we live in a free Democracy but that is just on the surface. Just beneath it lies Jewish Fascism. Jews want to keep us all blind to that reality but I have seen it for a long time.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why not? Whatever turns her on. It's only art and nothing more. I don't have any desire to hear this song. It resembles coming from a western Moslem region. The Indian music of which I like hearing is of quite a different type of which is slow and mystical-sounding. This doesen't mean that I would wish becoming one of them or to integrate into their society or vice versa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He thought he was Superman or the neighborhood watch guys were no nonthreatening. What cheers me up is what our ancestors used to do to blacks during lynching. It was torture. The newspapers would describe exactly what torture was going to happen during lynching. A simple hanging won't scare a black into obeying the law.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And property owners pay taxes, so let's say only taxpayers born in-country vote. I like it. Perhaps, the more taxes you pay, the weightier your vote according to a non-linear schedule. Even wealthy people with loopholes pay taxes. Hangers-on do not pay anything in. Why should they decide on expenditures? Rate-Payers are responsible, accountable people who earned the right to vote. I think that Universal Suffrage only creates a lot of suffering. . .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sure; but it's legit. I actually heard about it while watching a David irving video. He kind of waved off Mein Kampf and said the "second book" was the only Hitler book he was interested in. It's short compared to MK and some of the chapters are fragmentary. As a recall the focus was on international politics and Germany's territorial rights.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maybe Jews are rich because they stole European genes. Jews are middle-eastern people not European. And only Ashkenazi jews are smart, the ones who mixed themselves with Europeans. Is that enough proof for you why they are smart? Arab and African Jews are not smart. Also they are more successful than Whites because they are not playing by the same rules as Whites. They are much more corrupt and shameless liars and manipulators.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't mind the idea of nonwhites helping us out, under two conditions: 1. The ethnostate is for whites, we just won't be able to afford maintaining non-whites so we can't accept them in no matter how much they've helped, and 2. No white women for you. Seriously. I don't fancy the idea of being somebody's reward, and I don't know many white women who do. Nonwhites who still want to help under those conditions, and the number of volunteers will drop off DRAMATICALLY after those rules are made clear, are welcome as far as I'm concerned. It shouldn't be that much of a sacrifice for them, especially as I'm more than confident other beneficial arrangements can be made.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">More like non-White immigrants, Natives, Jews, and gays. With the odd White leftist thrown into the mix. The media, which is heavily influenced by Jews, would give Justin Trudeau the benefit of the doubt whenever possible. All the while either vilifying or ignoring Max Bernier and the People's Party. So in a subtle way, yes. These types who sheepishly go along with the status quo annoy me too. However, a person who is unwilling to rock the boat is in no way comparable to an evil globalist politician like Justin Trudeau or an evil anti-White propagandist like Lisa Laflamme. Yet according to TravelCaniadian, people who don't rock the boat like Joe six-pack who watches HNIC or Sally soccer mom who watch Big Brother Canada are the ones to blame. This is just so asinine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you consider yourself jewish, I would suggest that you move to Israel, and help your people do well there. Can the jews not create a wholly civilised nation on their own? Must they leech off of white Europeans? Does a little hard work scare them THAT much? Much of the animosity towards jews is due to their habit of undermining and infiltrating other cultures. The deception and manipulation over time becomes blatant and obvious. The final solution was always meant to be relocation. Before your people had no home of their own, now you do. So no more excuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greek island riots require measured response, says EU The European Commission is demanding restraint following clashes between Greek island residents and riot police over plans to build new migrant-detention camps. "As in all cases we would expect the member state authorities to address such situations using measures that are necessary and proportionate," a European Commission spokesperson told reporters in Brussels on Tuesday (25 February). The comment follows the eruption of riots on the Greek islands of Lesbos and Chios by residents who oppose plans to build the new centres. Greek media report some 200 riot police have been sent in to quell the unrest, following demands by locals to have the centres built on the mainland instead. Greek island riots require measured response, says EU
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I've noticed when the royals do official visits, especially William and Kate, it is almost always to places where they can be photographed speaking to ethnics, particularly Muslims and blacks. It's clear that they regard the native British people with contempt and see their future as winning favour with the non-whites who they no doubt know will be the majority eventually. Despite this most native British people seem to absolute worship the anti-white royals.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is the problem, your thinking is pretty inflexible. It could be the opposite. She seduced him, because he appears like a White man to her, with his pale skin and bluish eyes. For most East Asian woman, Zuckerberg will look White in appearance. Of course, to us National Socialists and White Nationalists, Zuckerberg has strong Ashkenazi Middle-Eastern features. Fyi, Asian women are crazy after White men. The greatest race-mixers in America are Asian women at 60%, with White men. I've had many Asian women approach me, some of them not bad-looking, but I've politely declined. I've always preferred our blue-eyed blonde White women, since all females in my family are blue-eyed and blonde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What's wrong with Germans? President Steinmeier exemplifies it perfectly. 2020-01-26 AT THIS TIME OF UNLEASHED HOLOCAUST-HOLOCAUST-HOLOCAUST in the month of January, there is no breast-beater who takes greater pleasure in submerging Germans in eternal guilt and shame than Frank-Walter Steinmeier, Germany's president under Chancellor Angela Merkel since March 2017. Steinmeier is no patriot. His allegiance is to a higher, greater cause: the European Union-global-Jew-controlled-post-war Order and to enforcing the United Nations narrative of World War II. Germany's president was in his element on Thursday in Jerusalem, given a main speaking role at Israel's “World Holocaust Forum” to the assembled 'world leaders' and some of the claimed 200,000 'Holocaust survivors' living in Israel. Can you believe that number?! You shouldn't. But all those people must be holocaust survivors because they are all getting monthly checks for life from Germany. At left, Steinmeier meets with survivors in Jerusalem; such a happy bunch. What's wrong with Germans? President Steinmeier exemplifies it perfectly. | Carolyn Yeager
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl, how do you explain the fact that I, and every guy I work with is either married or has a girlfriend, when none of us fit any of this criteria? In fact, one younger guy (about 32 yrs old) has a really crappy work ethic and is broke and in debt, and his sugar mama girlfriend is keeping him afloat. The rest of us can't figure that one out.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One thing we've learned from the Trump Presidency is that the deep state is not just some crazy conspiracy theory. For the past three years we've seen that deep state launch plot after plot to overturn the election. It all started with former CIA director John Brennan's phony Intelligence AssessmentÂ� of Russian involvement in the 2016 election. It was claimed that all 17 US intelligence agencies agreed that Putin put Trump in office, but we found out later that the report was cooked up by a handful of Brennan's hand-picked agents. Donald Trump upset the Washington apple cart as presidential candidate and in so doing he set elements of the deep state in motion against him. One of the things candidate Donald Trump did to paint a deep state target on his back was his repeated praise of Wikileaks, the pro-transparency media organization headed up by Australian journalist Julian Assange. More than 100 times candidate Trump said â€œI love Wikileaks on the campaign trail. Trump’s Betrayal of Julian Assange, by Ron Paul - The Unz Review
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I never said "All Africans" - in fact many non-Negroid races are native to Africa. African is not a race. North African Caucasoids have just as much Neanderthal as other Eurasians. And yes I said "other Eurasians" as I mean "African" not in the geographical sense, but phylogenetically. Actually I was one of those people who was insisting that modern humans have Neanderthal admixture, many years before it was confirmed with the famous DNA study. I remember the week it happened, it was in mid 2010. It was all over the news. People kept saying I was full of **** for years, that there was no Neanderthal interbreeding; but ultimately I was correct. But I don't take credit, it wasn't my original idea I just looked at the evidence and determined it makes the most sense. What did surprise me was to learn that East Asians have more Neanderthal DNA than Europeans. But there is nothing to "feel better" about, I felt "better" - but mostly "relieved" once the 2010 finally proved conclusively that modern humans have Neanderthal DNA. I only focused on them in the post because here we know what the Neanderthals looked like, and what technology they had, but there still are mysteries. Maybe one day they will take the DNA and clone one. My bet is that there were vastly different Neanderthal subspecies/races, just like humans. But we know nothing about what these archaic, non-human ancestors of the Negroes were like. There are no human remains of them. We have no skulls as far as we know. All we have is their genetic presence in a low-IQ, small-brained, primitive modern population and the lack of such genetic presence in the higher IQ, more accomplished, and less archaic populations of the world.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Covid19 Concentration Camps | CDC Communist Confine Citizens | Cont Course to Centralized Communism Covid19 Concentration Camps | CDC Communist Confine Citizens | Cont Course to Centralized Communism We read a little bit about a lot of things. Let My People Go from this Gulag USA! Set America Free !! Covid19 ChinaVirus WuhanVirus are a cover for the LOSS of Jobs due to CHINA dependence! Bankruptcy and poverty coming right up why? Well Willard: The Fact is these Democrats are Deposts and Tyrants who hate the idea of A FREE PEOPLE ENJOYING their lives!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Israeli minister says Belgium should ban Aalst Carnival for ‘vitriolic’ antisemitism 20 February 2020 Belgium should be ashamed of the “vitriolically antisemitic” floats put on display at Aalst Carnival and ban the controversial festivity, Israel’s foreign minister said Thursday. “Belgium as a Western Democracy should be ashamed to allow such a vitriolic antisemitic display,” Israel Katz said in a statement posted in English to his Twitter account. “I call upon the authorities there to condemn and ban this hateful parade in Aalst,” Katz added. Israeli minister says Belgium should ban Aalst Carnival for 'vitriolic' antisemitism
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is my understudy. The good news is he is back. In aswere to whom I am ranting, it is the underlying attitude of the British filmmaker and his total lack of awareness both in this country and his own. He is obviously a globalist trying to explain to other globalists why nobody wants any more immigrants. We all know on the gut level.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just out of curiosity why do you think this is? Sure, what you say might be true about stormfront decaying due to neocon shills here who have 100k post of conservative propaganda that are running this forum into the ground. I'll grant you that, but do you follow the Alt-Right on twitter? How about /pol/? Do you listen to any of the podacast on therightstuff.biz for the Gen-X perspective of WN? Just because this forum has fallen from glory because of it's embrace of conservative INC doesn't mean white nationalism isn't thriving on other internet platforms.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You're right. A White person raised in a town of 1,000 that's 99% White doesn't know what it's like to grow up in a mostly Black neighborhood. A couple I've known have remarked that, "Blacks are such good dancers," and, "They seem like the funniest people." They don't know Blacks how East-Coasters know them. Midwestern Whites I've known so far have been (not WN ones) uncultured and sheltered, which is a blessing and a curse. All I can say is the Midwest would look much more attractive without the meth/opioid epidemic. It's hitting Whites like crack hitting the Blacks.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deontay Wilder has said the elaborate outfit he wore on his ring walk weighed 40 pounds and was the key reason for his defeat to Tyson Fury. So a guy who trains for months for a big time prize fight can’t carry 40 pounds for a few minutes with out being worn out. Nice try Leroy he was beat because he was punched a few to many times.. Next time leave your Wakanda outfit at home.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, Turks are middle easterners by race but linguistically are linked with central asians and native siberians. Normal Turk can't be white however some people from Turkey are descendants of islamized Slavs, Vlachs, Albanians or european sexual slaves. Cypriots according to genetic studies are more similar to Lebanese than to original Greeks from continent so they should be referred as middle eastern population.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">| Sic Semper Tyrannus | Never Disarm for a tyrant! We dont hold back -- Full Capt Crazy Hour -- #NeverDisarm. History and Hysterics -- We use all methods. Never Disarm! Don't be sheep! Never give #communist power by disarming! It is the CONCEPT of a RIGHT to DEFEND YOUR PERSON EFFECTS AND VALUES that matter not the material item itself! I want you all armed. If I was God King you would be armed! K? Cover is Tarquin having at Lucretia -- Never except insult outrage or imposition! Just can't have it and remain people of dignity! Better to die than live a SLAVE! Be like the Cimbri -- Dead but Free -- they all went down! #guns, #gungrab, #secondamendment #tyrants #tyranny #gungrab #communism #marxism #rights #WhiteRights Source: Virgina -- Sic Semper Tyrannus -- #NeverDisarm for a tyrant! Address : Virgina -- Sic Semper Tyrannus -- #NeverDisarm for a tyrant!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That ‘advice’ is stupid. Sounds like disgruntled lonely guy advice for women haters. What works in the real world: Girl: would you mind helping me wash my car? Me: What’s in it for me? Girl: I’ll make us dinner! Me: Get some beer too. I’ll be over in a few hours.. Girl: ok! Good times. Real men don’t have to read in to women or need silly handbooks or advice. We just act normal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I remember in the 90s being told that due to "global warming" (which has now been re-labeled with the more vague and all-encompassing "climate change") NYC would be under water by 2020. Well, this obviously hasn't come to pass, so color me skeptical. Also, the proposed solutions to this so-called climate change seem a bit drastic (immediately discontinuing use of all fossil fuels, gutting our economy, plummeting us back into the Dark Ages, and serving the world up to the Chinese, et al., on a platter. Yeah...no.). Useful idiots, much?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Of course, blacks and mixed people are fully human. In fact, many are in high-brained careers and I can even post links to well written blogs written by them. What more evidence do you need? Well, actually there are plenty of "less smart" among them but there also is among whites - and many (I'm guessing most.) of these are in white nationalism wanting a scapegoat for their own failure - mainly, comically, by pointing out "dumbos" in other races.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I know what you are getting at but the paint analogy is just not a good one. You know what you get when you mix all colors of pain together right? White. Black is the absence of all colors. Being White has a lot more to do with being light-skinned or blonde hair. I think a good comparison is a genetic modification. Once something is GMO, it cannot be reversed. I know a guy who is 1/16 black and although he doesn't look black and has golden hair, there is just something about his face, posture, and behavior that isn't quite right. Why is the black blood so strong anyway?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A question: are differently-abled people not human beings? I use the term ‘differently-abled’ because I can no longer use the word ‘disabled’. You see, many years ago, when I was young and fit and holding down a full-time job as a writer in the wild, wacky world of advertising, I was walking across the city centre to my workplace, when I saw this guy getting out of his car. I stopped dead in my tracks. This guy had no legs. He swung his trunk out of the vehicle and into a foldable wheelchair. He then perched a smart leather briefcase onto his lap and electrically motored away. There was no one else in his car. He had driven and parked all by his lonesome. Me? I have the use of all my limbs. As Doctor Strangelove said: “I can walk, mein Fuhrer!” But I can’t drive. Never been behind the wheel of a moving vehicle. There’s something lacking in me – maybe you can call it ‘guts’ – that prevents me from attempting to control a powered vehicle. Anyway. Whatever. I watched this guy power away from me and resumed my trudge to the office. And I was the one felt disabled that day, that morning. What I learned that day: we all have different abilities, and we all deserve to live our lives. Eugenics, be damned.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They did know the owner, they had seen many pictures of Arbery trespassing since October 2019. They also knew someone was stealing including from their own truck (a pistol). The older Arbery had been asked to consult on the security cam pictures; he was also the main investigator on Arbery's shoplifting case. Quite a 'coincidence' that, someone stealing a gun out of their truck and being the main investigator. And no, you don't have to know all the facts in order to have reasonable suspicion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When you enter someone's territory, it puts people on guard. I've noticed a lot of replies on that forum, and it just allows us more exposure to our arguments. I always say what does it matter if a Jew say, owns a KKK billboard when the whole idea of the billboard is to get the message out.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">East Coast Knights Of The True Invisible Empire National Headquarters Rising Sun Maryland Hotline 717-659-2256 Website East Coast Knights of the True Invisible Empire "The Invisible Empire is founded on sterling character, and immutable principles, based upon sacred sentiment and cemented by noble purposes. It is promoted by a sincere, unselfish devotion of the souls of men, and is governed by their consecrated intelligence. It is the soul of chivalry, virtue's impenetrable shield; and the devout impulse of an unconquered race." Rev W.C Wright
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I agree with Mitt Romney above ^^^ - someone who has wilfully murdered two White law enforcement agents and then laughs about it, he/she does not deserve our help. They cannot be helped either. @Konig Klaus - how do we help certain people with non-neurotypical brains? are you talking about a formal rehabilitation program? if yes then no it will never work. A formal/government-approved rehabilitation program will require YEARS of court battles and man power. Resources such as man power will require money and money changes attitudes. I love your idea though. My idea of regular visits for our imprisoned WN brothers I believe so much can be done such as helping their family with groceries, their younger siblings with homework and funding for college/university, things like hiring a regular gardener for their family home. They will appreciate it, I know I would. Things we can do to help imprisoned WN brothers directly: * bring them books on history and philosophy. * keep them updated on issues of WN and World politics. * bring them books on health and fitness. * pay to update their cells with luxuries, food and clothes. * help with their legal battles and fees. The only issue I see is the organization and stress levels, and most importantly finding someone who is competent and not self-serving/manipulative/sick in the head. I will say I do not have time for blacks or muslims (despite if they helped the WN cause) ... mass murderers, rapists, drug dealers or drug addicts (specificially heroin)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You might be as good an 'ideas man' as you say but there's an art to writing a good headline and telling a good story too, even on an online forum. People get information-fatigue these days, especially when there's some big story going around (real or manufactured doesn't matter) and all the mass media are talking about the same thing. If you write a headline that looks just like 100 other articles people saw that day, whether they read them or not, they might postpone getting around to yours. I don't know if that's what any of your threads are about, just offering an example to show that it's not personal and shouldn't be thought a statement on the general intelligence level of the membership here. That's like saying that if your audience wasn't thrilled by your personal rendition of a sonata, they must be tone-deaf. If you want bites, you have to work on your lures, not waste time scolding the fish for ignoring them.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>58.34</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You are dreaming. Jews own the government, the media, the military and all other major U.S. institutions. How can we get power when the Jews own and control everything? Your entire thread is ridiculous because it completely ignores that basic reality. Jews took a lot of time and effort to establish that control and its going to take a lot to get them out. Basically, its going to take a Revolution by the American people to get them out and give ourselves the power over America. There is no easy button to this. Either we do what has to be done or nothing is going to change. The first step of the Revolution is to wake up the sleeping brainwashed American people about the Jewish control over America. If the American people only knew what was really going on, they would want to do something about it. Its our primary responsibility to educate the brainwashed herd of the American people about the way things really are. Jews work tirelessly to keep the American people brainwashed and sleeping. Its OUR job to wake them up. I try to do that everywhere but it seems like very few people are doing it. We need a lot more people spreading Anti-Semitic truth. Stop preaching to the choir on SF and go out and wake up Americans who have no clue about what is going on.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We live in trepidation and concern as Australia burns, with bushfire crisis sweeping much of Australia's lower east coast where nearly 40,000 people are without power and many still without any form of telecommunications. Saturday is posing as the next catastrophic day for Rural Fire Service volunteers, as high temperatures and dry winds threaten to fan fires across previously unburnt ground. ( in our direction). Eighteen lives have been lost, five people are missing and more than 1200 homes have been destroyed as fires burned through over five-million hectares of land. Australia's catastrophic 2019 bushfire season at a glance: NSW * 15 lives lost, four in the past 24 hours * One person missing * More than 100 bushfires burning * 3.6 million hectares burned, greater than the size of Belgium * 1087 homes confirmed destroyed VICTORIA * One person dead, four more missing * More than 40 bushfires of significance burning * More than 500,000 hectares burned * 68 structures confirmed destroyed but this number is expected to rise significantly SOUTH AUSTRALIA * Two lives lost * About 20 bushfires burning, seven of significance * More than 60,000 hectares burned * More than 90 homes confirmed destroyed QUEENSLAND * 7 bushfires burning * 250,000 hectares burned * 45 homes confirmed destroyed WESTERN AUSTRALIA * More than 40 bushfires burning, two of significance * 1.2 million hectares burned * One home confirmed destroyed TASMANIA * More than 30 bushfires burning, seven of significance * 8000 hectares burned * One home confirmed destroyed .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Many joined after this. Channon Gail Christian, age 21, and Hugh Christopher Newsom, Jr., age 23, were from Knoxville, Tennessee. They were kidnapped on the evening of January 6, 2007, when Christian's vehicle was carjacked, and taken to a rental house, where both of them were raped, tortured, and murdered.[1][2] Four males and one female were arrested, charged, and convicted in the case. The grand jury had indicted four of the suspects on counts of capital murder, robbery, kidnapping, rape, and theft, while Eric Boyd was indicted in 2018 on federal charges of carjacking, but also indicted for theft, rape, and murder. Murders of Channon Christian and Christopher Newsom - Wikipedia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I enjoy reading the banner Today in White History at the top of this page, but today all the banners were about either February 28 or March 1. I didn't see any banners for February 29, even though there were many important events in White history that happened on that day, for example:In 1504, Christopher Columbus used an eclipse to fool the Indians. In 1692, the Salem Witch Trials began. In 1712, Sweden added February 30 to the calendar to correct the length of the year. In 1768, Casimir Pulaski joined the Bar Confederation. In 1815, Napoleon returned from exile. In 1910, the German Luftwaffe was formed. I propose that a banner be created to celebrate each of these important events in White history.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The word White appears in them. The image itself is nothing to talk about. It just shows a happy couple on their special day. They could use that picture to sell wedding cakes, jewelry, or tuxedo rentals. That would be fine. If they added the phrase, Every man needs a woman, that would be fine, too. But it says every WHITE man needs a WHITE woman. So now it's something just for White people. It's White Elitism shutting out everyone else. Essentially. To non-whites it implies that they are not entitled to a happy marriage, family life, or a house with a white picket fence. But of course they are. Just not in a white neighborhood.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">rusi mi isto nisu jasni, gaze se međusobno po nogometu, masu ih zagovara ka neku arijevsku spiku a moskva i ostali gradovi puni ološa sve vrste, zemlja zatrovana do bola.s time da ovi da su još pet **** ovoliko mislim da nebi se mogli otić prošetat do čečenije, gruzije il armenije.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unless there's a major financial, environmental crisis, war, etc, nothing much will change. People will continue to play the same old games whilst our countries slowly fill up with more non-Whites. I'm interested in seeing what's next on the degenerate agenda after they've successfully introduced and mainstreamed transgenderism. Forced race mixing? Paedophilia?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He is not a member as he never responded to his confirmation email. If he had, he would have been recognized as someone who has been here many times before. His threads can go on and on for weeks without making any progress. He seems incapable of being dissuaded from his misconceptions. So, to avoid his monotonous drone, we shut them down early. Your contribution may have allowed you to feel better, but it wouldn’t have persuaded him one bit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AN supported me back in the day while I was incarcerated, sent me personal letters and reading material to pass the time. I know that's standard outreach procedure but it meant a lot to me as a young man barely out of his teens. Sometime involved with this effort message me. If this is a legit effort I'd be glad to help somehow.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Large amounts of Jewish money are funneled to political candidates who oppose those that Jews don't like, or are not 100% behind whatever Jewish agendas are brought forward for them to support. 'They Dare to Speak Out' by Congressman Paul Findley is an excellent book on the subject. 'The Israeli Lobby' by Walt and Mersheimer is another. Jews out right purchase US political candidates like slaves on an auction block.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I see . . . but he identified himself as White and denied being an Arab. You believe he's a Joo? I agree that MOST Turks are not White; but there ARE Whites in Turkey. And, in fact, a small portion of Turkey is actually situated in Europe. Honestly, I thought he should have been given a chance to explain himself.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fair enough. I wish for some brothers here so I wouldn't be getting robbed and beaten by injuns.. two cracked ribs and had $350ish in cash plus my phone stolen. this happened last night. since it seems theres no one here, and no one giving a **** about here, I think I am going to do a flier campaign. maybe that will work.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>88.9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Not a fan of pit bulls there is no need for them, they are vicious unpredictable killers that have no place in a home or on earth. It just amazes me after countless kids and women get mauled and or killed by those monsters people still defend them, if you want a good dog get a lab or German shepherd. My neighbor has/had pits bulls and went after one of my sons in my yard way out in the country, that was the last things those pieces of crap did. I shot both of them dead and would do it again. I even warned my neighbor if his ugly satan dogs came on to my property what would happen to them.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am with you. When I selected Canada as my adopted country I did so because I liked much about it and the people. Canada was not overly commercial and I liked that too. I grew up in a rural region and Canada was almost like one big farm with lots of freshwater to me. Except for the daily newspaper being a Jew-owned rag and the occasional trouble being caused by the aborigines it was fine. Blacks were so rare then that I hardly ever saw one.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blasian love in South Africa: ‘Will my Asian family accept my black boyfriend?’ - BBC News An article about a "Blasian" couple in South Africa if anybody is interested. I don't seem to recall the BBC garnering sympathy for the plight of white South African's like this as the slaughter goes on unabated.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If Mediterraneans are not White, Jared Taylor is a mixed-race person. The editor of American Renaissance was classified by some amateur anthropologists as a North Atlantid, a mix between Nordid and Mediterranid. Classify Jared Taylor - AnthroScape There is also a North Atlantid vibe to Stormfront's creator Don Black. Since North Atlantid, as I have already mentioned, is a mix between Nordid and Mediterranid, Don Black is not White either. Just a moment... Kevin MacDonald was classified as a Keltic with Atlanto-Mediterranean influences. Another non-White in our cicle? Oh my god! Classify Kevin MacDonald Joseph Goebbels was not White. Just a moment... All of these people cited in here were classified as predominantly (or with a decent vibe of) North Atlantid stock. If you don't believe that North Atlantid is a mix between Mediterraneans and Nordics, see the proof in this racial anthropology site that gathers information about many subraces and studies about the subject: North Atlantid North Atlantid is very common in Northwestern Europe (especially the British isles), and as we know many Americans have British ancestors. So one (or many of them) was probably a Mediterranean who bred with a Nordic person. Guess what? Since we follow the one-drop-rule on this forum and Mediterraneans are not White, then start packing your baggages, because there's a high possibility you guys are not White either. That's all.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dude... you just posted a photo of all-green statues with everything green (clothing, hair, skin, etc.) and seriously tried to compare it to the statues I posted that clearly differentiate between skin color, hair, jewelry, clothing, weaponry, etc., and you seriously think that you have proven a point? Please explain how the example that you just tried to makes any sense at all? Try to stay on subject, and explain how the nonsense that you just tried to pull makes any sense?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear Pro-Whites in Britain, We are very sorry that we sent Meghan Markle over to you guys. She is a mixed race mongrel who had no place in the Royal Family and corrupted the bloodline. I heard however that Princess Diana has some small Asian ancestry but we are sorry about what happened. Their mongrel baby looks disgusting. Whites and Negros are unsuited to mix. I wish we could have sent you the best of our country. We Americans are England's children kinship wise. I myself have significant English descent and which I am proud of. I wish we could have sent you a real beauty one with grace, love for our people, and one who honors the traditions of England and won't corrupt the bloodline. Please understand we Americans at least us pro-white Americans don't support this bimbo. Thank you
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compared with the paltry 500,000 - 700,000 UK citizens or so claimed to live dispersed all over the vastness of the EU, but who seem to end up back here for one reason or another in any case, even the very rich ones. As an inhabitant of these incredibly overpopulated, tiny islands, I dread to think just how many offspring that estimated 3.5 million have spawned.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just listened to the recent St. George's Day edition of Benny &amp; Steve's Sunwheel talk on Bitchute. Two very ordinary guys somewhere up north talking about today's issues and how life is in the corona lockdown. Under the Sunwheel, episode 26 PS: For me 'up north' is anywhere higher up on the map than Milton Keynes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I agree with everyone who wants to keep it the same. It's old-school and Classic. If the "kids" are too dumbed down, so what? Time they smarten up. Furthermore, I don't have to wait forever for it to load on my phone, and I don't have to keep swatting pop-ups on my computer. It's perfectly functional and aesthetically pragmatic and somewhat classic...like an old car.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Although I agree with the sentiments of the piece I have a question about the logic. If Sir Arthur was captured by an opposing kingdom and threatened with death if he didn't come up with an answer to the question within one year, but then released back to his own kingdom, among his own people and the Knights of the Round Table, how was the enemy king going to kill Sir Arthur if he didn't answer the question? For at that point Sir Arthur was once again protected by the formidable Sir Lancelot, as well as all the other knights? That part didn't make logical sense to me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germany to assume chair of IHRA for 1 year; will fight Holocaust denial MARCH 3, 2020 Germany is set to assume a one-year chairmanship of the International Holocaust Remembrance Alliance (IHRA) on Tuesday, with the aim of fighting Holocaust denial, Deutsche Welle reported. Michaela Küchler, the German Foreign Office's special commissioner for relations with Jewish organizations, is set to head the German IHRA team, and has stated that the aim was to "do more" to fight Holocaust denial and antisemitism. Holocaust denial is a criminal offense in Germany and is punishable with a sentence of up to five years in prison, and similar laws exist in other European countries. According to the Central Council of Jews in Germany, the federal republic has a "special responsibility" in the fight against Holocaust denial. Germany to assume chair of IHRA for 1 year; will fight Holocaust denial - The Jerusalem Post
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have said it before, Blacks, show us how amazing you are on your own, without the White angel hanging over your shoulder to give you all the things by our hands that make your lives great. Show us Wakanda. Show us you are capable of creating such a thing even in it's most basic reality. Show us you can keep it together without it all crashing down and back to mud huts and warring tribes. Show us the black power without the White hand! Blacks keep saying the White man is holding them back, yet we are the ONLY ONES ON THE PLANET that has helped them! Well now use what you have been given, take what you have learned and SHOW US YOUR VALUE in the society you can make BY YOUR OWN HANDS! And the world will watch and marvel! You have our absolute promise, we will not interfere. Just keep the jews out, you should be ok! And this goes for the other races too. Latinos, where would you be without the White hand on your shoulder? Asians? Where would you be? Without your stolen White marvels to make small cheap and sell back to us? You think you are smart? Stop stealing our tech and show us! Same for the rest of ya! I DARE YOU ALL! Mutually exclusive for 10 years. How well will you do? I say we Whites would pull away from you all at record speed in advancement whist you all would REGRESS LIKE DR MOREAU'S ANIMALS! Prove me wrong.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don Black, don't shut down this board. This is one of the sites where our people can truly connect. It gives us a home to go to, at Stormfront we are all family. We are brothers and sisters wanting to preserve our White heritage. Don't shut down the site, it is really beneficial for someone like me. Stormfront is my home and many others share my views. For some this is just a side hobby but for others a world where we can socialize and talk. I have made many friends through Stormfront. Don't listen to the haters and trolls for every 1 troll, there is 300 of us who were dedicated to our people and come with respect for you.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It IS dilapidated and rundown. Has been a long, long time. but our people are falling victim to the scum running wild peddling their drugs and filth.. just because there are a lot of lowlifes here is no excuse to abandon our folk who exist here as well. so allow me to rephrase: a united, borderless effort is needed.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Americans consider Southern Europeans White. Northern Europeans do not consider Southern Europeans Germanic or Protestant. There has always been a bigger class and caste division between Western Europeans, or 'the real Europeans,' and Eastern Europeans; than there has been between Northern Europeans and Southern Europeans. Mostly because of poverty and class division. But who cares, since its already been settled that each ethnicity wants their own country homogeneous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chitlins originated in medieval England. So much for "soul food." Authentic African cuisine! #BlackInventionMyths from Chitterlings - Wikipedia m Chitterlings were common peasant food in medieval England, and remained a staple of the diet of low-income families right up until the late 19th century and not uncommon into the mid 20th century. Thomas Hardy wrote of chitterlings in his novel Tess of the D'Urbervilles, when the father of a poor family, John Durbeyfield, talks of what he would like to eat: Tell 'em at home that I should like for supper, – well, lamb's fry if they can get it; and if they can't, black-pot; and if they can't get that, well, chitterlings will do.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No one is bullet proof. Remember that. They have an elevated rate of schizophrenia and bi-polar disorder. They flip out easily. I mean they go just absolutely barking mad. No telling what they might do, or who they might turn it over to. Don't let them know where you live. I was at a business seminar once. We were having lunch and I was seated across from a woman who introduced herself with a Jewish sounding name. I introduced myself. Due to my last name she started screaming I was a German, and that all Germans had to be killed. She was waving her fork and knife around. After a bit of that, some of her fellow Jews came and took her away to a quiet place so she could compose herself. We hadn't even been served salad yet. I never saw her again. My last name is Dutch. Please do be careful.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well I'm amazed at the silence of the antis or libs or SJWs. Clearly Many WNs disagree with my onion about the two white men, and I can accept that, but the silence from the lefties is absolutely deafening. I just wonder how many of these libs will open their minds to reality. Or if they will just put their hands over their eyes and keep patting themselves on the back for hating their own race.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Literal cucks aren't that common. White men on Asians isn't fetishized by the (((porn industry))) like black on White. Blacks may wish it's organic or in demand but look at every black on White porn company and you will find a jew behind it. The jews agenda is as clear as it is anti-White.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I understand what you mean about having your posts or comments deleted, it has happened to me a few times. But whether you agree with their policies or not you have to understand this is their website dude. They can do what they want. I'm not even a WN, I am just here to debate controversial topics and represent for the people who can't speak for themselves. Even though I agree with what you are saying, it doesn't make sense to come into somebody else's home to tell them how things should be done. My best advice to you is to beat them at their own game while playing by their rules
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We seem to get a lot of your types here. That is, no matter what proof is offered, it is never enough to change your mind. You are just here to spout. So if our people walk away, it is just that they see the futility of the situation as they have seen many times before.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This big Irish cat from the UK man, well damn, 6' 9" 270lbs. Quick, Agile, with crazy dexterity. Respect to Wilder for being honorable in defeat. He was a great champion 41-1-1. This was his first loss ever and he took it with class. People were saying this was the biggest fight in decades. Or at least since Pacquiao vs Mayweather.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, I can't speak for everyone else in there, but I was reacting to the OP's self righteous declaration that he'd rather his son marry a high-class negro than a low-class white girl. I don't fancy the idea of my son bringing home either, but if I'm forced to choose, I'd go with the low-class white girl every time. Like I said, I'm not speaking for everyone, but I'm thinking that's where a lot of us were going with it. Now, if it were my daughter, then that's different, again. There's a convent down the road which would find itself suddenly richer with money and an extra scullery maid.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have deduced that Youtube has some kind of censoring in place at the time a post is created. How it works exactly is just my guess, but it appears to be looking for certain keywords in a certain context. For example, if I mention Jews as being behind certain deceptions such as Sandy Hook or 9-11, those posts will get deleted. Even though you see the post that you just created, nobody else is seeing it. And if you attempt to edit the post you just made, you will be unable to edit it because it has already been deleted. There are ways to defeat it. For example, you can disguise what you say. Instead of using the word Jew, you can use the term [the race that shall not be named on Youtube]. People reading that usually can guess what it means and the Youtube censoring software will not detect it. So what I am saying is that you have to disguise your wording. Say what you want you to say, but disguise what you perceive are the keywords that they are using to trigger the deletions. With enough practice, you can figure out how to get around it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One person will die on a cruise ship EVERY DAY. They did not disclose cause of death, pneumonia would have been obvious! More nefarious propaganda. Could have died from an allergy or heart attack, who knows, obviously no one cares, they just wanna fear monger! Those masks dont hide the JEWS behind them! Look at the ears hair and eyes! They have masks?!? That means that they got on the cruise knowing the risk! C'mon guy's, use your prejudice, it will make you stronger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You're dreaming. White people did not destroy Africa. There was nothing in Africa to be destroyed before whites came. I suppose now your going to tell us about great black kings and how blacks invented pretty much everything? This black history crap is made up mythology. It is an effort to pretend that blacks are great so as to not make black children feel bad when reading about history in schools. Tell me something. When white or better yet arab slave traders landed on the coast of Africa to buy blacks from black traders or lets even assume that they captured blacks themselves and enslaved them which wasn't really the case, but anyway when arab or white slave traders landed o the African coast to get black slaves, where were these great black kings to oppose them? Did these great blacks have armies? Did they have technology to blow the slave ships out of the water before they reached land? No, see there was no development at all in Africa before slavery or colonialism. The most powerful blacks were black chiefs who could oppose no European force and many didn't even want, to but instead were happy to sell other blacks to the white or arab slave traders. You want to believe that every problem among your people is the white mans fault because it is easier than believing that your people are less intelligent, more primitive, less evolved etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Putin Rejects Gay 'Marriage', Considers Amending Constitution to Protect Traditional Marriage President Vladimir Putin said on Thursday Russia would not legalize gay marriage as long as he was in the Kremlin. He made clear he would not allow the traditional notion of mother and father to be subverted by what he called "parent number 1" and "parent number 2". "As far as 'parent number 1' and 'parent number 2' goes, I've already spoken publicly about this and I'll repeat it again: as long as I'm president this will not happen. There will be dad and mum," Putin said. During his two decades in power, Putin has closely aligned himself with the Orthodox Church and sought to distance Russia from liberal Western values, including attitudes toward homosexuality and gender fluidity. He made the comments as he met a state commission to discuss changes to Russia's constitution. The commission was set up last month after Putin announced sweeping changes to Russia's political system that are widely seen as being designed to help him extend his grip on power after his scheduled departure from office in 2024. Other proposals have since been put forward and Putin was asked to comment on a proposal to add a line in the constitution defining marriage as a union between a man and a woman. "We need only to think in what phrases and where to do this," he replied. Putin Rejects Gay 'Marriage', Considers Amending Constitution to Protect Traditional Marriage
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hello, respectable nationalists. First of all, as a person who has adopted the idea of ​​nationalism, I want to have a good time with you here. I am a Turk, but I am not like other Turks, and I'm sure most Turks are enemies of your thoughts, but I don't think so. The most important thing that a person has in life is Race. And you are the people struggling to protect it. Now I am aware that Jews want to turn the world into a multicultural place. This terrible and demonic thing must be destroyed. What do you think is waiting for our future? '' I am the first time to use the forum here, I do not know where to write, but I thought that I should open it under this heading, as they will still be able to see me as an opposite opinion.''
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Besides that there is no link, the version you mention appears to be an old one, by chance I came across a new version called "Apartheid. Linux. Cyberwar. Edition.x 64", it can be downloaded from: htt**://archive.org/details/apartheid.linux.cyberwar.edition.x64 But we don´t know who is behind the distribution, and the code can be reviewed but it would take weeks for somebody skilled to do that. Tails is probably safer, they update it often and they have a dedicated developer. The other one, maybe good for propaganda, I have not downloaded it, I don´t know for sure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I really hate teenagers. I think that once I have kids, and they reach that terrible age, I'll send them off to military school and won't let them have access to the internet until they are human again. I'm grumpy and too old for this. It feels undignified arguing with a person who hasn't even passed high school Civics and Economics yet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What you say is, simply, not true. In fact, if it were up to me, this section wouldn't even exist. However, I have seen the exact opposite of what you are claiming. Most times it goes exactly as Roo had laid it out. You people come in and make a ridiculous assertion, with zero to back it up, and members here present fact after fact refuting it. Then it goes down to the OP returning to just puke up the same ad hominem fallacy, ad nausea-um, until we just get bored with it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ok my comment was a little harsh and I apologize. Talking about WN politics in public is a GOOD thing. I just got triggered when you married an image of a plea to help others during this crisis with an image of neo-nazis marching. We played that game to long and it got us nowhere I have been to plenty of demonstrations and waved my flag trust me. One day I realized that it didn't work with thousands of klansmen taking to the streets in the 1920's so how would it work with a few dozen WN's in the 2000's? We all chart our own path and I have a lot of respect for you Billy, I just wish you had posted a picture of SWN Tennessee helping a family or something, showing that we are humans, that we care about whites in our community even if they don't care about us. Not everything has to be about doom and gloom. You don't win hearts and minds through intimidation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I’m here because I am morbidly curious and interested in what your guys’ arguments are (not seeing a lot of great ones tbh). I’m not saying you owe anyone anything, if you feel like you don’t then make your own nation I guess, I don’t care. See, I have friends who are minorities who I care about, and I feel like I owe them my respect just as they owe me theirs. My experience. Also.... Not a lot of countries would want to trade with y’all so you’re kinda [...] but okay. I guess Vatican City functions! Also 2x... woman* up. I’m pretty sure my voluntarily talking to people with such wildly opposing views as yours without hurling insults and calling you guys racists, sexists, disgusting pigs and breeders is already kind of on the “manned up” scale. Just saying. Also 3x.... you’re*
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Roman Forts of Hadrian’s Wall – Interactive Map March 24, 2020 Hadrian’s Wall Map – Hadrian’s Wall (Vallum Hadriani) was a defensive fortification built by the Roman Empire to separate the province of Britannia from the northern lands of Caledonia. Construction begun in AD 122 during the reign of Emperor Hadrian and ran from the River Tyne near the North Sea to the Solway Firth on the Irish Sea. The Roman Forts of Hadrian's Wall - Interactive Map - HeritageDaily - Archaeology News
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This Jaroslaw Bacdorf character sounds a truly ungrateful bastard and he fits perfectly into the 'economic migrant' category like so many millions of others. If his wife and kids have been in Poland for the past 8 years whilst he's been living here then it's fair to assume that much of his salary has not benefited the UK economy in any way, just as I've known dozens of Indians whose UK earnings (and in many cases their social security benefits) have been sent straight out to the subcontinent as soon as they've received them in order to support family members over there. This is just the tip of the globallist iceberg. Such people show almost ZERO loyalty to their chosen country of residence and are no asset to it whatsoever. I wonder if he'll come creeping back once the CV scare is over and his bank balance needs topping up again? In post-Brexit Britain we'd surely have the right (if not the political will) to tell such parasites to f*ck off!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have no real affection for any foreign racial type / category (this is nothing personal), and only a select few have any inherent or deeply entrenched qualities that I find admirable or beneficial. I have never viewed Chinese immigration or demographic presence in Britain as inherently desirable. Ignoring COVID-19, there is also the constant espionage threat, communist infestation and other nasty elements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is what the editors of the Economist=_= magazine push too. I subscribed to that magazine from 2008 to 2018. I didn't renew it in December 2018 because I no longer had the time or interest to read every issue. The board of that magazine has some rich Jews like I think Eric Schmidt of Google may be one. They push that open borders crap a lot. Merkel is fighting this heroic fight to allow more immigrants and her opponents are portrayed as far right bigots. I think it is the opposite. Merkel is a leftist extremist and her opponents are correct. I once saw an oped saying the magazine was saying how great it would be if 25 percent of Europe were African. I just about puked but that is what they push.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">to Sofia Kenin, a female American, who won the Australian Open. Until she beat Coco Gauff, I never heard of her before. I didn't know who was even playing because the coverage disappears unless a black girl is playing. It's so wrong, but why sports deserves to lose fans. This Sofia Kenin comes out very intense. She jumps around a lot like Rafa and psyches herself up. Sonya Kenin and Anna Kournikova by Tour photographer, Art Seitz. Please keep the proper credit attached to this photo if you use it! #Ausopen
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I believe the weather has been changing. I suspect the tons of pollutants being pumped into the atmosphere are speeding up the natural cycle of change that has happened in the past. The question is - Do we (the United States) castrate ourselves financially by closing factories/manufacturing, insane electric costs, high fossil fuel costs, outrageous unemployment, low food production + high food costs while those factories/manufacturing, employment opportunities go over to China, India and various developing countries?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This graphic exposes the racist policies employed by Facebook which discriminate against white people promoting ethnic nationalism. Of all the races of men, there is only one race which cannot promote ethnic nationalism on FB, and that is the white race. If all races are equal then why does Facebook discriminate against white people?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What you seem to be failing to understand is, this site (and others) is owned by someone else. They make the rules and they appoint/recruit moderators who have an understanding of what they wish, and how they want their site to be run. You are perfectly free to do the same thing, on your dime and your time. You don’t have the right to come to someone else’s “house” and start dictating rules. The rules have already been established and they need only be altered at their will, not yours. Sites like this are vulnerable because so many misunderstand what we are doing here, and just want us shut down. That being considered, you need to understand that rules/guidelines that may seem petty to those that are unfamiliar with what it takes to keep it going, are in place to protect the site that we all enjoy. And most of us, for free (which I intend on changing next month, for me). I moderate at another site, so maybe I have a better understanding of how and why this works this way, but I think I’ve explained it fairly clear.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">From what I know about Jared Taylor, his silence on the 'JQ' (and all the others issues of Cultural Marxism) isn't due to ignorance or denial, but simply a strategy he has employed to focus on what he thinks is the single most important issue - the racial question. That way he can't be derailed by opponents seeking to obfuscate the issue by bringing in a host of 'gotcha' questions about other things. Providing he doesn't act as a gatekeeper for those that could discover the whole truth - as so many in the civic nationalist movement do - then I don't necessarily see anything wrong with this approach.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When I was about seven years old a black kid picked me up in such a way that my head was pointed down and my feet were up. He slammed the top of my head into the floor. He was about four or five years older than me. Maybe even older than that. I blacked out when my head hit the ground. He was one of the sons of the black maid that worked in the house. I think that in retrospect I could have suffered a spinal or brain injury and maybe even have died. Fortunately nothing was wrong with me when I regained consciousness.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Covid-19 scare has given White America, and Whites the world-over, a rare opportunity to become active in undoing the damage the (((globalist))) agenda has inflicted on us over the last century. For decades we've been kept to too busy working to pay the bills -- just treading water -- to pay much attention to what's happening around us, never-mind actually finding the time to do anything about it. Coronachan has changed that. Don't waste this precious opportunity. Use it to FIGHT BACK. The Patriot Portal is a directory of more than 700 pro-White websites in two dozen different categories, from shopping sites, to research archives, to advocacy groups, to news and blog sites, and much, much more. I strive to keep the links fresh and relevant. Every week I add new links, and every month I go through about a third of the links to clean up the broken links. I just went through about 213 of the links and found and fixed 10 broken links. You can help by letting me know about any of your favorite sites that aren't already in the Portal. Check it out now and learn and grow, and most importantly get active in taking-back that which rightly belongs to us. Remember: The world belongs to those who show-up. The Patriot Portal of Pro-White Websites: Home Page
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please stay for a little while? If you want. I promise you can ask me anything. It's just that we get a lot of trolls and I thought you were one. We don't actually hate other races, if we did, we wouldn't open up forums for you. I'm actually really good at talking to people on whatever level they want to be at.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Look at Extinction rebellion, no more power. Now look at a map of Africa and Europe at night. They want us to turn the lights out, and Africa never even got any light. The 'Dark Continent'. People living in huts breathing smoke from animal dung. Britain was there to build some infrastructure, but got chased out by Communist believing locals. Has anything changed for the better under African Communism? No. Girls still get their genitals cut off. Has anything improved under Islam in Africa? No. Girls are still not allowed to go to school. People still eat wild endangered species from the Jungle. No live stock farms. No Pigs, no Cows, no dairy... (OK, they are lactose intolerant...) No Sheep, barely any Goats. Clothes come from Oxfam, because there is barely any manufacturing industry, no investment by the local leadership. Just tribal chiefs in Mercedes cars with private armies to keep them safe. Wasted resources. Those who can escape to the west, full of hatred and resentment. We , the people on the streets that you meet didn't do this to you people. You are being driven here by jews to destroy our fragile societies. A society doesn't survive without social cohesion, and Africans do not identify with our cultural norms. That is why people say 'Go Home'. But of course they've got no homes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The third image looks like a quadroon, perhaps? South Africa also has a sizable Indian community. But since it’s one screenshot, perhaps at an unflattering angle, it really could just be a white person. A lot of the nationalities that white South Africans are descended from have very strong facial features. Many white people do.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's not that... well, it is that, lol. But it's not only that. Years ago I had a friend who had spent a lot of time in... ~sighs~ the Peace Corps - yeah, I know. We weren't friends for very long, it was just that her stories were very red-pilling and she didn't even care, lol. Anyway, the stories she told me about what people eat throughout Asia were hair-curling. For example, I like Thai food too, but do you know why they spice their food so heavily? I don't know if you've ever been to Thailand, but what they serve in restaurants here isn't really Thai food. They call it "Americanized" Thai food, they say, "it's what Americans will eat." Yeah! Because we would never put what they eat over there into our mouths, we'd put it in the garbage! And I've eaten some weird stuff, like alligator. I'd never eat Thai crocodile, though...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"We’re literally hunted EVERYDAY/EVERYTIME we step foot outside the comfort of our homes,. Can’t even go for a damn jog man! Like WTF man are you kidding me?!?!?!?!?!? No man fr ARE YOU KIDDING ME!!! RIP I run with Karina Vetrano I run with Trisha Meilia I run with Wendy Martinez
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sure. I read all the articles at The Occidental Observer. Knowledge is power, regardless of one's race. Though I do find Joyce to sometimes be needlessly wordy instead of just succinctly stating the facts and data. I find he sometimes engages in an abundance of euphemistic explanations of things, spends instead of just going straight to the facts/data by using Occam's Razor and simply stating the underlying behavioral patterns of human innate behavior. I feel that Mr. Joyce sometimes ignores human genetics and instead uses large quantities of unneeded words to explain human behavior from a culturally deterministic point of view. But, all this being said, I think he is a competent historian and it's definitely worth my time to read all his articles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">These savage people: YouTube did the world renowned european paintings, ok. What do you know about art? The crown is made up of a variety of colors. The whitish pigments quickly fade into dark after long years of natural damage. And to say that nature made it to become dark probably only explains for a few paintings. No one ever denied this. But those paintings who do represent africans are the product of white minds (are you gonna say that Europe was full of blacks in that time too? If even today they are the vast minority) who never saw a real african. These black kings with richly decorated crowns are just imagination, projection. The whites who did it imagined they had gold in Africa too, but blacks never even invented gold. That is well attested by history and science.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I've been reading a little about the reign of Maggie Thatcher. Before the Falklands War she had one of the lowest approval ratings of all time. After the victory her approval rating shot up and guaranteed her a second term. Some of the older posters here might have looked into the possibility that the Argies fell into a trap. I have come across this idea but never really looked into it. As a young man I was swept up by the jingoism of it all at the time.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unpleasant facts are always wrong in the negro mind. A perfect example of an appeal to authority fallacy. Sigh, another negro fool pontificating on feel-good falsehoods and willfully ignoring unpleasant facts. When you have checked out an economic book or two you will see how foolish you are. As we showed you the last time you posted, slavery retards economic growth. Negro slavery held the nation back, it stagnated technological progress. I know thinking is hard for negroes, but you could be one of those magic types. Think, why invent a better tomorrow when you can buy a slave to do it today. Then again, I suspect you will continue to pontificate away with your indoctrination lessons of feel-good lies and ignore all unpleasant facts. It in your nature. It’s how your brains are miswired and illustrate why our two species can never cohabitate, why negroes can never function in our societies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yup. According to the bible the biblical descendants of the ancient Israelites are [not all] black people. The people in Israel are impostors who admit that they are not Hebrews or Israelites in their very own writings. Under the heading of... "A brief History of the Terms for Jew" in the 1980 Jewish Almanac is the following: "STRICTLY SPEAKING IT IS INCORRECT TO CALL AN ANCIENT ISRAELITE A 'JEW' OR TO CALL A CONTEMPORARY JEW AN ISRAELITE OR A HEBREW." (1980 Jewish Almanac, p. 3)."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am not religious but have family members who are Baptist, Catholic, and Mormon and have no problem with it. Religious people generally tend to be nicer folks, in my opinion. As for killing historical figures in the past, that idea probably originated with this Twilight Zone episode, "No Time Like The Past", in which a man attempts to assassinate Adolf Hitler. Speaking of New Mexico, it is the only US state stretching from California to Florida that doesn't have any native species of palm tree. All the other states (California, Arizona, Texas, Louisiana, Mississippi, Alabama, &amp; Florida) all have one or more native species. So do Georgia, South Carolina, and North Carolina. But New Mexico has none, despite its southerly latitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">International Holocaust Remembrance Alliance ministers adopt 2020 Declaration Jan 20, 2020 Cabinet ministers from member countries of the International Holocaust Remembrance Alliance (IHRA), Bulgaria among them, adopted on January 19 the alliance’s 2020 Declaration. The summit, held in Brussels, was called for the countries to declare their commitment to fighting Holocaust distortion, antisemitism, antigypsyism and other forms of discrimination. International Holocaust Remembrance Alliance ministers adopt 2020 Declaration | The Sofia Globe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No my mother is Jewish but has some Irish ancestry. I wouldn't say I'm like a normal Irish guy other than that when I drank, I thought Guiness was by far the best. My Irish ancestry however colored my outlook such that I've always searched for the pot of gold at the end of the rainbow. I believe Solomon's mines from the ancient world are copper mines in the Sinai and I'm interested to get into copper mining as it is better than the gold standard now. Today with gold you have to hold it personally because the certificates are worthless. And we all know currency is worthless fiat. Copper however has industrial uses and constantly goes up in value. Not to give away too much but I have made some contacts who may know details about locations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You missed my point. My point is girl are picky to BEGIN with. My social experiment proved it. Like the guy got floods of top the line girls within minutes. If you're an average guy and you do catch a girl, as you said you can say the wrong thing and the girl will lose interest or at least has a good chance of doing so. However, if the guy looks like Chris Hemsworth or is a millionaire, pretty sure that guy will be given lots of slack in terms of things he says/does.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Any Whites even contemplating race-mixing need to stop. That is really our only concern; the integrity, health and well-being of our race. It just so happens that if a Negro mixes with a Chinese person, they are hurting the Black and Asian races. But, that's their business, and ultimately doesn't impact our race. It would be better for them to stick to their own kind, but it's their choice to make. As for us, we simply want to see our own race stop committing suicide through racial erosion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First I myself don't use the word superior to describe whites. We are simply a unique race with unique qualities and characteristics like every other race has it's own qualities and characteristics. I'm not sure what you mean by white genes being easy to breed out of existence. They are no easier to breed out of existence in the way that when a misguided white breeds with a black, the child is not white or black, it is half of both. You could say that the black genes have also been bred out of existence. I've heard people talk about recessive white genes, but regardless the child is as much white as black. One thing which is a cultural thing in our dysfunctional world that plays a role in race mixing is the lack of racial solidarity of whites. Many whites believe their race is guilty, and that non whites are more noble or virtuous. They get these ideas from TV and other forms of media. We have all grown up with the propaganda that instills white guilt in us and demonizes any form of white racial solidarity. However this is a culture thing. A brainwashing thing. Not a genetic thing. The only way genes play a role in this is that whites are naturally sympathetic to the underdog, the weak, the poor etc. The media projects an image of non whites as the underdog, weak, and poor, where it shows whites as being greedy, spoiled, bullies etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As a person of portuguese, spanish and ITALIAN heritage (from Naples - nice green eyed people) I always felt much closer to WASP people. No one in my family is dark, no one has jewish nose, no one in my family looks ugly as a jew. By the way, I highly suspect the person who posted this grievance is JEWISH. Plus he feels closer to the creators of a pornographic industry that pushs race mixing with blacks. Ok.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I heard this in German...my translation. Ex. Presidents Bush &amp; Obama and Pres. Trump die in a plane crash. They go up to heaven to see if they will be let in. God asks George W. Bush, "What do you believe in?" Bush says, "I believe in Free Trade, a strong America and the Family." God says, "Good, you can sit to my right side". God asks Barack Obama, "What do you believe in?" Obama says, "I believe in Democracy, helping the poor and a free world". God says, "Good, you can sit to my left side". God then asks Trump, "What do you believe in?" Donald says, "I believe you are sitting in my chair".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That's some random person saying that blacks are more closely related to monkeys -- not a scientist or a scholar. Ever since people started making fun of you caucasians for having neanderthal/monkey DNA, you've been grasping for straws trying to find any reason to say that blacks are closer to monkeys. But there aren't any scientific studies that say that. It's all in your imagination, unless you can provide a source where a study is done that says blacks are more closely related to monkeys -- which you have not been able to do. You post studies that say everything except what you are claiming, then when asked to point out the part of your study that says what you claim it is saying -- you are unable to do so. You then revert to whining about negroes. -- the mind of white nationalists on full display here folks.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I did't say it is man-made. At least only/fully. For me that is not even the main issue. My focus is in possible results/outcomes. And as I said ... I don't like how those looks out (in any bigger picture). Yes, if possible I would like to avoid those. Personally? As I live even Northern than; nope that is hardly a problem here or in whole Scandinavia. We just loose winter sports (not a big deal). And more mild winters hardly would be problems anywhere in Europe. But too dry/hot summers can become challanger in Southern Europe and/or Central Europe (Continental Europe). For example France wine producers are already shaking (via their production losts). Not to talking about other crops of farmers. But I value this even in bigger picture. As long as we are not ready to shoot others humans (''refugees'') on our borders .... yes .... until then this worries me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Just a middle aged man babbling for several minutes about about MLK and the subversion of the USA by the egalitarian communist left during and after the 'civil rights' era. #MLK and the Kangz of Murrica King was a communist. He should be remembered as a subversive not as a hero. My Hero in this whole affair is Jame Earl Ray -- True American Grit that one. But be that as it may -- the #GOP decided under Ray Gun to make MLK a national hero,since they would hate to be 'racist' by standing up for #white christian society, Hell the cowards have allowed him to displace Washington's Birthday -- so in effect this negro subversive is the founder of modern PC equality cult Murrica ... King of the Kangz if you will. King of ghetto environs that his name flies over daily. I mean sheeit we all be equal cepting the Kangz who are MORE equal ... So equal they can't add, subtract or spell their own names. So remember on this fine day -- Say Thanks to James Earl Ray since without his hard work we might be Zimbabwe, or Rwandan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm so sorry to hear about the passing of your fiancee. There are a lot of nice young women at church. Find a more traditional minded one. There is an active Republican group in Boston on meetup. Lots of young adults in it. There are more people under 30 that are like minded in MA than there are over 30.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My irony meter just broke. A White Nationalist (you're not the first) on a hate forum goes on about how the whole world hates negroes and Black people's only friends are Western Europeans. I don't know about you, but I have never in all my times on the Internet come across a forum ran by Latinos or Asians or Indians or Arabs that was devoted to disparaging Black people. When it comes to White folks though, there is stormfront and /pol/ and theapricity and many subreddits and chimpania and even a site called ******mania.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I happen to be cleaning out a closet and found some older computers I have, XP era. And thought, in the new age of tech with all the spying, it may be good to have a few spares around to avoid them. I even have an old razr phone that still works. Those old chips don't have the Israel backdoor, neither does XP and such. A clean install runs great, and if you are just surfing, it does just fine. Oh, people always talk about updates and such and security, but really, I have never had any issues with attacks on my systems/etc. People have patterns, so the places I go are pretty much safe. I may fire one up and see how well it does! If it is a clean install, there is nothing to steal on it anyway, no pics or blah, or whatever..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In a serious eugenics program, we need to discuss what we want. This has to be hashed out and some sort of agreement reached. We have the ability to use a CRISPR and just weed out individual genes or change them. So what improvement do you want for the human race? How about increased bone density using Neanderthal genes as a model? No downside I know of and this would prevent bone breaks in some cases. Immunity genes. We can graft these in rather than vaccinate our children (causing autism). Sterilize mental defectives--those who show they cannot support themselves. Anyone think of others???
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yep I think most of the real nationalists on this forum have gone as well, we're mainly left with the conspiracy nuts and the 'conservative' / libertardian kool-aid drinkers who hate poor white people more than they want a white nation. To them life is grand and any white person who doesn't think so, just needs to 'git gud', get on their bike / pull themselves up by their bootstraps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">His fight against the tyranny brought on by Democrats, socialist, and communists, makes him one of our best presidents. He has done more for this nation than the last six to seven presidents combined. It does? Because of your overbreeding and obesity, your feckless kind is dying in much higher numbers. Ignorant negro. You can't shoot a virus so nobody is doing that. Whites are showing up as fighters against leftist tyranny. Ignorant negro. We aren't becoming anything huddling in our homes. This sick, stupid, and unlocking, are getting sick and dying. At last count, those who recover can be reinfected. Negro posters, as well as personal experience, have shown that your kind has extreme difficulties with logic, so I don't expect you to understand any of that. We are? Is this another negro mental delusion? Every day there are new things. Only in shadow of negro ignorance is there nothing new.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This always happens when a down turn occurs: Some Americans are taking on debt to pay for supplies they believe they need to respond to the virus outbreak. Some 15% of Americans have used, or plan to use, either short-term loans or credit cards that they don't know they can repay in order to buy emergency goods to deal with the outbreak, a survey by NORC at the University of Chicago found. An additional 17% in the survey said they had or planned to dip into savings intended for another purchase, such as a car, and 16% said they would divert money intended for other purposes, such as household bills. Americans Take on Debt, Tap Savings, for Coronavirus Prep, Poll Shows - WSJ.com
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">has anyone noticed the incredible rise of sikhs/hindus all over canada in the past decade? We have significant numbers of these brown people taking over. Canadian trade colleges are filled with them. It is impossible to order fast food which has not passed through their grubby hands. They hit up nightclubs in large groups, targetting white women.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It seems to be a general trend in some asians countries to be oriented to group values than individual values. There is the saying "The nail that sticks up will be hammered in." So that suggests they are less likely to go against the rules of their leaders. Some do rebel like the young people in Hong Kong. I met a young guy from Korea who told me his mother had a mental illness and she was put away. He said in Korea a person who has a mental illness is looked down on sort of as a failure to society. Where in America is understood that a lot off people have mental issues and they are not viewed that way.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agree! I admit it amuses me the way so much of so called "American Indian culture" is just borrowed from Europeans. The navajo indians of the sw, for example, base almost their entire culture on ideas they got from the Spanish. Sheep, horses, weaving rugs from wool, goats, "frybread". All from European settlers. The frybread is made with wheat flour (European), cooked in pig lard (European). They made a few pieces of jewelry from native turquoise. But the silver in their "indian jewelry" is from mines dug by, yep, Europeans. Their native religion is very negative. They do not believe in an afterlife, unless the person died in a violent way. Then they believe that person returns as a violent evil spirit. Oh yes. Very "spiritual, close to the earth" they are. They are also liars, appropriating European ways. I say go back to your early ways, and get off the European invented roads, and government checks. See how long that lasts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There is something about my psychology that causes me to take threats massively more seriously and focus on them much more heavily than an average person would. Even in my childhood, I had these tendencies. The fear is constant, and this fear causes me to fixate on the threats, hindering me from thinking about or focusing on other issues. My threat-intolerance and hostility to weakness, masochism and submissiveness are the stuff of legend, and this often leads to me advocating measures or actions that ordinary members of the public would view as unorthodox and/or extreme. Civilisational dissolution, insurgency, treason, sedition, racial segregation, democracy elimination, demographic outlasting, historical artefact / structure destruction and similar acts are permissible if they are absolutely necessary to prevent exposure to serious threats or extinction of the relevant people (collateral damage). There will be major focus on a very serious threat until a threat is eliminated.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And you do? So can you explain why this winter has been as it has been here? As I said first level/answer is pretty easy. Smart person like you can figure it out in nano/micro seconds. The second level (going bit deeper) is already more challanger. Surprise me. Old enough. Tell the truth, I would like to hear what why you purely hate global warming (idea) so much? * Is it so because enemy has risen it up? Who cares who has originally started to talk about it/some subject? So what? That does not mean that they actually should benefit via it. Not if others will not allow them. * Is it so as it would costs you something? Are money the most important thing? Has anybody sugested that you should pay something? If yes, how and how much? * Is it so as Greta Thunberg openly accused USA and western world? Young girl dared to do so. Who cares. * Is it so as you think this is part of white genocide? How directly? This if any is global problem. And there arenon-whites countries like Chine, India in the top of list. * Is it so as any nation should not give you orders (limit anyway your theoretical freedom)? Sometimes laws and regulations are needed. Here? Can those here really be that big? * Is it so as you are worried about your own lifestyle/standards of living (high consumtion)? Do you really need all that stuff? * Or why this is so damn nasty matter (something to purely hate)?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yep, this is a golden opportunity for ethnic nationalism. One which most here are determined to let slip through their fingers and get back to 'normal' as soon as possible, it's quite incredible. The only discussion on SF about the pandemic should be how we can best use the opportunity to advance our political goals. Instead, nobody wants to talk about that. Most of the talk is about how there isn't a pandemic at all, it's all a hoax! They only want to get back to work and buy more shiny things so they can feel good about themselves for having a shinier car than their neighbour, or feel like a better man because they have a big house and someone else lives in a flat! Yes there are literally members here who think exactly like that.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jews are creating their own problems. History is replete with lessons we don't learn such as been banished over a thousand times. The Muslim and negro will not tolerate the Jew lording it over them. They will want to mix with Jews, and the Jew is completely outnumbered. Jews encourage anti-Semitism by invoking it constantly.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motor Scooter runs to the South Coast? They were pretty much a false gang from the start, infiltrated and bamboozled from the get go. What we need is people to talk and spread a message, like UKIP did, not inarticulate thugs with anti social haircuts and problem drinking habits. No offence, but we need a proper PR outlook. The 'Brown Shirts' were the first on Hitler's 'To Do' list.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is the point of this thread? Let’s pretend for a moment negros did somehow make their way here before Columbus. Who founded America as the country as we know it today, pre 1965 anyway? Who built the culture, monuments, laws, civilization? They are all based on European culture and legal systems. If they discovered it first, what did they do with that discovery? Make a great nation or war with each other in small isolated areas. If there culture was so great as to discover the new world, why do we not see great culture coming out of Africa? You only need to look at our inner cities to see what their culture is, and they can take it all back to Africa and leave us in peace.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, it's not a lot more, just 2.8537% more. Percentage of whites with an IQ of 83 or less: 12.8637%. Percentage of whites with an IQ of 100 or less: 50%. Percentage of whites with an IQ of 110 or less: 74.7507%. Percentage of whites with an IQ of 120 or less: 90.8789%. Percentage of whites with an IQ of 130 or less: 97.725%. Percentage of whites with an IQ of 140 or less: 99.617%. Percentage of whites with an IQ of 150 or less: 99.9571%. Percentage of whites with an IQ of 160 or less: 99.9968%. Percentage of whites with an IQ of 170 or less: 99.9998%. Percentage of whites with an IQ of 180 or less: 99.99999518%. I assumed an average of 100 IQ points and a standard deviation of 15 IQ points for whites.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because the jew Holohoax Narrative Is a Propaganda tool! It is Greatest in the History of the World. It has Given an the EVIL jew a Stick to beat the White race into the Ground with. It Validates the Filthy Freebooter State of Israel &amp; Places the jew on a Moral Podium so that no Matter what Crimes, he may Perpetrate his Position is Impregnable. Every day, the Media, jogs one's Memory over the People of the Holohoax &amp; the harm It did to one Group of people. You are Supposed to feel Guilty &amp; Excuse away Anything These Lying Filth do, so the Filth get Personified as the only Victims. It is even more Terrible EVIL to Allow lies to be Embellished and used to Promote guilt, Blackmail &amp; JEW evil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">...what if... there's a plan for a rehabilitation program, and halfway house for them to come to after release? ...what if... such a sanctuary could provide a full-time, 7-day a week, structured apprenticeship program before re-entering society? e.g. it would include many programs, including but not limited to, the following:a full detox (including all 6 areas of wellness) occupational rehab to emerge with several useful skills, trauma rehabilitation and spiritual emergence counseling peaceful martial arts for self-defense, and education in the liberating arts and sciences in harmony with another former prisoner (David Lane's) 14 words - see: these 7 points seem useful as a model, which start with the 14)? education in the differing areas of law, equity, and treaties (with specific attention to Compact of Racial Rights for racial preservation and genocide prevention? Isn't there a need for such a place for recovery? ... before any work by sufficiently competent chaplains can interview potentials regarding the possibility of an invitation to participate in the above? or why not? and what possible obstacles would stand in the way of such a thing coming together?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reminds me of the ugly days of 1regin. Negro makes an outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. SF poster disproves the claim Negro claims such proof is of no value and makes a different outlandish claim. Round and round the merry-go-round we go, up and down.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No more so than asking members here to refrain from using PC euphemisms, such as whatever nonsensical terms the LBGT community has ginned up. I have no authority to require them not to, of course, but I would hope as a courtesy to those of us who have cultural and familial attachments to southeastern Europe, they would honor that request. If you're not from that culture, I realize it's difficult to understand the depth of feeling. Northern Europeans were never enslaved for FOUR CENTURIES by these animals. Here's just one example of why Greeks have come to feel the way we do:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This simply isn't true. Obama is a Neoliberal who bailed out the banks. Obama realizes blacks already get socialism under free market capitalism. Just look at how Sanders supporters are pushing that meme on twitter now about how Bloomberg spent 500 million on his failed presidential campaign ads that he wasted when he could have just gave every American citizen a million dollars instead to vote for him and easily won the 2020 election in an unprecedented landslide victory. https://twitter.com/NorthmanTrader/s...43592251301888
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A court in Turnhout, Belgium has sentenced a woman and her former work colleague to three years in prison for hitting and injuring an asylum seeker with a wooden pole after he had stalked and threatened the woman continuously for months. Belgian woman receives 3-year prison sentence for hitting her asylum-seeker stalker with a wooden pole - Voice of Europe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Have you noticed how blacks generally behave in the cinema? I used to be a monthly subscriber to Cineworld, where I paid 15 pounds a month for unlimited cinema. But suddenly Cineworld was overrun with blacks, and half the time the films were unwatchable because of all the noise coming from blacks. Then came all the popcorn throwing and hysterical black behaviour, etc etc etc. I simply cancelled my subscription and I don't go cinema anymore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good grief, what schitt these people are. Angry migrants, eh? What do they have to be so angry about? Not enough gibs? So now they made it harder for Greece to even give them gibs. This was the last thing Greece needed. Their economy has been a mess for a couple of years. What schitt some people are.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They are humans but on average they aren’t as intelligent or as educated as whites. I mean yeah yeah there are some black doctors and engineers but a vast majority of people in those fields are white. Also a higher percentage of whites have a higher IQ and stronger educational backgrounds such as people with bachelors and masters degrees tend to be white.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asians run filthy restaurants. Jews run slum housing. No sense of national identity. Both are here for the money only. America is a great big cow. They come to milk the cow. Both hate us more than you know. In fact, they believe themselves superior. The outlands posters fail to realise that only European Stock is to be considered as White Folk. ALL others will be repatriated. Because Immigration is just another word for Replacement. Obviously they've never had the pleasure to be alone in the vicinity of non-white gangs. :: :: :: ::
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The East Coast Knights call upon every good man and woman who believes in the sublime doctrines of Protestant Christianity, and the sacred, time-honored principles of pure Americanism to join hands with us in this righteous cause against the devilish wiles of wickedness and the threatening perils of anti-Americanism. Hotline 717-659-2256 Website East Coast Knights of the True Invisible Empire __________________ 33/6
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And here's proof substantiating my assertion (above) that "SQLi" is actually a migrant from VNN named "Sartt", who floated over here like a drifting turd from the west coast of Africa because his favorite opponent at VNN was banned by a vindictive VNN moderator named "Franco": Notice that the Stormfront thread title and VNN's "Sartt" both use the exact phrase "long before Columbus". Proof that "SQLi" and "Sartt" are one and the same.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What is your favorite thing to do? Play video games, guitar, go outside with or without a plan. I love wondering through woods/forests and mountains (given the opportunity). What is your favorite food? Italian. Love to cook steaks and challenge myself in kitchen. What is your favorite book? Last book I read was A Time To Kill by John Grisham. What is your favorite candy bar? Don't really eat candy bars but probably either Snickers or Milky Way. What is your favorite cookie? Chocolate chip or oatmeal. What is your favorite sport? Don't watch, but I can watch baseball and Hockey for a bit. What is your favorite kind of music? Metal. Punk/Hardcore, Hip-hop, Blues. Probably more styles, too lol What is your favorite song? Wait and Bleed or Purity by Slipknot. What place you would like to know about? Not sure of the question? Maybe know more about some ancient civilizations. What place would you like to visit? Would like to visit Europe again. What is your favorite thing about yourself? Probably my sense of humor lol What musical instruments can you play? Bass, guitar, sing/scream, a little piano. What is your favorite type of art? Music. I love paintings and most types of art and media. What would you like to teach others about? Would enjoy showing people how to play guitar. What are three adjectives which describe you? Funny, caring, grateful When you have an hour of free time, what do you like to do? Watch YouTube videos lol What is the strangest thing you ever did? Uhh... depends what you define as strange? Would like to share and compare stories with people! What is the strangest food you ever ate? Can't think of a strange food I ever ate, but I'm open minded about food.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's a generalized term, and if someone wants to cuss you, they will simply cuss you with the same words as the next person. The largest white population in Latin America is in Brazil, with 91 million whites out of 190.7 million total Brazilians, or 47.7% of the total population, as of the 2010 census. Brazil's southern region contains the highest concentration, at 79% of the population Argentina also contains a large numbers of whites. In terms of percentage of the total population, Uruguay has the highest concentrations of whites, who constitute 92% of their total population ... White Latin A - Wikipediamericans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What the pro Trump crowd does is live in 2016, this corrupt President has a record s President and that record is anti White. There is no way on Earth that W Bushes staff secretary and attorney Brett Kavanaugh was unaware that W was covering up the Epstein mess for Les Wexner. Kavanaugh is a Kirkland Ellis alumni, just like Barr and Leftkowitz and others involved in the Epstein mess, and Kavanaugh was in the White House as Staff Secretary when the Florida Epsyein cases first surfaced .....then he like Acosta and Mandelker was also promoted by Trump....... there's a reason Kavanaugh was introduced to the Senate judiciary committee before his nomination for SCOTUS by Condi and Rob Portman.......no one of importance from his own state would endorse him. Btw Ex Detroiter where is the SCOTUS and it's Trump appointees on Trump's attack on the Bill of Rights after Charlottesville? They're nowhere to be found, probably because they abdicated their power to say what the Law is a long time ago, and have been reduced to a group of highly politicized appointees who are beholden to and in service of an israel first national security state. What's suspect is supposed pro Whites, who should know better, still pushing the political career of a corrupt israel first globalist who used Federal power to sweep the Epstein mess back under the rug in broad daylight. And you're welcome to outline how the USA is alone in " shouting out the holocaust myth" the holocaust is official U.S. policy, see Sammy Davis Pence in israel last week meeting with Putin, Prince Charles and the rest of the globalists to reaffirm that policy..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. 6'0" 155 lbs. 24 years old(my profile picture is me, not my avatar, click my profile, actually let me attach a photo of me if it works) lean/althetic dirty blond hair green eyes German/English/French/Irish/Welsh/Swedish 2. Marriage and Children is my end goal, but not immediately obviously. Courtship is an important phase. 3. Positive Christianity/Christian Identity 4. No previous marriages/children 5. German(Fluent), Dutch(Intermediate), French(Beginner), Hiking, Weightlifting, Martial Arts, History, Philosophy, Nature, Animals, Biology 6. Highly intelligent/sophisticated, educated about subjects I'm interested in, can hold discussions for hours, MUST be in exceptional physical condition(not overweight at all, prefer petite/ballerina physique) preferably no older than 30, hair and eye color are not so important. I am a sucker for pretty blue/green eyes and blonde/red hair honestly though. Height not really of any importance. 7. I have two black half Siamese cats named Aphelion and Aurora. They're 5 years old now.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Third and fourth cousin marriages are not "incest", not the way the left thinks any white couple is committing incest at least. They think that any two white people marrying and having children is the same as a brother and sister doing it. They're trying to condition us to think that two white people, who are definitely not related (or perhaps separated by many generations), are always going to produce gross mutant children, and that we need to reproduce with non-whites so our children can be "healthy". Even though the only claim to health that race mixing has is that some recessive disorders and diseases may possibly be avoided, as if two white people always had to have the same recessive genes for unfavorable traits, and as if there were no dominant genetic traits that were bad (or genetic traits common in other races that we don't want to introduce to our gene pool).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, I suppose you could say they're "getting stuff done." I've recalled you saying twice that we could be using these coronavirus concerns for our advantage, but instead we're squandering a golden oppurtunity (or something along those lines), but I must have missed any posts by you with any ideas of what we should be doing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If he were not a coward he would be back in Canada trying to be the number one man to change the system since it bothers him so much. Instead he keeps throwing stone after stone at the victims of a system which is bent on following Jewish dictates. I said Jewish dictates and that annoys him also because he blames NOTHING on Jews. He is either dumber than mud or he is one of (((them))) and not one of us. (((They))) also love to claim they are White when it suits them. (((They))) love to post how ashamed they are to be White. He reminds me of (((them))) to be honest. I think he is a troll!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>64.1</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is obviously impossible. Why do you hammer on the same questions that will be obvious for most people? Do I ask you if people sleeping on the street in the UK can immigrate too Australia? Let's take an example with the Rhodesia's, why did the UK refused so many of them. Your own country won't take in UK citizens that have no funds and going to live on welfare. I think you don't understand my answers. Your welfare system is actually only for the Muslim crap.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Critics accuse Athens of taking a leaf out of Hungarian premier Viktor Orbanâ€™s â€˜manual on migrationâ€™ as conditions deteriorate on Aegean islands. Anger is boiling over in the northern Aegean as Greek islands that are host to thousands of asylum seekers bear the brunt of tough new government policies on dealing with refugees and migrants. The Greek governmentâ€™s recent practice of limiting transfers of asylum seekers to the mainland from the island hotspots of Lesbos, Chios, Samos, Kos and Leros has led to severe overcrowding and a deterioration of services and conditions, rights groups say. Between September 2019 and January 2020, the government transferred 14,750 people to the mainland, even as 36,000 new arrivals crossed the Aegean to Greece from Turkey, according to UNHCR data. Tensions Erupt on Greek Islands as Asylum Policies Bite | Balkan Insight
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For starters if you will read the what the "Talk" thread is about it states below it that this area of discussion is for Whites to meet other Whites which is not what this post is about. Secondly even for a liberal or some other type of crazed modern day kook his statement is just a little bit more than what I can take like the "divorce is wrong" crap, race mixing is wrong and so is wasting the time of quality Whites who know what intelligent and responsible behavior is. If this junk is going to be allowed here at all it should be posted in the opposing views forum and not be allowed to ruin the atmosphere of the "talk" forum. We don't need a child standing behind a great painter with a jar of paint and throwing it on the canvas ten minutes before he is done with a great work of art. The penalty for race mixing is death and I am serious when I say that just like William Pierce was serious when he made that same statement years ago. He can stew in his own juices just like Charles Manson did for being an enemy of the White race. This thread is in poor taste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jews, who go all the way back to their ancient ancestors the Canaanites, sacrifice children, rape children, eat children. Did you know ‘Cannibalism’. Comes from ‘Canaan’? Demon worship, magick, etc.. all goes back to the early days. You could look at things like Hollywood and pizzagate, missing children the world over. etc... eventually, the pieces of the puzzle come together....
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Black First Land First (BLF) calls on the National Prosecution Authority (NPA) and the Hawks to arrest and prosecute FW de Klerk. On May 8, 2017 BLF laid 22 criminal charges against FW de Klerk regarding cases of mass murders relating to several massacres. FW de Klerk didnâ€™t appear before the Truth and Reconciliation Commission (TRC) to make confessions regarding his sins. He has no immunity from prosecution. We demand justice for the thousands of people murdered by his apartheid regime. We note that white monopoly capital (WMC) is going all out to use the captured judiciary to lynch both Dudu Myeni and the Public Protector (PP) Advocate Busisiwe Mkhwebane. We also note that Ramaphosaâ€™s ANC is dealing with all the other Radical Economic Transformation (RET) forces, to satisfy the CR17 donors. In this context the legal system continues to prosecute black people while white criminals, charged by BLF, get to walk the streets freely. BLF will be approaching the NPA to get clarity as to why de Klerk has not yet been arrested and prosecuted and shall take appropriate action for its failure to do its work. Issued by Black First Land First, National Coordinating Committee of (BLF NCC) 2 February 2020 Contact Details Black First Land First Mail: [email protected] Zanele Lwana (BLF Deputy President) Cell: +27 79 986 7225 Arrest and prosecute FW de Klerk – Black First Land First (BLF)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh no, not the IQ test! I checked out your source for the IQ averages and at the very bottom of the page it says: "We have learned about these numbers from 2002 to 2006 by Richard Lynn, a British Professor of Psychology, and Tatu Vanhanen, a Finnish Professor of Political Science, who conducted IQ studies in more than 80 countries." Hmm... a british professor... isn't Britain the same country that now admits black africans were the original settlers? According to you that's a lie. Well is the IQ test a lie too then? Come on dude, make up your mind. Like I said, the extreme hypocrisy of WN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeah, lol, they sure as hell do. Like an end to white supremacy, patriarchy, and heteronormalivityness - whatever the hell they're calling straight people having babies nowadays. From Stuart Basden, one of the founders/admins of Extinction Rebellion, who right off the bat says it's not really about the climate (lulz): Extinction Rebellion isn’t about the Climate - Extinction Rebellion - Medium WOW! Nobody saw this coming a mile away.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>47.57</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You forgot to mention the amerindians who are half white, racemixed Latinos and others. Morroco had a strong Viking colony, so they are Aryans, Syrians claim to be SuperAryans and on and on. What about Negro-White mixes? I understand northern Italians are pretty pure Aryans, the southern ones are typically not. (Been there saw the difference) Where do you draw the line? Where do you stop the race mixing? I am not hostile to people who have Aryan blood (exception is Jews ((are they white too?))) We have to find a policy how we can integrate these part Aryan without mixing their foreign DNA with ours. They are welcome to fight with us, develope their culture, get help to clean their countries from Jewish influence, get help in any way necessary and beneficial for both groups. We don't want hostility between us but mutual support, but keeping us in our nation's.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, telling half of the White population that you are going to take their vote away because of their gender is really going to win you the support of the White masses. Even ignoring the fact that taking the female vote away is something only the MGTOW and Wahhabi retards could support, taking the female vote away would change nothing in regards to racial matters in the UK, USA, France, Germany, etc., because if you haven't noticed, even when the "right wing" parties are in charge (the Republicans in the USA, the Tories in the UK, the UMP (now known as les Republicains) in France, the CDU in Germany, etc.) those countries keep getting less White thanks to those parties supporting mass third world immigration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He's restoring the paintings? That must explain the painting of the black man in the background. And the pantings/statues turned black over a period of time... only the skin though? Not the clothing or other portions of the paintings/statues? Is that the best that you guys can do? Actually, it probably is. Considering the fact that the people in these paintings and statues LITERALLY have black skin. That's an obvious and undeniable fact. The skin turned black over time, but the crown stayed gold, and the clothing retained it's original colors, as well as the background and other miscellaneous objects? And you guys seriously believe that nonsense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Many of the good people have been extremely busy and are working on things other than social media. Fading Light comes to mind. There is a time for talk and a time for action. I have been so busy the last couple of years I had almost completely left social media. On a break now, but will probably disappear again soon. If you are really trying to accomplish something, social media can be distracting.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I get so tired of the doom and gloom that you and so many other stormfronters promote on here. Now I know I'm guilty of the same doom and gloom too but can we not post some uplifting things too? You think having one big circle jerk of doom and gloom is helping?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Both tactics work as long as you know your audience and what they need to see. Also, the dummies always ask for scientific proof since they think they know the science. People need to understand what goes on inside a college classroom, their profs show them charts that back up their pseudo science, or they Marxplain the charts so it matches up with their utopian world view, and I know this because I live in a college town and I attend the odd anthropology and/or sociology lecture thats open to the public - it's worse than you thought. PeaceThroughStormfront mentioned Lysenkoism last night, and college kids are right now being taught the equivalent in anthropology. I was laughing at these people until last night. Our biggest problem is that our particular brand of humanity is being taken from us bit by bit, our history is the most obvious, but they've also been working on our biology all this time. Cheddar Man wasn't a joke, race-mixing isn't a joke, it's all the expected culmination of the social erosion of our unique biology.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then you wouldn't be comfortable around most "white" people today, from lefty liberals to race-mixing "judeo-christians". Very few "whites" today share our racial awareness and concern for the survival of our own kind. All we can do is continue trying to get our message out and hope that the best of our folk join us eventually... before it's too late.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't know why I'm bothering with this fool... You bet your arse. If a grown man bum-rushes me and I'm holding a gun, he's getting shot. I don't give flying fart in space what color he is. Here we go... Somebody did call the cops. Google is your friend. Better yet, Stormfront's even friendlier. We have a thread dedicated to this incident in the Newslinks section in which you'll find the 911 call and home security footage of the guy casing someone's newly-constructed house. No, I'm not linking it in here for you - you're a big boy, find it yourself. You're welcome. Because it turns out the guy is very likely GUILTY of Breaking and Entering and there isn't much to say. Oh, and it turns out he has a record - Iknowrite?? I was shocked, too! That's the part I'm not clear on so I can't really say. Apparently one of the two men is a retired cop and he was attempting to make a citizen's arrest. I know that's legal in many cases, but not in others. But like I said, he was a cop so I'm assuming he was aware of the laws and wasn't breaking any but I don't really know. A crime is a crime, it doesn't matter who's committing it. It just so happens that white men don't typically bum-rush people brandishing guns at them, but that is however a classic negro move as evidenced by body cam footage from police literally everywhere. ~shrugs~ So there you go. Anything else I can help ya with today, Sparky?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I agree! What a pathetic person to be so insecure that she would be triggered by these white women knowing more about her culture than she does. Honestly, this Indian lady sounds so typical for her people. She was too lazy to learn about her culture, and blames white people. Obviously the information is out there and anyone can access it, even white women who took the time to learn. Other Indians obviously know it too. But this lady doesn’t know it because...colonization
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I agree, we shouldn't be fooled by their clean image, their culture has a problem with filthy habits eating and living with animals. They caused SARS, bird flu, swine flu, you'd think they'd have learnt but apparently no, the entire world will now lose loved ones because the Chinese are an unclean people. Its time they took responsibility. Plus a lot of the women are greedy scheming home wreckers who'll happily fornicate and race mix if it means they get designer clothes and expensive jewellery.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There's lots of whackos out there Glad, and you girls are all pretty good at weeding them out. Most guys come way too fast and heavy. We need to teach them to hang back, show some male self-control and be a challenge(the male version of being hard to get). White men also need to learn that love and romance is about being light, funny, and playful, not being overly heavy. Too many white guys don't understand that the deep connections with women comes from taking her out on dates and giving her a good time by being light, funny, and playful. Now, Glad, if you come across a guy that can do this, there's a good chance that he's going to be a keeper. Sorry about the creeps, but ignore those immature unschooled guys. We can still help them, but we need to know what exactly to teach them. That's why I'm posting here. Diversity is a codeword for White Genocide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm not sure what education level you have gone up to, but I have already posted genetic evidence, there are also individual analysis of Jat DNA that can also be discussed, and also supports a east to west migration as opposed to a west to east migration drafted by the Imperial British. Moreover, the British nor any European nation called themselves Aryan before the British East India Company arrival in India itself, it is a term adopted from the native Jat race of north India/Arya by the British when they were there, and then later popularized by Adolf Hitler as he began to institutionally isolate the Jewish population within Germany.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A lot of the holohoax was underscored with Soviet collusion. It was a good rod to beat the Russians with... 'See what the decadent west is like!' In the meantime Russians were banged up in Gulags and Sanatoriums right into the 70's for holding dissident views. Putin was a KGB apparatchik until he was selected for the job of 'Leader'. What did we get in the west? Food additives that made people fat and stupid. Mind controlling TV and entertainment. Vehicles that used unsustainable amounts of fuel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My comrades and I are promoting a website dedicated to Aryan Artwork and Culture. We have just launched this morning in celebration of the Fuhrer's 131st Birthday. Our premier artist, Ulf, is truly a master of his craft. I don't think the movement has EVER seen an artist so talented and dedicated - Ulf is a tried and true comrade. Please show support and help share in any way you can. Beautiful propaganda is truly what our race needs to quicken our spirits and affect those who have lost their way. Grotti Mill Productions
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Don't forget to move your clocks and watches one hour ahead at 01:00 hours GMT today, when we move to British Summer Time. Now that every day is a bank holiday it doesn't matter much, but don't forget that after your diaries/calendars were printed, the Early May Bank Holiday was moved from Monday 4 May 2020 to Friday 8 May to commemorate the 75th anniversary of VE day, 8 May 1945. The latter was possibly a sentimental gesture made by either Theresa May or Boris Johnson. Can anyone say which one? EDIT: This post was made at 02:08 am BST, but is currently showing 01:08 am on the creaking current Forum software. Watch this space!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is our country. Us Whites created it, created the Constitution, the laws, we built this. And everything was fine. Now we have all the freaks and perverts infestation here, heightened by the Jews. It would be a better move for all of you to think about joining some bizarre pervert cult somewhere away from normal society.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Everything is "pseudo" to you and all scholars who debunk your claims are "random" people. Your only defense is that these black africans who were early settlers in europe were not "negroid". Lmao! There's so much evidence that it's funny to see you trying to wiggle around it. You literally responded to everything that you could form a silly argument for, but notice how you had nothing to say about the very last photo that I posted? The one of the black knight.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">YES! YES! That is it exact! It is almost normal -- and that makes it worse! The #WHITERACE is in peril because the #GOP sorts won't learn to play by the #identitarian group based rules. Why? Because they are selfish weak people with no real values. They only value $$ Enemies Ancestors and the Enigma of Multicultural Democracy
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Our enemies think that "White supremacy" is some sort of slur they can use to degrade us. It is actually an expression of their deep envy of all that we've accomplished. They know we're the most advanced people on this planet and they are insanely jealous of the fact. So they HATE us. I can live with that. If I can have neither love nor respect, I'll settle for fear.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">At the time of Confederation, ~1 in 5 British North Americans had emigrated to the US, largely because the supply of good agricultural land had run out in Upper and Lower Canada. The problem was exacerbated by delays in the Intercolonial and CP railways. Then in the the 1920s an average of 100,000 people per year left Canada for the United States, largely due to the hostility of MacKenzie King's Liberal government to industrial development. Now we'd still be nowhere near 100m if events had turned out differently, but ~50m would have been very likely.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zionism is 100% jew. And it has evolved over time. There is basically the pre 1948, and the post. But who cares? The jews are a fraud people. No Jew was ever a Hebrew Israelite, the Talmud is an edited form of the Chaldean based Tradition of the Elders, ‘jew’ in the English translation was only to mean ‘Judean’ which has the same meaning as ‘Californian’ or ‘New Yorker’. The International jews, the moves and shakers, are more akin to the Jew ancestors. Demon worship and secret societies. The fake Israel land was created for the super rich to escape to. They know that the Jew people have been thrown out of every nations since forever, and needed a place to run with their wealth. And also to eventually build a centralized ‘world criminal network’ based there. Jews are similar to Scientology. A fake organization loosely made up of stolen ideas to give credibility to cover up their scam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Look folks, I come on here and criticize Stormfront all the time when I think they are wrong. Stormfront does not post all my posts but Stormfront posts the vast majority of them. Other forums do not have an Open Forum but don't think it is because other forums are not asked by their members for one. They are and are told it is just too much trouble and no reward. Give Stormfront credit where credit is due.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Men date women who are the most attractive they can get (when it comes to marriage they also look at other factors). You can be blonde and ugly. The thing about blonde hair is that it is unique and verry rare in most populations so it has "exotic" appeal. North euros think their better because they were at the leading edge of advanced civilizations in the last ~300 years. But its not always been like that. You can say the same about any man or woman everyone ages. You can slow it down and even reverse ageing in the short term if you know how to take care of yourself. But eventually everyone ages. NOthing to do with race.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For me, this is the best post on the thread. I've lived 68 years on this planet, and have never seen any evidence that blacks are human beings. They're not just a different race, they're a different species. Languages, culture, religion, art, science; in all these areas they are primitive. If ever they became the dominant species, civilisation would disappear.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It varies. I'm fairly open with my views but you never know when some left-wing extremist is going to bracket you and have you assaulted. And of course we have draconian "hate-crime" laws, so incautious speech can get you imprisoned. Incidentally, we have a section for Brazil folks, in this area of the forum: Stormfront en Español y Portugués Edit: though I see you've already found the Brasil section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Um, but you haven't proven anything that you've said. All you've done it say it. If I prove it all you're going to do is pass it off as being "chock full of crap". Prove that europeans did what you said regarding agriculture in africa? Please also provide a source proving that 90% of SA was unhabited before europeans came. That's another lie that you probably won't attempt to substantiate. And then to top it all off, you post a quote from a man who believes that fish turned in monkeys, and then those monkeys turned into humans -- as if that actually means anything.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I am afraid we will have to get into the fine detail, won't we? And for many, it may seem just unfair, but then you would have to take it up with nature, not the White man. Simply: The White race can go anywhere and things improve. The black race, and other races cannot claim that. So logically, you can't put lessers in a higher White society. Doesn't work. Go back to your mud huts. Look outside your window for proof. YOU'RE WELCOME!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have been reading it. It's a blizzard of facts?, "facts," and Facts. Who besides the two of us will read through all this mess? This is like the Vietnam War of threads where a lurker isn't sure what the conclusion is. Globalwarmingclimatechange™ whether fiction, factual, or exaggeration is nothing more than an anti-White scam. What new fact can be dropped in this thread that will convince anyone? When have facts ever mattered to religious zealots? This is an anti-White religion backed by faith, some facts, and whole lot of hyperbole. The only thing all sides can agree on is that there is an anti-White double standard. That's what needs to be front and center of this discussion. Oh, boo hoo for the environment, therefore stop having children White countries, and also you don't have enough children so we need more immigration. Oh the environment is so damaged, stop driving a car, but China, Africa, and everyone else gets a pass. Now we have climate refugees, but White South Africans don't count and you can't refuse any of the brown people. Don't have children. Pay money. Open borders. I'm not discussing facts with a setup like that. Anti-White scam. End of discussion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Let’s share the whole quote with the rest of the class: “This court does take judicial notice of the fact that Jews were gassed to death at Auschwitz Concentration Camp in Poland during the summer of 1944. It is not reasonably subject to dispute. And it is capable of immediate and accurate determination by resort to sources of reasonably indisputable accuracy. It is simply a fact." The answer to your question is “Yes”.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Again, IQ tests have only been around for about a century. That's about four or five generations. And the science behind measuring IQ has changed a bit here and there. It's possible that IQ has been falling for the past few decades, but also possible that it hasn't. There are more factors to consider here.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Define "propaganda" and explain exactly how that study is "propaganda" -- be very specific please. Explain why you arbitrarily chose this number "4" - why does it matter? Can you find ONE (01) study published in an academic journal that shows Whites are genetically closer to Chimpanzees? The use of chimpanzee and gorilla alleles to identify sub-Saharan Africans as the "ancestral" population (i.e., sub-Saharan Africans have alleles that chimps and gorillas have, but Eurasians do not have) is widespread. I suggest: Human Diallelic Insertion/Deletion Polymorphisms and Patterns of Ancestral Human Diversity: An Analysis of Alu-Insertion and Restriction-Site Polymorphisms You don't care though. You don't believe anything unless it makes you feel good. I guess they are just a subset of sub-Saharan Africans, but nevertheless that is the only sub-Saharan group tested and is used to be representative. They only used: Pehuenche Indians, Dogrib, New Guinea highlanders, Sokoto of Nigeria, northern Germans, CEU (White Americans from Utah), Kachari, Samoan, and Chimpanzee Show me a study where other sub-Saharan negroids are more genetically distant than Eurasians from Chimpanzees.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">. Yeah. Like any dumb animal. . “Don’t Stare right in their eyes! They’ll attack!” Instinct blocked rational thought.... Well, for humans, panic means run away, flight, or surrender. Wild animals when cornered attack, so it is best to be armed. Just like a Trayvon. Could have kept running, chose to attack the guy. Now he is worm food. Same with this guy. I remember years ago, when I was a kid, I saw some kids from another part of town in our back yard. Me and my brothers went out to get at them. Get them the hell out. Territorialism. We know blacks are thieves. Jogging? Maybe in Hollywood, or some rich neighborhood. Not a little town. You want to rummage around a construction site and wander in a strange area, expect the unexpected. Only a fool or a negro wouldn’t.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The populations of both Africa and Asia are more than double the entire white population on planet earth and they will be quadruple us when the baby boomers are gone in another decade. Think about you are saying. Who cares if the US and Europe are where everyone wants to live. Of course they want easy access to young white women that goes without saying.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This member Filip has always a anti Russian kinda pro israeli sentiment , just one of his many comments trying to fool people that ashkenazis look like northern europeans LOL ! 9/10 of ashkenazis like look typical jews with jew noses and those kinda stereotype jew faces. ITALIANS do not have Afro and Asiatic admixture like Jews have, Jewfro is famous, their black admixture is almost visible in all jews, they do also have a large asiatic admixture through Khazar Jew migration (mongoloid jews). the Modern Jew and Ashkenazi Jew looks almost 9/10 times like a stereotype.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I thought we had some sellers there. You can't offer things for sale until you have had 15 approved posts. There used to be an advisement, but it seems to have disappeared. In any event, you can offer to buy stuff now. Perhaps you can find a silk-screen-er who will make something for you.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enough of the weak statements that look like. Whisper. I like to use something that negros and such can’t pronounce nor understand: UNAPOLOGETICALLY WHITE: WE DON’T NEED PERMISSION. Look at those pathetic groveling ‘so sorry’ losers... I would walk in there with a 2’ piece of rubber hose and beat the hell out of everyone in the room! *WHOOOMP!* *WHOOOMP!* Yeah!!! Take THAT! And THAT! Let the Bruthas and their groveling slaves hear the singing hose pipe in fear as it smacks them silly and leave funny welts for remembrance!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The intelligent have always been outnumbered by the ignorant; such is one of the basic flaws of democracy. An "en masse" change is only necessary if one wants to save the entire existing society. A more realistic view is banding together a group of intelligent survivalists who merely wish to survive the destruction that the lemmings are bringing upon themselves. One important factor to consider is that, to a certain extent, belief shapes reality. Someone who wants to win has a certain advantage if he is optimistic enough to believe that he can win.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Code: ██╗ ██████╗ ██╗ ██╗███████╗ ███████╗ ██████╗ ██████╗ ████████╗██████╗ █████╗ ██╗ ██╗ ██╗ ██╗ █████╗ ████████╗███████╗ █████╗ ███╗ ██╗████████╗██╗███████╗ █████╗ ██║ ██╔═══██╗██║ ██║██╔════╝ ██╔════╝██╔═══██╗██╔═══██╗╚══██╔══╝██╔══██╗██╔══██╗██║ ██║ ██║ ██║██╔══██╗╚══██╔══╝██╔════╝ ██╔══██╗████╗ ██║╚══██╔══╝██║██╔════╝██╔══██╗ ██║ ██║ ██║██║ ██║█████╗ █████╗ ██║ ██║██║ ██║ ██║ ██████╔╝███████║██║ ██║ ███████║███████║ ██║ █████╗ ███████║██╔██╗ ██║ ██║ ██║█████╗ ███████║ ██║ ██║ ██║╚██╗ ██╔╝██╔══╝ ██╔══╝ ██║ ██║██║ ██║ ██║ ██╔══██╗██╔══██║██║ ██║ ██╔══██║██╔══██║ ██║ ██╔══╝ ██╔══██║██║╚██╗██║ ██║ ██║██╔══╝ ██╔══██║ ███████╗╚██████╔╝ ╚████╔╝ ███████╗ ██║ ╚██████╔╝╚██████╔╝ ██║ ██████╔╝██║ ██║███████╗███████╗ ██║ ██║██║ ██║ ██║ ███████╗ ██║ ██║██║ ╚████║ ██║ ██║██║ ██║ ██║ ╚══════╝ ╚═════╝ ╚═══╝ ╚══════╝ ╚═╝ ╚═════╝ ╚═════╝ ╚═╝ ╚═════╝ ╚═╝ ╚═╝╚══════╝╚══════╝ ╚═╝ ╚═╝╚═╝ ╚═╝ ╚═╝ ╚══════╝ ╚═╝ ╚═╝╚═╝ ╚═══╝ ╚═╝ ╚═╝╚═╝ ╚═╝ ╚═╝
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If it was about inclusivity, then why not an all white commercial, an all black commercial, an all yellow commercial, and an all hispanic commercial? That would have been better inclusion and more true to life. This was a obtuse attempt to marginalize interracial couplings and those irritating mulattos - the fact that there is traction about biracialism versus the good old days of the one drop rule making them black automatically makes this suspect for an agenda. And I'm willing to bet this airs exclusively with all the network shows with interracial couples.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I can only say we have not received any request for information for directions from either of them. It has been posted maybe not on SF but other social media sites. I thought I had posted it here but it seems it was not or failed to post. The spring rally set for April 18, 2020 is posted here on SF. If they can not make it on the Feb 22nd maybe they will the other. Other rallies and meet &amp; greets or public events will be posted at a later date. Please keep advised as one maybe in your area.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Woah! That's a very powerful word. We don't use that kind of language here. We LOVE our culture, our history, and our race. And we damn well are justified in doing so. No wonder why you're a confused White as your handle states. You're too busy hating others and not loving your own. Try to love your race for once and you'll see how great it is.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well now I just need a place to look since I've been a loner most of my life. Since I already need to learn how to shoot, a local gun range with a group setting. Sure might not find a woman but might find friends to introduce me. I think it might be easier even past 20s to find a woman among friends. And ya when I go to the dance halls, I never look for a woman but I always ask them to dance. I normally tell them it's like speed walking when they say they don't know. Some times it gets a giggle most of the time it's a smile. Maybe instead of just asking for a dance and that's it, try to sit with them and chat, but it's a bar so hard to hear anything.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maybe in some ways we're failing but it doesn't mean we're not right. The best argument against race mixing is human nature. You think we can have a race blind society but it never is, as soon as times get tough people group by race, because it's in our nature, and your "multi racial society" becomes different groups in conflict. It's as wrong as saying men and women should share changing rooms, ignoring the fact it's in men's nature to get physically aroused by undressed women, then wondering why the women get harassed. We separate the sexes because of human nature and we should separate races for the same reason. Mixing might work for some people, for a while, just like you might find a man and a woman who shared a bed without getting aroused, but still it doesn't mean it'll keep working forever, and it's a recipe for disaster if the whole society does it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My suggestion is a moderated data section. It would be a subforum dedicated to posting reliable studies, graphs, and various other data that is relevant to our movement. Sometimes, I have to search far and wide just to find something I saw a few months ago - granted, I should have saved it in the first place! But, it would also be useful to have a place to share these things, even if there's no context for the information at the time. It would be moderated, because even a lot of members I really respect and admire, don't always know what a reliable source is.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When someone says they "have a solution" to any given problem, the only metric by which to judge that solution is by results. For instance, if Joe says to his neighbors "I'm going to paint my house" and then two months later nothing's been done then that is a reasonably good indicator that Joe's claim was never serious. That said, perhaps hundreds of Facebook/Twitter accounts of faux Jewish rabbis have already been made, and you simply haven't posted the evidence yet. If so, I'm perfectly willing to be convinced. But....where is the evidence that your "solution" has been carried out?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, aye. Savitri Devi believed that Hitler was the ninth and penultimate avatar of the Hindu god Vishnu. What can not be denied is that whatever god one worships, Adolf Hitler had a numinous quality about him that was apparent to those with eyes to see! __________________ (nu·mi·nous /ˈn(y)o͞omənəs/ adjective having a strong religious or spiritual quality; indicating or suggesting the presence of a divinity.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anybody can buy stickers/flags off the Internet, I guarantee you those stickers in the Uk where probably put up by sombody who is not c18. C18 was an actual organized group in the 90s, it is now largely defunct. This c18 leaderless resistence stuff is just a cliche which isn't even a thing. I have no idea about anything or anyone claiming to be c18 in the USA so i can't comment on that one.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good story and i would say as long as women are raised to respect themselves and family, they'll always chose right. The same goes for men as well. In our society today women have been given freedom to chose but some of the times those choice lead them to being hurt, either emotionally or physically. And many will point to men as being the problem for either helping them or not. However, I don't know if the OP would agree or not. A couple post about why the opposing king didn't keep Arthur. This might just be my understanding or pieces I've read about ancient Europeans. It wasn't true from everyone. But the notion of honor use to be a big thing for many people. Arthur promised the king that he'd find the answer or forfeit his life. No where in the story did it say Arthur would do that but I get the feeling that's how it would play out. In some cultures, even if presented with death, if you take an oath, you take an oath. So be careful with what you agree to. Anyways good story and welcome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Looks terrible. They look like they have exposure from the sun similar to Eskimos. Sure, there were peoples who lived around there way back when... But consider a description of Abraham's wife Sarah from the Dead Sea Scrolls: "Her skin was pure white; 'She had long lovely hair; Her limbs were smooth and rounded She had slender legs and small feet; 'Her hands were slim and long and so were her fingers. ... fine are the hairs of her head!" Whites are not baked in brown. We can get a good tan though. Anglo Saxon, Scandinavian, and Germanic peoples are the real Israel people. First the lost 10 tribes, after the Assyrian captivity, they were moved to south of the Caspian Sea, and expanding on both sides to the north, joined later by the remaining southern tribes. They became the Scythian nation, called in Assyrian and Babylonian Gimiri / Cimmerians, Sakae (Sacae) in Persian &amp; Median. Herodotus tells us that the Scythians or Sacae, first appeared in that land around the 7th century bc. The same time the Israel tribes were placed there by the Assyrians. Later that the name evolved from Sakae to Saxon. They spread out from there into Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't "hate" any of it, but I will not fall for it. Only Whites are affected by this weapon of perception. Once again: I don't come to heel through the fear and despair drone of the nonsense machine. It is a means to control. And that while lying leftist scumbags like Obama spew the line then buy a 15 million dollar house at Martha's Vineyard...which is at sea level! Once again, ignore the babble, no despair, find a good woman, have kids, and enjoy nature for what it is.... *
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">And yet if we're so bright, why are we the only race which embraces its own suicide. We aren't so bright. We have some intelligent folk, we have some average and we have some very very dumb (rather a lot of those actually). You can love your own people while still admitting to its faults. Indeed it is patronising to deny them and stands in the way of learning and improving. It would be like a parent of an underachieving or stupid child praising them for being great, so that they stop trying to do better because they think they don't need to.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">About 10 years ago there was a DNA study done on west coast africans, and it found about 1 of 3 had traces of chimpanzee DNA. The report concluded they had a common ancestor from about 50,000 years back that was not human. In a sane world they would test all blacks and sterilize those having chimp DNA. The problem would go away in a matter of a few years. Of course in zio clown world, the study was buried. I went looking for it last year and it was completely gone from the internet. But it explains a lot. Most blacks seem human but a sizable percentage of them don't, you can see it their eyes, the way they walk, their complete lack of human empathy. Since nobody is controlling for it, chimp DNA has done nothing but spread out wider through the black community since then. And that's a problem that isn't going away anytime soon, since Whites aren't in control of anything anymore.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Billy Roper isn't a "homosexual prostitute". Not to mention the debate over "worse is better" and similar but varying outlooks has been going on long before any of these more recent trends of the last 5 years or so. Btw, I don't and won't identify as a "accelerationist" because the term means pretty vastly different things to different people from what I've observed and experienced. There is truth in the statement that we may NEVER be able to make any significant changes until some types of catastrophic events jolts people "off the couch", and more importantly, into an entirely new and changed MINDSET and OUTLOOK on the world and their place in it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doesn't seem to be the case. Mestizos put "White" on the census because they don't really understand the question and it also is phrased badly. From: Hispanic Assimilation Has Failed - American Renaissance Having a bunch of metizos and brown Muslims counting as "White" on the US census doesn't mean that Whites will remain a minority for a long time. It means that the census figures on race are inaccurate. We already knew that. Some Hispanics are White, most are not. If you want to see why importing millions of mestizos is a bad idea, look at Puerto Rico.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theology is the study of the nature of God, thus this, like other chit-chat topics belong in the Lounge. The lounge is a good catch-all, and not heated like a Theology area, which is extremely personal. You could have 3: The Men's room, the Ladies room, and 'Other' for the patients. Since some patients here seem to 'self identify' on a whim, I suppose they could visit any of them.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moving from an all-white village in Eastern Europe . . . Alas, yet another major plus the Slavic world gives us mostly naïve Yanks through their emigration to America; an active, reliable, innate Jewdar. You and I both share this trait, which recent Euro immigrants are more apt to have. Euros generally are more Jew-wise that Americans, period. Eastern / Central European history is rife with brushes with Jew-rule after WWI and beyond including Bayern, Hungary, Finland and Russia. I for one am glad you are on this forum and welcome you to America. Please help spread the racial gospel to the majority of ignorant, clueless Americans who genuflect and grovel to all things Jew.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That's the beauty of (((their))) situation. They don't need to "know their audience". Their audience is captive to the NEED to be in that room to get a piece of paper that entitles them to become thralls in (((the system))). It's a perfect loop. That's because (((they))) claim our biology ISN'T "unique" and the "social erosion" is just their final exposé of the "racist lies" that have suppressed people of color for centuries under the crushing weight of the "evil White patriarchy". AND... ... they have "proof" too, as you just detailed from your experiences at the lectures. AND... ... as I pointed out in my previous post, their "proof" dresses better, so everyone knows it's the "truth". Btw, I know this concerns you, so I must point out I'm not "blackpilling". I'm trying to show precisely what we're up against, so our people won't waste time on useless tactics. If I could sum up what I've been trying to say on here since I arrived it's this: *DON'T PLAY THEIR GAME. PLAY OUR GAME.* The better we make our game, the more our people will gravitate to it. Quit worrying about tearing the enemy down and concentrate on building ourselves up.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why is black empowerment foolish to you? If you're anything like us, we believe that people of all races and/or ethnic groups should be afforded the same basic human rights to sovereignty ad self-determination. Unfortunately, diverse societies don't allow for such without it coming at the expense of other groups. In fact, I would argue that the multiculturalism social experiment is the greatest crime ever perpetrated by left-wing ideologues against humanity.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Some good news at last. Hopefully these tech firms will address the concerns of the scientists from the 42 countries that are now warning their governments about the emerging health problems associated with wireless radiation. I don't think we need more deletions, banning and censorship on the internet, when there are already more than enough laws to arrest those who incite others to commit criminal offences. I know it is the BBC but I do believe this: Sentencing on a par with being a racist I should think. max
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That's just sad, and embarrassing. Has Greece ever really recovered from the near communist take-over in the post-war years? Would the Greek members here agree that Greece has the strongest left in Europe? Maybe the political imbalance has something to do with the emigration of so many Greeks in the 20th century. Most of the Greeks in America are very industrious and pro-capitalist. I suspect it's true elsewhere in the Hellenic diaspora. The most ambitious left Greece and the "takers" who felt gov't owed them something became more prominent by default. Btw, "Kouloglou" looks like a turkish name to me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's still better than absolutely the 'wrong people' taking a post like that and trying to use it against the whole site, don't you think? I wasn't just giving a personal opinion when I said there's enough there for 'probable cause;' it's a professional opinion, at least. You could've nipped it in the bud yourself and probably done a much 'nicer' job of it but there was no doubt that it needed to be done.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This group were on a hiding to nothing right from the start, their antics were childish and it was pretty obvious that they were after a reaction from the state and they got it. The whole set-up stunk, on SF many people pointed out at the time that this Heil Hitler /masks etc business was leading no where. We were called old fogies who'd never achieved anything and we should step aside and let young people show us how its done. I didn't realise at the time how much their arrogance and stupidity would impact on the Nationalist community. Although I feel sorry for many of these people, you didn't need a crystal ball to see how this would end.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Without waxing metaphysical, I tend to agree with Ocko. This is why I have little to no use for unrepentant marxists/leftists/liberals. They may be as "white" as the driven snow but their psyches are ROTTEN TO THE CORE. They are no FOLK of mine. Now, this does not mean that I would accept into our community non-whites who share our values. I'm no "civic nationalist". But I could at least RESPECT such people and wish them well in their own world. I have no respect for radical leftists. They have hitched their wagon to a diseased horse that is only going to die on the road or drag them over a cliff. They simply can't see the consequences of their deranged worldview. Genetics are important, certainly, but there is more to being WHITE than having a certain DNA configuration. I've been making this point since I joined this forum, and yet it's still lost on too many who think "as long as it's White, it's right." This is why I distinguish between "white", who are just pasty face multiculti meatsacks, White, which is the generic term, and WHITE, who are racially aware folk committed to our survival as a people. There will be a great culling of the weak and unfit. It's already underway. Those who survive will become the foundation of a better, stronger race that will achieve the glorious destiny intended for us.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, that would be the target. And that is how it has been done, no different that 'Undocumented Immigrants' instead of 'illegal aliens'. They skirt the law, or hide by new titles to move forward. Not all whites, just 'White Supremacists'. Which would of course include 'White Nationalists' because naturally any 'nationalist' would be a 'supremacist'. Most certainly, that would have been first and foremost with Clinton, as well as going for the guns straight away.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think this article is confusing basic proliferation with civilization advancement. The ability to breed, yes, is a basic unit of success in biology. In that regard, bacteria are probably the superior organism on our planet, given their ability to adapt seamlessly to new circumstances and reproduce at high rates. But bacteria don't build civilizations. So that's where we have to look at other factors, qualities beyond mere reproduction, when it comes to human societies. Yes, it matters that a race reproduces itself, but the quality of the society they produce is also important. Besides, ethno-nationalism is not a race to prove who is better or best. It's about the survival of differences through separation. If whites disappear due to a low fertility rate, that's on us. What's really endangering us is hybridization with outgroups. Hybridization is a primary path to extinction. Anyway, if you use fertility rate as a marker of supremacy, then the continent of Africa contains the most superior people on the planet right now. Most other countries, with the exception of a few, now have a fertility rate of around two to three children per woman. The white fertility rate is then not an exception, but average, compared to the rest of the world right now. Where we differ is that our countries are no longer white majority, but the other nations on Earth are still homogeneous. A replacement or or near replacement fertility rate will do just fine if the country remains racially homogeneous indefinitely. If replacement migration is instead pursued, the original population can be wiped out. And this is the result of a human induced process, not a natural or evolutionary one.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">92% of renters in the Dublin docklands are non national and rents there are 20% higher than the Dublin average. Is this fair to Irish workers some of whom can't afford to live in Dublin and are having to consider emigration or moving out of the city? Is is an example of gentrification pushing up rents, as landlords bring in high paying tenants from abroad? Quite apart from the housing crisis. 92% of renters in Dublin's Docklands were not from Ireland
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alternatively known as 'the list of reasons that no one has ever actually argued'. I won't even bother debunking those feeble strawman arguments. To be honest, a small part of me wants Scotland to go just so it can experience the torment that would be in store for it in the coming years. No more could "Westminster" be to blame for everything that went wrong. When Glasgow looks like Leicester, then maybe they'll wake up. If it does decide to go, it should not get any preferential treatment by 'Westminster', it should leave fully and completely, sink or swim. But I doubt the UK government has the balls to do that, it would probably allow Scotland to have a cushy half-way house position, allowing the SNP to dictate the terms. Exactly the opposite of how the EU treated the UK in the Brexit negotiations. The larger part of me hopes that common sense and genuine nationalism - British nationalism - prevails. That we focus on the actual things that matter, not trivial nonsense like how widely Scots Gaelic is spoken. Petty and antiquated regionalist concerns are of no import to me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I remembered an old post of mine which I dug out and part of it is included below. In my opinion you should simply refer to yourself as British American and you are, in truth, as British as most of us who live here in an ancestral sense which is borne out by your own dna results. Also the British Isles do also embrace Ireland even though it is a seperate island and the Irish Sea flows between us. And while we have quarreled most fearsomely from time to time it is an undeniable fact that we are the closest of kin as you will see below. Our ancestors crossed the land bridge from the Iberian Peninsular when the ice sheet lifted between 15,000 and 7,000 years ago. Oppenheimers mitochondrial DNA and other research demonstrated that in spite of all the various newcomers, ranging from Vikings to Normans, the majority of the population traces all the way back to these original indigenous ancestors, especially in Ireland which rated over 70%. Stephen Oppenheimer, The Origins of the British: The new prehistory of Britain and Ireland from Ice-Age hunter gatherers to the Vikings as revealed by DNA analysis (2nd edition softback), 2007, Robinson (Constable): London.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, it was at the time of Rhodesian UDI and was at the time justified. However , as has been said, to keep the march going with such pitiful numbers boarders on lunacy. The NF name has been smeared by the media etc however, a lot of damage has been done over the years by members. The Nazi type flags of a few years back were not a great idea for example. It is now forty three years since I left the party, I never regretted the thirteen years during which I was active, and I still think I did the right thing leaving.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeologists Unearth Remnants of Lost Scottish Wine-Bottle Glass Factory The 18th-century Edinburgh factory once produced a million bottles a week April 28, 2020 Construction of an apartment complex in the Scottish port district of Leith has revealed the remnants of an 18th-century glass factory, reports David McLean for the Edinburgh Evening News. Leith’s bottle production was once vital to Britain’s trade in wine and spirits. At its peak around 1770, the glass factory’s furnaces produced “a staggering [one] million bottles per week,” Fraser Parkinson, a local historian and tour guide for Select Scotland Tours, tells Collin Dreizen of Wine Spectator. Archaeologists Unearth Remnants of Lost Scottish Wine-Bottle Glass Factory | Smart News | Smithsonian Magazine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The problem is schools and increasing levels of single motherhood feminize young men into a non masculine mindset where they not only view their worth as dependent on female approval and affection, but being liked by people in general. This is the absolute biggest turn off for women because it emotionally signals the absolute worst trait, which is low status.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Who did you have in mind? North Korea? Maybe all the others who are against the NWO can ally with us, but setting up their own resistance, instead of meekly going along with everything the NWO demands... like India. Can you imagine a 'Cashless Society' in India? Do you know how many Indians do not have Bank Accounts?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You can jump from here to there and to place after place but the gangster-politicians and their bosses (not the general taxpayer) will sniff out the Whitest places and turn them in to non-White dumping grounds fast. There is no escaping from them. To put an end to their tyranny we must defeat them once and for all and that takes prayers, wisdom, huge brain plucking, much work and perseverance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dude, everything is in the OP. So white people were lying 100 years ago too in the 1800s and early 1900s (photos in the OP) when they were saying that Black africans were the first to settle in europe? They were trying to push ideologies back then, right after conquering the modern world? Do you realize how pathetic your lies sound? Then when it comes to egypt, you admit that Ramesses had an e1b1a haplogroup (because you can't deny it, it's an undisputable fact) but when it comes to the fact that that specific haplogroup is found pretty much exclusively in sub-Saharan africans, you lie and say that the haplogroup doesn't mean anything or you try to say that they got it from caucasoids or eurasians (who you conveniently cannot point out or make reference to [because they do not exist and never have]) LOL!!! You can direct people to that thread all you want, I love how the mod closed it down literally RIGHT after the fact that I pointed out how you try to blatantly lie about the e1b1a haplogroup And I NEVER said anything about negroids settling in europe, I said black africans. So I'm still waiting for you to quote where I said anything about negroids over there. But you won't be able to quote it, because I never said it and you lied. However, you are my favorite person on this website, you never fail to make me laugh!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Been looking at that thread you linked with posts by 'racial fsction'. It seems that discussion started well but then most of it got side tracked by arguing with an afrocentrist about Egyptian origins which is off the subject. But the main thing he seems to want to say is that 'caucasoids' go back 30k, in his first post and some skull reconstruction from 1930. I am for European identity, but at this point we are grasping in the dark about some things, that's just being honest. I don't want the WHG to become this dirty secret in the history of white people, that the original European was non white and proto caucasioid compared to us so we have to hide in shame. There's nothing to be ashamed of since obviously he is in us anyway. But it strikes me as obvious that people that long ago are going to look very different from now. And as was mentioned some of these early groups were related to each other. He spends alot of time arguing about how white europeans are just one subgroup of caucasoids, which is true. But then what gives us our uniqueness and right to say immigrants can't come here, especially other caucasoids for example from middle east if we are tracing our ancestry to some of these groups anyway? This is the type of liberal argument that is used alot. Or has europeaness and whiteness always been a vague notion anyway that's just getting more obscured with time?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wrote Toronto off a long time ago. The last time I remember it being somewhat tolerable was back in the early 1990s. As for the rest of the GTA, I noticed a big trend of way more blacks walking around within the past five years or so. Out in Oshawa, you might see one black a week prior to about 2015, but now you can't go out to a given location without having at least three of them pollute your eyes (and that's each day).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Study reveals racial inequality in Mexico, disproving its 'race-blind' rhetoric “A second critique of racism in Mexico is that yes, it exists, but it is not as bad as in other places in the region, like Brazil or the United States. Our study runs contrary to that argument. Among nations surveyed in the Americas Barometer, Mexico ranks fourth in terms of the negative impact of skin-tone on an individual’s wealth, behind Bolivia, Uruguay and Ecuador. On the relationship between race and lower levels of education, Mexico moves up one spot to trail only Ecuador and Trinidad and Tobago. Indeed, the sole place in the Americas where people of color seem to fare worse overall than in Mexico is Ecuador, where Americas Barometer data shows that having dark skin reduces educational achievement by one year more than it does in Mexico.“ Do you see anything remotely like the privilege blacks have in the U.S. in Asia and Mexico? BET, black magazines, movies replacing Mexican and Asian actors with blacks? Black colleges? Quotas and affirmative action toward blacks? They don’t have a forum because they don’t give the blacks privileges that black people are never grateful for.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because of a mass slander campaign that involved using photos of the violent Negro scumbag in a suit, photos of the guys who defended themselves against him as big scary rednecks, and language such as "white supremacist" and "racist" on image macros about the situation. Most people are pretty stupid and believe everything if it's a part of a decently put-together image macro. Eventually, it got to the holy Black Celebrities, who started making all sorts of tear-jerking posts about how whitey's just out to get them and they're never safe around us (), and their common Negro worshipers probably spammed everyone who could do anything about it with emails and phone calls. Additionally, the worst thing you can be called in 2020 is a "racist", it's even worse than "child molester" in most people's eyes, so of course they decided to arrest them. In this day and age, when a Negro says "jump", white people collectively must jump, otherwise we are on par with domestic terrorists. Just watch the freaking Stefan Molyneux video. At least two of us have linked it in this thread.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farmer (77) tied up, wife brutally raped and tortured with blowtorch, Belfast A horrific and brutal farm attack took place on 26 March 2020, at 20:00 in Groenvlei, in Belfast, Mpumalanga province of South Africa. Three attackers, two of which were armed, forced the farm workers into the home of a seventy seven year old farmer, assaulted and tied them up. They then attacked the farmers wife. The farmers wife was brutally tortured with a blowtorch whilst the attackers demanded money and was then also violently raped with an object. The attackers then ransacked the home and fled in the farmers bakkie leaving everyone tied up. After some time they managed to free themselves and call for assistance. The farmers wife has been admitted to hospital for treatment. There is no other information available at this stage. There have been no arrests. Farmer (77) tied up, wife brutally raped and tortured with blowtorch, Belfast | South Africa Today
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We are trying to get our White brothers and sisters to understand these things, that if they do nothing this is the sort of future they face. Even the stupidest liberal should be able to know that Black crime rates are 10,000 percent higher than for Whites and that doesn't even take into account all of the other problems Negros cause like poor job performance, being given quota jobs in the millions and massive race mixing with horrendous results. Look at all of the millions O.J. Simpson was paid for basically doing nothing and then killed two people with millions more spend trying to prosecute him and then the Black jury letting him off the hook, this nation is screwed up beyond belief.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We had a small local Stormfront group, then it dissolved for good reason. One member declared they were 'working for Netanyahu and the ADL' now and another proved to be a flake too. I digress, though. Anyone who is for these wars for Jewish Dominion over the whole world is not my friend and I would not want to be in their company very much at all. I would constantly be irritated and annoyed by their views. I say this as a Vietnam vet who's a bit older than you, Haman, but close enough there's not much difference. I've seen and participated in all this Jew war 'regime change' stuff, and have had enough of it. And I'll be damned if I'm voting for the murdering Servant of the Jews, Trump again either.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think there was a mis-interpretation of my post here. My last line was not that these groups should be included in the white ethnostate; just that I did not see them as inherently problematic / crime-causing / degenerate as the usual suspects. I'm entirely pro-white, but I walk outside my apartment and I see Asians acting civilly toward us and one another, so I'm not as diametrically opposed to them as I am towards letting in a bunch of illiterate migrants from below the border.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No this is well known... even celebrated in South Africa... From Kasrils, Bowman-Gilfillan, First, Fischer. Wolpe, Slovo, Sachs All "Lithuanians"... Slovo died of Pancreatic Cancer First opened a letter she shouldn't have Wolpe died jerking at the end of a rope But the influence is undeniable Well known And greatly celebrated in South Africa
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White Genocide is somewhat metaphoric term but the final effect is the same as real bloody genocide: total dissappear of native european populations... And please dont sell me your anti-colonial revanchist rhetoric cause most today's european countries were not colonial empires. The Tibetan issue is very good example showed how you can wiped off an ethnic identity of some region without gun and bloody pogroms. Ofcourse our negro "friend" is too stupid to understand how it works.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What credentials does this "Albert Churchward" crackpot have? Why should we accept his over 1 century year old garbage instead of actual published data? Your fraudulent study on Greeks has been exposed for decades, and you used it So much for your "sources" - which is literally your only [fallacious] argument Precisely. Yes, even if you ignore their teachings on race, they are already doing that. America too. How absolutely moronic do you have to be to believe everything you were taught in school? I got a bride to sell ya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coroner: A public official responsible for the investigation of violent, sudden, or suspicious deaths and inquiries into treasure trove. Remember Illuminati/Satan has to tell you what it is doing, so the responsibility is passed onto your choice of positive or negative action. YouTube It's all really clever stuff way above your quotients or soul level.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WATCH WHITE TOURIST ATTACKED, ROBBED IN JHB CBD This incident occured in the Johannesburg Cbd. This is not the first incident caught on tape. Police were contacted for comment and more details but would not give any comment on the matter WATCH WHITE TOURIST ATTACKED, ROBBED IN JHB CBD – South Africa Uncut
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Its a textbook "Dindu nuffin" case isn't it... "I Run with Ahmaud"... I also walk into empty construction sites multiple times to scope out the place. He had two arrests one a felony, one involves carrying a gun to a high school game. His older brother is currently in prison. Why do they keep using his senior year picture when they have much more recent mug shots of him???? Typical piggy faced ignoble looking rednecks tho... Standard nasty American business all round...Sinners Inc "Its not theft/property infringement and running from the scene...it's "Jogging"... YouTube “The GOYIM have knowledge of NOTHING, not even of the immediate effect of action; they put before themselves, usually, the momentary reckoning of the satisfaction of their self opinion in the accomplishment of their thought without even remarking that the very conception never belonged to their initiative... but to our instigation of their thought…” – Protocols of Zion
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Beilein officially resigns as coach, will have new role with Cavaliers espn.com, February 20, 2020 John Beilein officially resigns as coach, will have new role with Cavaliers "Beilein, 67, struggled to connect with NBA players and was never able to implement his collegiate offense into the pro game. The plight of some previous coaches who made the leap to the NBA also befell Beilein: players quickly tuning him out with his penchant for screaming, and believing that Beilein was treating them as young, college athletes, not as professionals, league sources previously told Wojnarowski."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incorrect, knowledge of a felony is not required for a citizen to pursue and detain a suspect, citizens pursue and detain misdemeanor suspects all day long across the U.S. as store loss prevention agents. Of course the McMicheals had legal grounds to detain that suspect, he did not live in that house, and had no business being there.....if he had any business being in that house that would have been established upon arrival of LEO. Once Aubrey realized he had been found out, he chose to escalate the confrontation before the police arrived in an attempt to avoid eventually being arrested. Aubrey stupidly chose to attack armed men who were attempting to detain him , the reason he is deceased is that he made a series of criminally motivated bad decisions at the wrong time and in the wrong place.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good day, white brothers and sisters! I recently made an account on this site to learn and discuss in a safe space. I am very excited to finally discuss more taboo subjects. Was very surprised about a youth sub, what a good idea! See you around in the threads! a/s/l/ 18 Male Netherlands
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I hate seeing the argument "if we can breed and we are compatible therefore we are the same" Its worth mentioning that there a several animal hybrids that whilst it is incredibly rare can mate and create offspring. It isn't natural and these hybrids were created in captivity (i.e forced) Liger (made from a male lion and female tiger) Wolphin (made from a male whale and female dolphin)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Can you please explain the current situation of the NSM?? There are a lot of things going around about it, and most of it not good. I dont understand why nobody from this group steps up and clears the air. Im not criticizing, just wondering what the current state is since Schoepp left and gave it to a negro who vowed to take it down. To be honest, I thought the group no longer existed.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The reconstruction period is mostly misunderstood. We shot our way to freedom from southern plantations. Even if your ancestors in the Union Army thought we were fighting for them, there was a bigger plan for freedom. It changed everything. Afraid, Jim Crow was implemented after that &amp; it was hell. You can not simply erase that strength by calling me a sheboon or a Jew. When White women with Black men are kicked out of the village, they go postal. You're wrong about who the aggressors are in BM/WF relationships.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I would either try to focus on great white people in history or issues involving white people or white men. There's so many stories out there on "white male privilege" but none on the coal miners who are dying from black lung, men going hungry because they can't pay child support, male victims of domestic violence, white people losing jobs to black people, etc. The "National Coalition for Men" has a list of issues on their site that would be a good starting point.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This hypothetical situation of Whites leaving Africa already happened. We left Africa generations ago voluntarily. Sorry, but we're still prosperous and orderly. No starvation here for hundreds of years, and it's certainly not something we have to worry about. Even the White nations without a colonial history like say Lithuania, are successful, proud and functioning first-world nations. There is not one White country on the face of the Earth that can be described as 3rd world. There is not one black country that can be described as 1st world. A few, which have close proximity to Whites, could maybe be called 2nd. Remember what happened to Zimbabwe? you killed all the White farmers, caused yourselves mass starvation and then, hilariously, begged the White farmers to come back? That's the reality bud, what you're trying to say is just fanciful nonsense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Jewish have a special hate for whites compared to the other gentiles. There may be no direct cause and effect as this is simply practiced by generations after generations. But it most likely roots down to the medieval era, as after antiquity Jews began infringing themselves into European economies and sided with the enemies of Christianity for their own gain. Because of this, Jews were banned from all major powers in Europe for over 500 years, and the ones who could remain had to wait in small ghettos and could not trade. It all seems to really come down to the fact that whites took serious countermeasures to the Jewish economical influence, and it took them hard work and lots of effort to seep back into Europe country by country. Behind Communism by Frank L. Britton does a quick overview of the Jewish situation in Europe before the 18th century, it's a must to understand the situation in medieval Europe, and is a good book to read in general.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You're the one obsessed with haplogroups and use them as an argument. I was discussing E1b1a in response to your post which brought it up, even though it's irrelevant for reasons I explained over and over. I never admitted anything, his Y-DNA is an archaic haplogroup anyway. I merely made multiple arguments, some accepted the premise and others disputed the premise. There is nothing wrong with that. Nope, only you can because you see whatever you want. I didn't post that image, how about you stop attacking strawman? "You guys always..." When I never did that. You did the same thing with King Tut R1b claims. I never claimed that, I never brought up Y-DNA from Tut. I never used it as an argument. Then you brought it up and then "debunked" it as if you were refuting something I said, but I never said that. It's a stupid argument to focus on the Y-DNA like this. Unless you have hundreds of Y-DNA samples then it's completely worthless for most arguments, but naturally autosomal DNA is the most meaningful here. Even mtDNA is much better here to use because of the way Y-DNA is spread. Y-DNA should at least be paired with mtDNA, and in a large number of samples, to make any conclusions based on race. But autosomal DNA alone would be the most definitive. Attacking strawman arguments is fallacious. It's very sad that an adult could behave in such a childish manner
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You can blame Justin's dad for that one. Goddamn Commie ! " During the Trudeau years, provisions were put in place in the Canadian immigration system to permit the re-unification of families. This era saw a larger influx of Jamaican immigrants with the majority settling in the Greater Toronto area." https://jamaicans.com/history-4/ ... and the end result. Toronto Police Service :: To Serve and Protect
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uhh, why? I don't find Indians particularly noteworthy, so... Are you the same Indian girl who had guest account over a year ago and spammed threads with Indian girls in bikinis and claimed she had a British fiance? You're in Bulgaria now? Why, did he finally come to his senses and give you the ol' heave-ho? .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DFLA (a group formed from a split) in the space of less than 2 years went from getting 20,000 on a demo to just a couple of hundred, and as of today the group barely even exists beyond the Internet. though when your numbers are largely made up of football types then splits, egos and boredom set in pretty quickly, the DFLA just done the exact same cycle the EDL did just in a quicker and less loud fashion even though they had larger numbers. The NF has always been a bit odd in embracing skinhead and neo nazi subcultures but there main goal has been to recruit pensioners and everyday people. If your going down the political route then frankly only the BNP had a half decent strategy for that and even that ended up in abjact failure, and there isn't anytime left to build a party up from scratch again now.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First off it is wise to never believe anything that comes out of a negroes mouth. When a black man tells you to look, don't look. If you don't look and don't believe in them, they cannot manifest anything. Believe your Whiteness in skin and enlightenment is supreme. The best way to avoid feeling guilty for not believing in black people, is to seperate from them mentally and physically. We then come to a point where they don't exist. If they don't exist, they can't project.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You can sue for about anything if you've some money to burn but you'd better be able to withstand some scrutiny yourself. SF does in fact allow incitement of 'hate and violent extremism' but far more of it is directed at women than at Jews! Typically, the site is more careful about any posts here that would promote criminal acts against Jews. I think we forget that 50% of Jews too are female. A moderator might close a thread that's going too far but they seldom delete one entirely so there's some seriously 'hateful' material around here that wouldn't be here if they had as much legal paranoia as they should have. I would never under any circumstances allow a minor to browse this site. I would not want to encourage misogyny in the boys, which every law enforcement agency in the country already knows is a common denominator in violent crime, nor to induce trauma in the girls. If I had a social media site, as Zuckerberg does, I'd ban any links to this one too. He's most likely banning SF because it's pro-White; I would ban it for being psychologically damaging. Either way, OP, the shoe definitely fits and until SF cleans up all the 'hate,' it doesn't have a legal leg to stand on. And that is my professional opinion, take it or leave it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If this was true the mods wouldn't allow less than a handful of posters to dominate the newslinks and articles section with worthless republican propaganda day in and day out. That's why the majority of American white nationalist would rather be on twitter or /pol/. This forum is an anomaly i was obviously talking about the masses of normies. I'm not saying this to be rude but you're honestly too old to understand how things are now among the Millennial's. It's not the 20th century. There was basically little to no race mixing until the 1990's and now it's completely normalized among Gen-Z White Females age 16-22. I don't even know what solotv84 is. I lived in a college dorm among black athletes. I'm talking about real life. Not stuff i seen on the internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Where else is the e1b1a haplogroup found, other than sub-Saharan africans? The fact that you keep trying to push the Y dna to the side is an example of how weak your case is. I addressed your studies. Tropically adjusted caucasoids Hilarious. So now you want to show statues of pharoahs, but when I show paintings depicting them as negroid (on golden throne chairs), paintings depicting them as negroid, and post photos of Ramesses III's skull showing clear prognathism, you dismiss everything. You even dismiss the cambridge university museum exhibits that claim the ancient egyptians were black africans, yet at the same time you frequently quote information from cambridge university. Also hilarious. Are these your "tropically adjusted caucasoids"? What about King Narmer Menes? "King Menes was a great ancient Egyptian king, who was the successor to the Protodynastic king Ka, or possibly Scorpion. He is considered the unifier of Egypt at the beginning of the First Dynastic Period (c. 3150 – 2613 BCE) and the founder of the first dynasty the capital of Memphis." ^^^ is that your "tropically adjusted" caucasoid King Narmer Menes?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I mean... the current zeitgeist makes it really difficult for me to say this for sure. I only have history to go on, but I don't think the history deviates from your statement very significantly, as far as the upper classes tending towards fairly dysfunctional lifestyles is concerned. Our spate of recent communist agitators do have a point (a deeper look reveals thats the only point worth addressing, though), the upper classes don't help anything. I just don't know if there is any way to truly get out from under them.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, others did that too and it's "associated" - they are trying to infer membership to populations they have no samples from. The image is broke, but I guess the bones are too incomplete/damaged to reconstruct MA-1's face From the link: "It may also raise a similar question about the 'European look' of some ancient Siberians - for example in the tattooed permafrost princess Ukok found in a burial chamber in the Altai Mountains, whose remains date from around 2,500 years ago. " Ukok princess: Siberian princess reveals her 2,500 year old tattoos or "Siberian Ice Maiden" - Siberian Ice Maiden - Wikipedia from 5th century BC, so far more recent than MA-1 or K14. I searched for DNA evidence on her, it seems to be accepted she is not genetically related to people who live there now. This site said it's actually a male with R1a Y-DNA (another poster said it was a male buried in the same place), which is the "Aryan" haplogroup most common in eastern Europe Has Pazyryk Ice Maiden DNA been extracted/tested? I am on lunch break so only quickly searched
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Our race will exist on this planet as long as the sun keeps shining. Also there are plenty of alpha white men in this world, I mean plenty of white men have jobs, their own homes, and a white female partner. As for Africans having Africa it’s because nobody wants to live their so non blacks don’t move their. As for most Asian countries they aren’t a desirable place to live either so non Asians don’t go to them. Now as for the United States and Europe people want to live their. All we can do is be tough on immigration and tell people wanting to leave their third world countries to stay home and make their countries better rather then come to white people countries and make our countries worse via over population and so on.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Close" only counts in hand grenades and horseshoes. They still cluster SEPARATELY. If the PCA diagram is viewed three dimensionally, the difference is more apparent. But more importantly, as a previous poster already said, there are outstanding historical and cultural issues that are irreconcilable. Besides, why would we trust anyone who betrays his own people?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why would you need to know where she stands? Would you date her if her views are opposite of your own anyway? Be straight up honest, if she shrinks away in disgust, you don’t want her, right? If she is all about what you are in to, she is a good find. Real men do not walk on eggshells.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because it's a house of cards in the path of a tornado. I'm glad they're chimping out again, I'm glad the New Black Joggers are marching around law-abiding white peoples' neighborhoods with semi-automatic rifles in defense of violent thugs who break the law. I want them to do more of it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I agree. I meant the Black/Asian hybrids, not White/Asian. I think Hapas need their own Central Asian ethnostate of some kind. By the next century, balkanization will change America forever. I hope the powers that be have lost their grip on America and the West long before this point. Thank you very much.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OH ****,, you are kind of important aren't you. Live in African sun 24/7 with no protection also with a lack of food. Have you silly Billy? Trying to put a end to this silly topic. Our women are not for sale. We are not Eastern Europe or Russia that's hoping to escape the jail. I personally married a foreign person and brought him to SA. Most of all, get a life.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ya I created a John Smithwick account there. Good to have backups. Hmm, interesting. Some good threads in there. Dirty Dog, I've been on them all (I recommend Skadi Forum as a secondary place for highbrow discussion - but it can be quite quiet too): The British Faith and Church - Skadi Forum European Nationalist Faith - The Phora The British Faith and Church - VNN European Nationalist Faith - White Nations The British Faith and Church - Stormfront The British Faith and Church - Discussion - Page 2 - Stormfront I believe VNN is a state supported website whose ultimate purpose is to dragnet for potential terrorists - full free speech is allowed there. It can be quite entertaining lol. I stopped posting there after I called out Alex Linder (the owner) for his endorsement of Tarrant's acts (he gave no response). The Phora is decent but essentially an extreme Christian site (it's not just extreme towards non-Christians; the different Christian denominations rip each other apart lol).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I hope every one is sitting down... I like Indian food. I make it myself though! I don't eat at Indian restaurants because Indians use their hands instead of toilet paper (which is why they always eat with their left hands and not their right). I guess the plus-side of that little detail is that we can always petition India for a few rolls of their TP if we ever really ran out.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Long time lurker and late to the Stormfront game, but things happen and this forum is not a bad place to connect with like minded people. I'd imagine the website will be absolutely battered by deluded left wing script kiddies with DDoS traffic, in their mindset SF is worse than mainstream pornography and the not so easy to disrupt dark web drug and child abuse websites. And a lot easier to attack because it's not hidden away. SF is about discussion, not a bunch of skinheads running around causing trouble. I enjoy your posts Mr Dog, long may they continue
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you go with believe, this is going to happen: you create an idol of God inside you, based on your fears and desires. This idol/Golem resides in your mind. you pray to to it and give it energy and make it alive. your praying is answered by this idol, according to your fears or desires. your believe in it grows with the power you give to it by prayers. The idol/golem starts to talk to you. the real God and its helper entities are in silence, coming through to you through your own conscience. you get the message in different ways, through emotions, changes in your thoughts etc. creating an idol or golem distracts and blocks you from the real experience.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I meet a lot of people who are awake or close to it. I was hitch-hiking yesterday and two of the people who picked me up on different legs of my journey were highly intelligent and aware of the problems with society today. Even knowing how the odds are stacked, I see no reason to give up hope. After all, the only alternative is extinction. And how can that be a good thing to accept? One must fight for survival, no matter how bleak the outlook.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OK now I see it. Another poster here provided the IQ data. I thought you were hallucinating but instead you're just dumb :P And no, there is no hypocrisy at all going on here. It is not "hypocritical" to accept both of these 2 things simultaneously: #1 - Specific findings published in a British individual's research by are valid, legitimate, and supported by the evidence and #2 - Something taught in a course in some British schools is invalid, nonsensical, and unsupported by the evidence I fail to see why you think there is something "irrational" or "hypocritical" about a person believing both #1 and #2 at all. Please explain and justify your reasoning. I don't see it at all.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That's pretty funny since the Jews tend to hate more non-anglo whites, especially non-wealthy catholics such as old-time Irish or Italians. Professor Norman Finkelstein who is an rare example of fair, honest Jew said: Well, I would say that a lot of european ashkenazi Jews looks nothing like caricature from happy merchant meme. Sometimes they are almost indistinguishable from northern or eastern europeans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As the real 'I' is not the body but something higher and separate from it, it is eternal and not material. The 'I', which one can call soul and it's higher part spirit, is what I call Aryan, because from there stems our civilization and our nobility and humaness. The body is important in that the soul shines through. Some bodies are more submissive to the soul others are blocking and are stronger instinctual and thus closer to animals The 'white' body has a bigger ability to yield to the soul and because of its beauty has a higher energy level. It does not mean that only white bodies are suitable for the soul, but other races make it more difficult for the soul to shine through. That is why white people in general live on a higher cultural level than other races ( at least in the past, modern time is screwed up). The Jew is screwing around with the body through circumcision and makes it more difficult for the soul to come through and act in material reality. It simply is blocked and through other machination s (like ideology, brainwashing etc) is damaged. That is another reason why I don't accept Jews. Southern Italians on the other hand have most likely normal souls, but bodies which are hampered to a certain degree. Their soul shines still through That's why southern Italians are closer to me than Jews .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sure thing) Cause I have guts to state the obvious without blaming Jews for whites' OWN faults, eh You are a mirror reflection of Antifa and SJWs, those folks also hate any truth and facts. Much easier to hide behind excuses and call for a ban for all others who dare to have an own opinion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nationwide National Socialist Activism Begins at Swedish High Schools To coincide with the onset of the spring school term in Sweden, the Nordic Resistance Movement has started carrying out activities aimed at high schools around the country. "Swedes want to protect themselves, can protect themselves and will protect themselves! Resistance will be made constantly and in all situations. It depends on YOU, your efforts, your resolve, your will to survive." The Nordic Resistance Movement has welcomed pupils back to school after the Christmas holidays with activities aimed at high schools around the country. Stickers have been put up, logos have been sprayed-painted and leaflets have been distributed. Nordfront has also interviewed Swedish pupils who regularly witness violence, threats and anti-Swedish behaviour at their high school. They tell of a highly politicised school with teachers who are avowed left-wing extremists, and where pupils risk being questioned by the headmaster and even getting suspended or receiving lower grades if they object. Swedish youth will be hit hardest by the multiculturalism that previous generations did not prevent. They are also the future and will become tomorrow’s fighters and political soldiers. As such, activism directed at the youth is important in order to reach out and show the path to the organised resistance. Nationwide National Socialist Activism Begins at Swedish High Schools
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I don't keep up with Vdare too much but I know that's men always faces a lot of opposition whenever it tries to organize a conference at a hotel. I keep thinking how every person who created and signed the declaration of Independence and the bill of rights was a white male and now we white males seem to have the least rights. Andrew Anglin says the Chinese citizens have more rights than whites in America.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How are brits surprised at anything? We've been ruled this time around for over 350 years by them (approx). The Bank of England was forced down our throats 324 years ago, Lloyds of London about the same as The BofE, to guarantee their future trading under (((their))) pet project, The British Empire. We were slaves to it, and that is all. They owned all its private businesses, slavery, Opium Trade, South African gold &amp; diamonds to name just a few. What did we get from it? Racist, racist, racist and all we ever do is accept that label shovelled over the top of us, when do our people come to their senses? Divide &amp; rule has worked best in these islands, much better than the rest of the world, divided squabbling hillbillies is my best assessment. In the timeline above Germans threw them out around 22 times, France 15-16ish times and Italy 15-16 times too. When do WE hit that realisation button? I apologise in advance for my negativity, but this is a big question for these islands? They do have thousands of gatekeepers, such as the copper in question, protecting their interests here. An indicator of the importance of The City of London to them.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's clear what the implied message is. It is, after all, only a fable to illustrate real-world ideas. Unfortunately the central message doesn't seem to be supported by reality. If it was, we should see a marked improvement in happiness, harmony and cooperation among each sex as women have gained more 'freedom'. The reverse is the case.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wow! This is a great thread! I have three kids. The youngest daughter is now 3 y.o. and she loves to play. She knows how to find something to do on her own and she does not need anyone. She doesn't even like when someone invites her to play together)) Therefore, we very often have a need for new USEFUL toys. Thank you for the wonderful thread that you created. As for me, I usually look for toys on usmadetoys)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juvenile crime in Canada makes it impossible for us to know what the ethnicity of criminal youth is and that has to end. We have to suspect that these people are non-Whites. Most Whites have been taught from a young age that they have to be responsible people. The same may not be the case with many non-Whites. I instinctively knew what was wrong or right as a very small child already. If non-Whites don't have that instinct they do not belong anywhere near me and they most certainly should never ever be protected and be treated like a protected species which cannot help itself for being born that way. 4 injured in violent bank robbery in Markham, 3 youth suspects arrested
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There's physical elements and cultural elements. I once met a Sikh lady who had been born and raised in America. If I'd heard her speak but not seen her, I'd have guessed she was White. Whereas virtually every other Sikh I've heard has that strong Punjabi accent and speech mannerisms. I've always been curious about the Asian difficulties between "R" and "L" sounds. If you examine the position of the tongue in making each sound, it's very similar - the chief difference is that to sound "R", the sides of the tongue contact the roof of the mouth while the tip is free; whereas to sound "L", the tip of the tongue contacts the roof of the mouth while the sides are free. My father once made some comment about all Asians having "cleft palates", but that doesn't sound quite accurate. Still, the difficulty is so endemic to Asians that a physical issue of some kind seems probable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">To be specific, sub-saharan africans have an average of 2 percent admixture from homo heidelbergensis- a species that was even more primitive than the neanderthals that admixed into eurasians (who have an average neanderthal admixture of 2.5 percent). The khoisan race additionally has admixture (of an unknown average percentage) from homo erectuses, which is why they resemble the orientals, who likewise have admixture from homo erectuses (at an average of 1 percent). What is the third pre-sapien hominid that you have in mind? Although one can argue that genetic diversity is caused by admixture from other hominids (thus making the place of origin of homo sapiens unknown), both the y-haplogroup and mt-haplogroup trees quite clearly demonstrate that homo sapiens originated in africa. Denying that fact only proves that oneself is either ignorant, self-deluded, or an infiltrator who is trying to make us look bad. Any merely ignorant people who look at the haplogroup tree proof will be ignorant no longer, but self-deluded people are highly resistant to changing their minds no matter what proof is available.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you're looking for a city with low murder rate, in a heavily white state, that heavily voted for Trump, there's Boise Idaho, Billings Montana, and Fargo North Dakota. List of United States cities by crime rate - Wikipedia United States cities by crime rate (100,000–250,000 - Wikipedia) List of U.S. states by non-Hispanic white population - Wikipedia 2016 United States presidential election - Wikipedia However, Boise residents are sick of wealthy Californians moving to Boise, and driving up their home prices &amp; rents. ‘Go back to California’: Wave of newcomers fuels backlash in Boise '''Go back to California''': Wave of newcomers fuels backlash in Boise - Los Angeles Times You also said you're learning French, and are considering Switzerland. If you could get relocated to the French-speaking side of Switzerland - like Geneva - that would probably be a great experience. Romandy - Wikipedia .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For what it's worth, here is my opinion on this as someone who has lurked this site for several months before joining: I think that most sincere people lurking and/or posting as guests on this forum (besides trolls) are probably in the process of waking up. If they are anything like myself (American), then they've probably noticed stereotypically bad behavior of the most obvious perpetrators (usually Blacks) throughout their lifetime. Depending on where one lives, one might be able to say the same for Mexicans/Arabs, etc. So many people probably come here in sympathy with WN, because they are just starting to realize that "race" isn't just a "social construct". Sometimes it takes a little while of "waking up" and rubbing your eyes, however, to completely understand the concept of White Nationalism though....i.e. why would you exclude well-behaved Chinese or Japanese people, etc? Furthermore, just because someone is in the process of becoming racially aware...doesn't mean they might not still be completely oblivious to the Jewish Question; especially if they've known Jewish kids/co-workers who seem to be the furthest thing from any sort of wanna-be Zionist Overlord, and have never read any of the literature on the subject. Seems to me that a clear understanding of White Nationalism comes in layers...at least it did for me (and I'm still learning). Thus, the seemingly annoying and repetitive questions regarding Asians and Jews are probably necessary information for other's awakenings...the answers to these questions are things people need to know. Sorry if any of this is redundant. Just thought I'd share some thoughts from my own experiences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, it appears that way, but the depressing truth is that you could just as easily end up in one these days meeting someone in your own neighborhood, someone you see at work or the grocery store. And the neighbors are always shocked and say 'but he seemed like such a nice guy.' The only thing different about the internet is maybe that we get to talk to more total strangers in less time but the percentage of crazies in the population is the same.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indeed the oldest ANI ancestors belonged to eastern branch of CWC but later that population got huge admixtures of Iranian Neolithic Farmers (genetic component similar to modern pakistani Balochis) when they left outside pontic steppes: W_Asian = Northern part of Middle East Dodecad Ancestry Project: More Zombies: Ancestral North Indians and Ancestral South Indians reborn Still nuristani is closer to "indic languages," than to iranic such as pashto. Pashtuns (who originally came from more western regions) just assimilated local, nuristani-like population in some period after the islamic conquest of Hindu-Shahi/Kapisa kingdom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's always a bag o' laffs when bw shows up. Trump is not our man. He's yours. He panders to negros ; not Whites. This could cost him ; severely. COVID CHECKED YOU. And millions of other groids. It seems the negro lacks the hygeine and social skills to remain Covid free. The worst counties are the least White. The worst hit countries are the most multi culti. Face it , bw , (((dieversity))) kills. So , for future well being ; Social , Cultural and Geographic distancing works well. Perhaps these Covid soaked Counties would like to form a kind of negro nation?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On the 20th of April 1968, Conservative MP Enoch Powell gave a passionate speech in Birmingham on what he seen as a dark future for Great Britain. Though the ordinary Brit was inline with Powell’s thinking, the establishment was not. For over 50 years we’ve been taught that Enoch Powell was just some old racist trying to create racial tension but each day we live, it becomes visible to see that his words have come true. https://anth1001.files.wordpress.com...ell_speech.pdf
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When non-Whites move to White countries, it's called "immigration" and praised as beneficial. When Whites move to non-White countries, it's called "colonialism" and cursed as harmful. Now if non-Whites can't stand White people in their lands... why should we be expected to tolerate non-Whites in ours? And yet Whites raise the standards of living wherever we go, while non-Whites lower it wherever they go. Anti-Whites want all the bells and whistles of White civilization; they just don't want to share them with the Whites. The hypocrisy and greed of anti-Whites are endless.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I consider the Black/Asian and Black/White mongrels to be one group as they have the most similarities to each other. While not a natural race, they are a distinct people group in their own right. I do wish for them to unify and seek a homeland away from other groups and cultures. I think it's possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White nationalists are actually the prime example of evolutionary fitness for our race. We are the branch of our race that is not going to die out. Other whites are removing themselves from our gene pool, but we will still be here in the future. Over time, whites will be almost exclusively nationalistic. I will not see that in my lifetime, but it's something to be excited about. Of course, what we know of as the white race will be a much smaller group of people then. Due to extreme foolishness, most of us will be without a nation-state and we'll be living in enclaves among non-whites of different kinds. For the time being, I'm mostly concerned about our survival. Definitely not interested in ruling over other people. What I would like to see, within a few hundred years, is that we re-achieve several exclusive nation-states of our own. I'm not hostile towards non-whites, but we don't need them, and we definitely don't need the danger of assimilation with them. We need to tilt the balance within our culture towards peer pressure to be nationalistic. I do think this will come in time.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Little did Ahmaud know that needless excursion into the construction site would cost him his life and inflame racial tensions nationwide for at least the rest of the year. Ahmaud's impulsivity and violent tendencies, running at an armed Travis McMichael, would cost him his life. It's a tragedy for his family, and the ripple effects spell tragedies for the McMichael family and the rest of American society.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trump and America have backed down for the first time that I can remember to a foreign attack on its troops. The cracks are beginning to show they cannot risk a major defeat. In essence iran has already won all they have to do is wait as America crumbles and wont be able to hold the region. They can attack with impunity but they will reserve themselves for calculated strikes. If America cannot take on a 3rd world nation and risk humiliation that shows there is major cracks in the empire. Soon people back stateside will realize the beast can bleed and be injured, soon people will realize they want a piece of the north American continents pie. Who will stop them the us military? they back down and cannot even produce answers towards iran. That being said the us military is improperly used and the command and goals its set is totally out of sync. Get a decent leader and generals and a real goal they could be formidable. The problem is democrats are bat insane crazy and have no use for the military and the republicans are retards that start fights with way too many foreign powers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, I am aware of light-skinned Aryan-descended Indians, Parsi and such, as well as Kalash and Nuristani farther north of India. Many of us here acknowledge this. Thank you for being respectful, many come here and speak down to us. One came here last year and spoke down to me for being female (which I thought was funny). I'd like to know more about this if you don't mind. How did independence change this? I thought that your caste system, which is Aryan in origin (?), was in place before the Raj?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I never knew about this linda lovelace person Guessing there was a lot of sick individual who probably watch it destroying their mental state And i haven't heard about child porn mainstream of 2000-2001 It disgust me that grown men and women are into kids Whenever a pedophilie is mentioned i wanted to see them on the day of the rope Like those paki groomers of rotherham, rochdale, Birmingham, Peterborough, Newcastle and everywhere else that has been raping children
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The (((sponsors))) of phys.org have been running a series of articles on hate and other lies. This is a recent development. Before that they had pop up nag ware that blocked the text on every page trying to get your email address. This should be a pure science site. I have no objection to them advertising as long as the advertisments are science based. I don't want the Jews deciding what I should read. In order to put a stop to this this site should flag the propaganda articles and post the links here. Then the readers of this site can send the editors feedback about the articles. The site is based in England so it is illegal for the editors to even read feedback posts that disprove Jewish lies. So they will eventually stop publishing these articles or go out of business. Though it will be a bit more time consuming all the articles posted on this site are available elsewhere. Phys.org Search - hate speech
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We are discussing trends. 10 years ago interracial marriage was at 15% and growing so I don’t agree the vast majority of whites won’t race mix in the future. We can look at countries that have gone down the same path we are headed and what happened is the vast majority of the population became brown with a racial hierarchy still in place to an extent where the lighter people are in the top tier of the hierarchy. We can see this in Latin America and in India. No doubt there are still a ton of whites, but we are the global minority. You can say Europe has 600 million people but of course they aren’t all white. France for example doesn’t collect census information on race, but last time I was there it was very clear all of France is not French. My position is that this is happening, and we should prepare and discuss what this means for us and what we want to do about it. There’s no point in denying.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good Lord! How many more repulsive crooked jews are we gonna see in this "impeachment" sham? This is a largely unheralded benefit of the gas-bag, the bull in the DC china-shop, all the maggots are coming out of the garbage can into the light! How many have revealed their hand? How many can we count? On all of the so-called "sides"! 2% of the population with their filthy jew mitts all over everything! That's the story that should be told by us! In the summer of 2016 I posted this, it has aged fairly well hasn't it Rose? &gt;&gt;&gt;&gt;Originally Posted by ADAMANT ...and the best part of ALL THIS COMMOTION? That every single foul entity is revealing its hand...the jews, the Big Media scumbags, their marxist overlords, big government parasites, fat cat union bosses, the "mainstream" conservatives, evangelicals, regular republiturds, long-time democraps, street urchin anarchists, Hollywood filth, freaks and degenerates....every one of them showing their cards in an attempt to stop ONE MAN whose supporters are simply looking for a natural leader seemingly un-beholden to all the filthy rat bastards I mentioned. It's a golden time folks, take notes and react accordingly!&lt;&lt;&lt;&lt; Everyone here needs to "tell the story" of the maggots coming out of the garbage can!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I signed the original COC years ago and refuse to acknowledge the crap these deadbeats are crying about. Linux will continue even if the people on top pull their code. Besides with how Linux is created anyone could take over the project and fork it so there is not much worry. In true IT circles, we could care less about politics. If anyone, man or woman, European or not, is going to make a fuss about things, people will just leave and create a project without them. Will they be successful or not is besides the point. But if you have a bunch of European men getting thrown under the bus by women or POCs, they'll just pack up, start a new project and let it the old project fall apart. And if European women remain smart, they'd follow the European men because they know the project is more likely to succeed. And they'll have more in common with the European men than the others.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Young people do not participate in discussion forums in the same way they did 15 years ago, Stormfront and others just have to accept this. Many young people are unable to write English--they use some sort of abbreviated, initial talk. And they really don't have much to say other than what they feel. Sure, there are exceptions, there had better be or our civilization is doomed. But the level of general awareness has been on a steep decline since about 1990 and is now seen in what should be adults.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well when time travel becomes possible we will zap you back to medieval Europe where you should be happy as a clam, then. Those in power never want to relinquish that power. Even if they, or their offspring, are no longer worthy of having it. They work for their own best interests, not for a people nor race. There has never been a system of government where only the best and virtuous rule. Monarchies always begin with a strong warrior who looks out for what is best for the whole, and then always devolve into inbred fat cowards who only look after their own selfish interests. Even republics with a democratic system are doomed to fail at some point. Corruption corrodes it like rust on iron eventually. The founders of my country knew this and wrote that it was inevitable, regardless of how much they put in place to stop it. And it did happen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imperial Oil Limited (IMO) NYSE American - NYSE American Delayed Price. Currency in USD 14.29+0.25 (+1.78%)At close: 4:00PM EDT 14.46 +0.17 (1.19%) Pre-Market: 7:40AM EDT This is one I should have bought at 7.04, now over 14 and still under valued. Oil is now over 32 bucks, most likely on hopes of the country re opening. Imperial Oil Limited (IMO) Stock Price, Quote, History &amp; News - Yahoo Finance
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">He's not painting, he's restoring, dipstick. You don't rest your hand on a wet canvas - I would know because I've painted a few canvases, myself. I also wouldn't wear pristine monks' robes while wielding a paintbrush without wearing a smock over them. You people are seriously stupid, you know that? (of course you don't, stupid people don't know that they're stupid, because they are stupid). Yessuh, dey do!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeah the first person that was told to stay home until they are about to die, then come, and die. Pfft My buddies neighbor died in his home the other day! The hospital said NOT TO COME because they need open beds! Furthermore its says" Covid19 related death", which means they still don't know what they mean by covid19, they say its the virus,then the disease that the virus causes, now it just causes other complications. I garuntee they where told to stay home, and they went anyway, realized the hospital was empty and that they where intentionally killing old people by denying service, then died of shock.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well please let that be soon, I have to be at yet another New Years party in an hour and I'd love nothing more than to cancel it! ~grumbles curses under breath~ I have to go and make nice with all the other ladies - yanno, because talking about how much money our boyfriends/husbands/whatevers make is F'ing riveting, and they won't all just talk about me and my dress the moment I leave. God, I hate airhead ho's, I don't know how you men do it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's basic esoteric knowledge. Whites have a primordial taboo about coloreds. Prometheus stole fire from heaven and gave it to man. Now the coloreds want fire too. Now knowing this is God's use of Man to spread enlightenment even though it's gross to you but it helps others get enlightenment or fire and society is a caste system not enforced . Therefore again the most likely answe to succeed is you have ten births to make up for the ones that don't stay with you. Then they go out changing the outer world but not in organized way that colonizes. All these people want white women so again the solution becomes to have more births to make up for that and they also spread whiteness in nature as the go which is gross to Whites due inner taboo feelings that Whites share a common evil they not supposed to leak out which is actually their mandate is to spread their genetics if possible or others would arrive as migrants eventually anyway.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This vid covers the globalist ideas of total control of the world thru inoculations and the control they'll take by making them mandatory, up to invading our homes to insure compliance. It advocates a 'snitch force'.. WHO Official: It's Time To Remove People From Their Homes &amp; COVID Task Force Admits Inflated Numbers This one is the Ron Paul Interview on the PTB and their desires to control the world by vaccines. Dr. Ron Paul Interview: Bill Gates &amp; Tony Fauci Are Determined To Run The World by Vaccines
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We discuss Berkeley going 'Carbon Neutral'. Epic Leftist Self Goals | Mother Earth Religion | Stop the Insanity Oh yeah good times. Hunter Gathers are 'carbon neutral'. It is a religion with virtue signaling added. The left just won't accept that the fact that the SUN heats the earth regardless of CARBON! Science is not for then. Greta Bots. Cover is last time earth was carbon neutral. Behold San Fran becomes one with Mother Gaia may Fire burn little and carbon be none! May we be neutral! Mommy Loves You -- non-binary beings of Earth. Sheeit! Insanity! Berkeley shows us Exactly How Not to get it done. Just don't be like the Commie Mommies. Hey why are we cold without gas heat? Shut up and be grateful to mother GAIA Toxic Male Being!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I found this site purely by accident. I wish I didn’t have to post this in the opposing views section, but I am left with no choice. I don’t really want to argue about anything because it would do no good here. I don’t want to teach or prove anyone wrong or right. I am just flabbergasted that some humans feel the need to hate this much. And it is equally scary that most of this hatred is masked and justified as self love. Just through casual browsing I am starting to believe that mental illness is not just chemical nor purely genetic. It must also be rooted in lack of exposure, learned behavior, and misinformation. I actually feel the same dirty feelings as if I stumbled upon an Islamic militant or anti-White site. Say what you want, but the differences are negligible at best. Same ideals.... same rhetoric...same eventual outcomes. If you truly love and care about the future of Caucasians, I implore you to take a step back and stop perpetuating and emulating the very behavior of those you so vehemently despise. It leads to your own self destruction way more than any outside force. Fear is the mind killer. Not acknowledging fear is the accomplice... Most White people rock. You can be one too. Start by not being the people you hate...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because Africa has different countries with different data agencies? I'm not saying all reports are fake, this is something that should be analyzed on individual basis but it's not rocket science to understand that some countries don't have trustworthy data and it happens for different reasons. Anyway, assuming the data is correct, don't your question just confirm our beliefs? Homogenous societies are better – even blacks benefit from it, hence their lower crime rates when in an homogenous country; a mixed country will stir resentment among its inhabitant that can lead to different problematic behaviors, for blacks it often translates as criminal behavior.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you of Turkish heritage? I know there are many Greeks whose families have lived in parts of Turkey for generations. However, I’m not sure many of our members would consider you white. You’re more like Kazakhs and Azerbaijanis, if you are ethnically Turkish, and those are people I wouldn’t consider white.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rather, how is it ironic? If no White men or women race-mixed at all. There would be no need for us to oppose the abominable practice. Your query is irrational. We oppose anything that is harmful to our race, and race-mixing is high on the list of harmful behaviours. So of course we oppose it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Then, do you think if they didn't smoke marijuana, they wouldn't have anything wrong with them? I'll say something, everybody I've ever met could be said to have "something wrong with them" by somebody. I don't encourage marijuana use, I don't think it should be encouraged. But, like I said before, whether or not somebody smokes marijuana is highly irrelevant to me, unless they make it relevant. I can like marijuana smoking White Nationalists.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thank You Ryan for the support. I have been doing this a long time by myself because my personal views can only do harm where whites in South Africa are concerned. I put my own views to the side because they would give ammunition to enemy of my people and I would never reach the Department of State or be respected by people like Dr. Stanton of Genocide Watch. The goal is to help not do harm. It’s a tightrope walk and I approach this very strategically. Dr Duke told us we must conceal our intentions and I never forgot this. 🙏🏻
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is exactly my point. These are the jobs young white people coming out of school need which are going to Indians on H1b's that the republican party is handing out. Conservatism 101 = cheap tech labor from Indian and Asian countries in the name of free market capitalism. Just stop with this nonsense about Indians being right wing...blah blah blah. Of course Indians don't like identity politics considering real identity politics means white people not wanting them in America or Europe. It wasn't the dems or liberalism that turned California into crap. It's the fact California is now way less than 50% white. The best, most clean and nicest countries on earth with the highest quality of life are liberal, socialist European countries. There is no difference whatsoever between neoliberalism and neoconservatism. Its a kosher sandwich. If Modi is very popular in India why is your boss in America and not in India?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There’s obviously been some internal turmoil going on. The official website went offline after the general election and stayed off for about 3 months. Then briefly re appreciated in a completely different format (same domain name) but without the Wigton PO Box but the old regional accounting box number in Geoff Dickens region I think. Then after a few day that went off. Now the old Wigton based one has reappeared out of date. Last article dated the 3rd December 2019. Looks like they lost their webmaster and despite getting the domain back under their control they don’t have the will/ability to update it. What a bunch of utter cretins in head office.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Our White next door neighbors who love to travel to non-White countries 2 or 3 times a year are overdue from returning from their recent trip. Hope they learn a lesson from this and it won't be easy for them to come back home. I simply will never learn to understand why it is even possible for Whites to like it in non-White countries. Grrr ... non-White countries ... shake shake.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pros 1. The city of Thunder Bay is surrounded by so much natural wonder. 2. The low populated countryside is an ideal location for living and raising a family. 3. We are rich in European culture Finnish, Italian, Dutch &amp; Polish, you can find them everywhere here. Cons 1. The city has a large amount of welfare collecting drug addicts for the population size. So high crime rate. 2. We have a ridiculous flow of rag heads coming in working at every low skilled job (ie. Box stores and fast food) 3. The city's infrastructure is poorly maintained, although this is due to the harsh northern winters. All in all, Thunder Bay itself is becoming more of a **** hole as time passes (pardon my french). But the surrounding townships are wonderful, it's still a white man's countryside for now. Although our government is aware that we are a European stronghold and they are spending our tax money diligently to destroy that. Final thoughts Leave Thunder Bay, but don't leave the North West. Find a nice large property, Buy it and live there. Nothing beats summer time in this amazing region.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This individual, Theresa Tam is objectionable on so many levels. 1 She is a blatantly obvious example of an affirmative action diversity hire! 2 She is a blatantly obvious example of a paper Canadian! 3 She is as UGLY as sin! 4 She has a HORRIBLE sounding voice! 5 She has a proven track record of being more loyal to the WHO and China than she is to Canada! 6 She originates from the exact same country where this virus originated from!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We don't hate blacks either. We simply recognize that they are not the same as whites and never will be. They are unfit for a white society. I don't know about them being subhuman, but they are the most primitive race on earth. They are impulsive, overly aggressive, violent, they lack foresight, intelligence, even brain mass compared to whites. Environment may account for some characteristics in people but genes play a role in all of this too. If you think about human evolution, why on earth would anyone believe that all human races would be the same? We did not all evolve in the same environment or under the same conditions. This is why we are different. Mixed race people in our ideal white world would belong to the black world not in ours. If there white relatives want to go with them then let them go too. If we let one black in we have to let them all in. We can not filter out all of the bad blacks from the decent ones. Part white blacks would likely be the upper class of a black society.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes. Organise. Think smart and look smart. The tide is gradually turning, the idea now is to prepare the ground gently. Talk to people, if they seem likely swayed to the right then encourage that drift. Whatever you do don't mention The Fuhrer FFS! The brainwashing holds strong for most and you'll push them away if not careful. We must be quietly confident in the righteousness of our cause and not rabid. If you listen to enough leftie babble they'll provide you with an opportunity to sow a seed of doubt and if each of us plants one some will take.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We have the devastating details here. Amid the sex scandal hanging over Prince Andrewâ€™s life, shocking new rumours have surfaced that the shunned royal tried to take his own life. U.S. magazine GLOBE repots that the Duke of York was found unconscious in his own home from an overdose of sleeping pills. â€œThe prince was lying face-down on the carpet and, luckily, the prescription bottle was just inches away, so the medical team knew what they were dealing with,â€� dishes an insider. â€œHis pulse was barely notice- able at first, but when they got the poison out of his stomach, his functions began returning to normal.â€� The publication claims that after being stripped of royal duties and disgraced by his mother and his family, Prince Andrewâ€™s future looks bleak. While he refuses to cooperate with investigators, it doesnâ€™t stop the claims that he had sex with underage girls and self-proclaimed sex slaves of convicted paedophile Jeffrey Epstein. Prince Andrew flatly denies the allegations made by Virginia Roberts, who says she had sex with him when she was 17 years of age, yet Virginia stands firm with her claims. â€œIn truth, Andrew has nothing left to live for and is facing the real possibility of being the first royal ever sent to prison,â€� a palace source tells GLOBE. â€œHis future is grim, indeed.â€� Meanwhile, Andrew was reportedly shunned by his royal siblings as he celebrated his 60th birthday on the 19th February. A low-key private dinner held for Andrew with approximately 50 guests, but none of the senior royals were anywhere to be seen, reports the Daily Mail. Prince Andrew's secret overdose nightmare | New Idea Magazine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If we're on the subject of speculating on the long-term prospects, my opinion is that the 2020s will mark a transition in public consciousness from apathy and low level resentment to open hostility and engagement. I don't think we'll necessarily see large scale change in governments necessarily, barring a few exceptions, but I'd wager things will heat up dramatically in other ways, making the 2010s seem like the first ripples. The downside will be an increasing clampdown by the establishment. If we compare the internet in 2010 to 2020 there's been a pretty major censorship spree. Even if it continues at the current rate, there may not be an easily accessible Stormfront and such like in 2030. Let's hope the tech savvy and those with a bit of money on 'the right' can actually start making themselves useful and providing some resistance and alternatives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">But these are slogans, not policy. The only policy was the Lebensborn program which aimed to breed pretty people. Breeding dogs illustrates the shortcomings of an otherwise great idea. Those shortcoming are unintended consequences related to sampling errors (genetic drift) which can be negative. Voluntary sterilization of individuals with genes recognized as not desirable would work better in the long run.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I responded to this in great detail explaining how the negroes make up the Jews (Judah, Benjamin and Levi) but my post was not allowed to be posted by moderation for unknown reasons. All [real] Jews are Israelites as well as Hebrews, but not not all Israelites are Jews, and not all Hebrews are Israelites. My original response broke all of this down and explained it perfectly but like I said it was not allowed to be posted. Arabs for example, are Hebrews, but they are not Israelites nor are they Jews. There are 12 total Israelite tribes. Only 3 are considered to be Jews. The "Black Hebrew Israelites", otherwise known as the "BHI" (neither of those two names are what they call themselves, other people call them this) are not only black people. They are comprised of the negroes (who are the Jews -- Judah, Benjamin, and Levi) while the native indians and latinos of indigenous descent make up the remaining 9 tribes of Israelites.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COVID19 COLLAPSE | Meat shortages coronavirus disrupts production | And other Happy News SO here we are China VIrus Kung Flu Wuhan Virus is being used as an excuse to make you low. Desperate, tired hungry and witless -- that is their desired outcome. See Lenin -- 1922. K Guy? Communism next stop after Year Zero -- Meaning the time they get rid of you RIGHT WING HATER! Kulak! Look it up! Cover is Last Time Communists controlled folks food! Meat shortages expected as coronavirus disrupts production, despite executive order American slaughterhouses processed nearly a million fewer cattle, hogs and sheep in the past week than they did during the same time a year ago, marking a new low that experts say will likely increase “spot” shortages of meat at some grocery stores. “I wouldn’t say the food system is breaking, but at least the meat sector is in real serious, critical condition at the moment,” Cover is SOCIALISM in all its glory! -- BEHOLD EQUALITY in starvation. #COVID19 COLLAPSE | Meat shortages #coronavirus disrupts production | And other Happy News
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Good to see the BM/BNSM website has now been restored and is now protected from further online enemy attacks, by a National Socialist owned webhosting and design company. For a membership information pack and a catalogue of NS books, magazines, badges, posters, stickers, leaflets, CD's, DVD's etc write to: BM Sunwheel Office. P O Box 6. Heckmondwike. West Yorkshire. WF16 0XF. England UK. E-mail; [email protected] Web: britishmovement.info – British National Socialist Movement
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maybe no one discusses it because they are almost non existent. (white squatters) Are your sources suggesting that almost one million of the one and a half million whites in SA are in squatter camps? Do you understand how totally ridiculous your claim is? I have never personally seen one of these white squatter camps you refer to in SA, (although I have seen photos of them on the net) and nor have I ever met any white squatters in person, so maybe someone in SA could let us know where these camps are? To address your other question, yes, of course a white working class exists in SA. How do you imagine anything gets done? Certainly not by the kaffirs who are in the main, laborers, as most of them are too stupid to train as skilled tradesmen. Having said that, it is very difficult for whites to compete in the labor market due to black empowerment programs. But the white South African is a very industrious creature who lives by the motto, "ons sal a plan maak".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 Because a lot of whites who seem liberal are just liberal because they are forced to be liberals by the current anti-white system (peer pressure enforced from the top by the architects of culture). 2 Because they can be convinced to not be liberals anymore, but that's impossible when jews control all the media
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>64.3</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You can try and quote your anti-white authors to your hearts content, but to most of us the facts are clear. Slavery benefited very few, and the legacy of slavery has damaged this country immensely. Blacks, on average, have much less abilities than any other race on the planet. Prior to the introduction of white medicine and agriculture into Africa, the population was on the decline and could have approached extinction levels by now. With the introduction of same, the black population growth rate is the greatest in the world such that it has had a major impact on the climate. That population can no longer be contained in Africa and these mud hut people are invading the world. The facts are plain when you look at formerly white areas that are now controlled by blacks. In NO place has that improved the living conditions. So, you can spout all the nonsense you want, but it does not change anything.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ah yes. Thank you. I had not realized I wasn't as clear as i wanted. I've been in school, learning about how to be a producer. Now mind you i am slightly older, read 30, and am a bit behind. But producing film and tv has been my dream since i was 12. When these kids came to me with their idea, and had shown how serious they were, I took a leap. I have no experience to go with everything I've learned. Nothing under my belt as far as accomplishments. So I'm fresh and new to the industry. Speaking of being new. Something i want to ensure is that all of this never falls into the same trap as the rest of Hollywood. To protect our people, and ensure that the hopes and ideals of the White people are preserved and passed on to our future generations. So any tips or ideas are important.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, no, because they're nitwits. Which is why I actually have to give them an argument to try on me because I feel sorry for them. You know, they stand there all lost-looking, scratching their pointy heads as they think really, really hard, and then they start making these little desperate noises like little baby birds that fell out of the nest. And because I'm a kind and generous White Supremacist with a bleeding heart, I give them an argument. I know, it's not an absolutely foolproof example of something non-whites contributed to Western culture, I think it might also incorporate a pre-existing Roman structure, but I don't know how much of that older structure was left. But the baby bird sounds! You don't hear them make those poor little baby bird sounds!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For any non "white supremacists" who may be lurking this thread and are planning on attending, take notes and pass them along. Along with the other great suggestions of body cams (a necessity!), and situational awareness (also a necessity!), I suggest going to Google Maps and working out various possible escape routes. Get there a day early, trace these routes out on foot and in a car. Coordinate with as many people as possible and don't let anyone separate you. Know where you all are going. I hope to god that there won't be a repeat of Charlottesville Unite the Right of 2017, but this is Northam we are talking about. Scumbag isn't fit to clean up after my horse. Northam will try every dirty trick in the book and if everything goes awry, just like he's planning it to, he and the the media, and the justice system will blame YOU. Be smart, keep your nose clean, and stay SAFE.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greetings to all fellow White nationalists! I am just looking for some friendship/camaraderie in Wisconsin to be honest. Feeling rather devitalized/depressed that those around me don’t care enough or don’t even care much at all for Europeans. Hoping just to find someone local to chat with first and maybe eventually hang out with. I’m 44 years old, single male, but mostly looking for like minded people in this post, rather than even dating. If you care about Europeans and don’t want them taken advantage of, let’s chat! PM me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supreme Court rules man has no legal right to remain in Ireland Is it now official policy for the state to grant asylum seekers residency if they exhaust the system and end up staying here for five years? It seems so. What a farce. We have open borders in all but name. I guarantee this spoofer won’t be sent home either.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Direct provision: 'If that is the kindness of the Irish State, I would hate to experience its cruelty' We have paid for his bed, board, healthcare, travel expenses, provided him with spending money and paid for his university fees. Be thankful? Not a hope. Apparently, this isn’t good enough. These ingrates expect free housing, citizenship and access to full welfare immediately upon their arrival. Anything less is ”racist”. They wouldn’t thank us for that either. The only thing these people deserve from us is a swift and humane repatriation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have rewritten our Constitution, with real change and realistic chance of getting 7 provinces to pass and approved by 3/4 of the voting population also passing the Senate. My amended constitutional changes will give Natives unprecedented land rights and give Quebec what they want mostly in regards to autonomy almost making them a country, I said "almost" my amendments will eliminate the Bloc Quebecois and divisions and combining the Quebec (New France) flag with the Red Ensign, may need work and input from different points of view but no compromise to our Etho-nationalist ideology, the key is elimination of the leftist Bloc Quebecois. We can get the votes without compromising our integrity, we don't need the Ontario immigrant/migrants vote with Quebec on our side, we have the entire west except BC, we actually don't need the hippies of BC or Ontario to get the required constitutional changes. Paving the way to make other constitutional changes in our favour to make Canada not just great again but better in all ways, demographics, economic, trade, manufacturing, 99 to 100% employment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Listen, why should you force yourself to endure this distress? Why can't you listen your natural feelings? There is no option and the lies you heard about us doesn't matter. We white nationalists are the only ones who can end the racial humiliation that white men are being inflicited with everyday and it is not just porn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lol. I've heard it called swamp chicken before. It can be really good. It has to be marinated and cooked right. It also has to be fresh. Gator hunting season is relatively short. If it's not in season, then the restaurant ordered frozen gator from Cisco or wherever and it's not going to be as good. Some restaurants have deals with hunters who have "nuisance licenses." They can hunt problem gators year round.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The term gentrification is yet another example of transformational language or jewspeak. The detrimental changes brought to U.S. cities, specifically Los Angeles, result from decades of jew promoted policies, those who profit and benefit from those changes are certainly not......." the gentry" . A more apt description of what's happened to U.S. cities is jewification, fueled by globalism and it's attendant, real estate blockbusting schemes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">In the community me and my wife the white supremacist bunch I did not no but she found out all the rumors about me and mom all the stuff that she had with school going on now it's like she is out of control here friend are just helping here out to get in trouble I no they due not like me im the racist im just putting there black culture down is what she tells me when here friend,s are a around they give me the evil eye just a head's up if you're INDIAN bound they due like useing reverse racism here and genocide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you think those at the top of the NWO will let Muslims take over Britain you'd be seriously wrong. The massive inflow of immigrants who are culturally and racially different to the indigenous peoples is serving a purpose. There is an old saying; United we stand, divided we fall. The more difference and division internally the weaker western countries are, for it is their homogeneity that has always been their strength, and it is only western countries that this is happening to, as it is only western countries that are a threat to this brave new world. max
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, without putting words in his mouth. He probably means 28 appeals to an incredibly small section of a very small subculture which is made up of mainly 45-65 year olds. It doesn't appeal to anybody outside of this, nor do they intend it to. The leaders, and a good proportion of members of 28 have either played no active role in the nationalist movement outside of the music scene in decades, some never. The man who has ran 28 since the early nineties is a multi millionaire. Have you had any involvement with 28 in the UK? It's hardly worth your time debating it if you are not even around that sort of thing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They could do well on their own with exports. SCEXIT! Sure. But could be WREXIT for the Engalish! Maybe Carry On Up The Clyde! In 2014, Scotland's exports totalled £76 billion, of which 64% was with the UK, 15% with the EU, and 20% with the world. I've always been greatly impressed with their whiskey exports. Too much, in fact! Beef good, also. Angus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeah, everyone should take their stimulus money, and add it to what ever else they can scrape up. You don't have to buy at the absolute bottom just near it. Oil stocks however, have bottomed out already I am thinking.. RDS/B went down to 19 bucks, and is now sitting at 34.50..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is my understanding from a number of different sources that the mainland Chinese people who have legally moved to our nations are all agents of the Chinese government. Sometimes also an unapproved individual makes it out of China illegally because they have scammed the Chinese government and stolen large sums of money. The Chinese also have opened up large "birthing houses" for pregnant young Chinese women here so that the newborn get the Canadian citizenship. Then mother and child go back to China. I have observed a house like that myself, they certainly do exist.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We'll have to see if my comment gets deleted this time as it did in the other thread. Apparently men around here are only allowed one particular viewpoint of women or females and only if it sings their praises, if the viewpoint is contrary to that it gets censored. I'm afraid I don't believe in your virtuous idealism of feminine nobility, from my experience with women it is actually the direct opposite. In fact, women are just as selfish, egotistical, materialistic, and hyper competitive as their male counterparts but when it concerns sexual relationships or reproduction with men even more so. Feminists and women in general like to put this facade up that females are the more gentle, compassionate, selfless, or altruistic of the sexes, I for one by lived experience don't believe in that for even a second.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh goodness! Well, he can't have everyone thinking he's a racist, especially us racists! Don't worry OP, this thread will be our little secret. Nobody has to know. And you can go about your life and virtue signal about how you told us all off every time you meet a black person and they'll TOTALLY remember you as an ally in the fight against White Supremacy when we become a minority in a few years. I promise! .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When I was younger, I thought that idea was very elitist. Later I came to understand the merit in it: long term investment. If I don't own my home, I can vote for government largess, but when things turn sour, I can move to another city or state and leave the problems to someone else. The owner has a greater stake in the political long term situation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If people reach out to the stars and conquer all obstacles, how come we are susceptible to dying so easily? Your question confuses biology with matter and substance. All I know is that the bronze age, iron age, renaissance, age of enlightenment, baroque, classical period, industrial revolution and space age are ALL EUROPEAN!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'd be perfectly happy to see Africans paid a fair price for raw materials and labour, but that is not the way jews operate. Africans work for pennies and can't even get clean water. Africa has enough money to pay for water and sanitation, it just never gets there. Massive debt, people running away, gangs and violence, terror murder and sex trafficking, all common place in many African countries. Europeans left Africa 50+ years ago, it's time to get their act together. Same as India, Britain left 70 years ago and Indians are still crapping in the street. They have a space program and people still crap in the open. No sanitation. We can't carry the burden forever. Britain built schools and hospitals, it wasn't all whips and rape. White people say go back where you came from out of frustration... you have to make your own places work. Stop the incest, stop the drunkeness, stop the dereliction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I clearly said Josephine wasn't wrong and i have never blamed white women for submitting to more dominant males which is why young white women with mulatto children are all over America. White men in the 1950's had a chance when they were still 90% of the population to put up a fight to keep the schools desegregated. They didn't have the courage so now their granddaughters are submitting to dominant males and hundreds of thousands if not millions of their grandchildren are half African. Meanwhile millions of Millennial and Gen-Z white males are like fu*k this and decided they would rather play video games, watch porn and drink beer...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You make a lot of arrogant and naïve assumptions about human beings, regardless of their sex. I heard basically the same thing from an ugly dyke a few years ago trying to sell me a truck. The blundering idiot said, 'I could talk you into buying this one if I wanted but maybe it's not what you need.' I told her to get stuffed and left the dealership entirely for another one. Then I phoned the owner and suggested he fire her for insulting the intelligence of his customers. You're not going to get anywhere with anybody if you think you can manipulate them by stupid, juvenile tricks that anyone of average IQ can see through in a moment. Check your vanity, it is not attractive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maybe it's because the powers that be really don't object to what you have to say? For instance, when you say... "White people have nobody to blame but themselves for their problems. This is because they are a bunch of sheepish cowards" Both the mainstream establishment and the radical anti-White factions like the SPLC and anti-hate Canada aren't going to have too much of a problem with that. For the anti-Whites, bashing White people is fine. It's only other groups that anti-Whites don't want Whites to criticize or express negative thoughts about them. Another possibility is that you are not nearly as woke on race as you lead people to believe. That would explain why you would be free to express yourself in Europe, knowing that in much of Western Europe, free speech (at least for White advocates) is almost zero. Another question, if you feel so free to express yourself, why do you use a pseudonym instead of your real name? Not that I'm asking you to. I actually don't think it's a good idea. But since you say you're not afraid. Just a question.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They seek our approval, so they can gain a foothold in our institutions. They don't actively think, "I want to steal what the White man has." They're simply jealous of our accomplishments and want a piece of it: $$$$. Exactly. Those puppets and puppeteers in government opening the borders do actively want us dead. They know mixing us with them will create another Brazil. You know it's deliberate because race-mixing doesn't end racism. It actually makes it worse. Henry Louis Gates Jr. made a documentary in 2005 where he visited the Dominican Republic and witnessed the harsh caste system of light-skins versus dark-skins. That's our future if we don't keep separate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I mean, what in the hell have they built or innovated in the last 400 years?? WTF have they brought to the table as far as for the betterment of the world?? Blacks basically use and rely on white inventions while taking every chance to s**t on our race and commit crimes against us. Think about that.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iranian Military Now Claims US "Cyberattack" Brought Down Passenger Plane | Zero Hedge As new video shows 2nd missile striking plane, Iran blames "enemy sabotage"... Here's another photo that's obviously staged. Why would this koala need a firefighter to pour some bottled water into his mouth when he already has his own bottle of water that he's sipping out of? The engineers behind this hoax can't even find koalas that are good crisis actors. Viktor Lutze boxed figure
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Migrants trash a Greek orthodox church on the island of Lesbos Migrant invaders earlier this week trashed a Greek orthodox church on the island of Lesbos. A mob of over 500 migrants made their way down to the port of Mytilini from the infamous Moria camp on Monday, the Greek City Times reports. Before getting too far, the mob was confronted by members of MAT (Tactical Police) who attempted to block their path. To continue moving forward toward their destination, the mob of migrants began hurling stones at the Greek police. The Greek City Times has released photos of the church that had been absolutely trashed, with its’ alters having been knocked over, pictures ripped from the walls, and threw debris everywhere. As Voice of Europe reported earlier this week, the Greek government announced that it’s preparing itself for 150,000 additional migrant invaders to try and reach the Greek island of Lesbos in the Eastern Aegean Sea from the Turkish coast. Migrants trash a Greek orthodox church on the island of Lesbos - Voice of Europe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm just gonna put this out here straight and to the point. I was with a Klan group from 2012 thru 2016. In-fighting drove me out. I'm brand new to SF. Never used this forum b4. But after 3yrs of self imposed isolation I can't stand being alone anymore. I live in Johnstown/Altoona area and all I see is race mixing, multiculturalism, and Whites who are either afraid to say what they really believe, or those who have bought into the hoax that is multiculturalism. I have had enough. I'm actively seeking out my PA Brothers and Sisters who are of like mind. I wish to become active again and I've been contacting groups that I respect. Most of all I just want to talk to ARYANS again
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ban short selling - Bing Search I told my parents three weeks ago to sell everything and buy a shorting instrument like SDOW, or even better SQQQ. I repeated it several times over the weeks. I was devastated to learn last night that they did neither and are now down several hundred thousand dollars. Typical W̶A̶S̶P̶ WAS (White Anglo-Saxon) relationship. Many European countries banned short selling this week. I ask the President to do the same. Here's a question a semi-retarded child could come up with: "It's interesting the media only tracks corona virus flu infections and deaths, and not the several dozen other strains of the flu, which last year killed roughly 72000 Americans, as they do every year. Currently there are 183 US deaths from corona to put things into perspective. In any given year, the establishment could pick whichever one of the 100 or so strains of the flu that was the most virulent, make a big deal of it in the press they own, freeze the economy, and then short the markets to obtain all those funds. Shouldn't we ban shorting instruments Donald?"
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You both are probably right but I still think brightening up things and displaying positive and beautiful graphics of modern White people and modern White accomplishments will be more attractive to the uninitiated White person. It just looks too Neo-Nazi/Fascist to me and don't get me wrong, I love Hitler. The young generation is all about appearances and the young generation is who we need to get to before they fall too far into leftist multiculturalism. You have design things that appeal to their senses and taste and then they will be more receptive to ideas, you know, appeal to the masses. There is a science to it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bol.com under fire for selling Nazi propaganda aimed at children Feb 27, 2020 Dutch online retail giant Bol.com is refusing to remove a Nazi children’s book from its virtual shelves, citing the need to uphold the principle of freedom of speech. The book, Der Giftpilz (the poisonous mushroom), dates from 1938 and was written by Nazi stalwart Julius Streicher. It was used as evidence against him during the Neurenberg trials, at which he was sentenced to death for crimes against humanity. Bol.com under fire for selling Nazi propaganda aimed at children - DutchNews.nl
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Whether 5G would/does cause C19 is anyone's guess, because of the low roll out here I'd say in this case not but does it help, is it healthy? According to Dr Devra Davis, although mobile phone radiation is not strong enough to break apart the basic nuclear tied bonds of DNA it does effect its structure and function which can damage it. It also effects the quantity and quality of sperm that is produced and can damage sperm. Also the brain among other things. I'll post this video which is worth a watch if anyone is interested in this subject. Due to technical problems with video conferencing I'd start watching about 10 mins in. YouTube A comment that caught my eye: max
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It's the oddest thing. I've had really smart groups of people tell me that mixing red light with green light couldn't give a yellow appearance. It wasn't until I took two incandescent flashlights, shined one through a red filter, the other through a green filter onto a page of white paper, and had them look at the intersection between the two different color spots on the white paper that they believed me. They were familiar with paint mixtures, but not with light mixtures. Light mixtures are truly additive, but paint mixtures are actually subtractive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reading about the Spanish flu, I found that the 1918 virus was reconstructed in 2005 by the CDC, "in collaboration with Mount Sinai School of Medicine, the Armed Forces Institute of Pathology and Southeast Poultry Research Laboratory." CDC - Media Relations - Press Release - October 5, 2005 It says there was a statement made by Dr. Fauci, that link is broken, though. No further comment, just something I found interesting and thought to share.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have to disagree with you. In Germany the situation is very dire for two main reasons. 1. Since 1945 there have been an ever growing number of laws that are blatantly designed to quell any nationalist and especially National Socialist sentiment in the population. Germany has the most stringent "anti-racist" and "hate crime" laws on the books of any European country. For example, simply singing NS songs, giving the Hitler salute, challenging the 'Holocaust' tale, and anything that could be considered "rehabilitating National Socialism" is outright banned and punished, and there's not even a pretense of free speech in this regard. 2. Since 1945 the Germans have been hit with an endless barrage of "anti-Nazi" propaganda (psychological torture really) and the end result has been that a very significant percentage of the population is fully brainwashed such that they are openly hostile and violent to anything that could be considered "racist", "fascist", "xenophobic", and all the related buzzwords. The level of anti-white self-hatred in Germany is truly revolting and demoralizing. What we consider to be far-left activism in America (Anti-Racist Action, Antifa, etc.) is not too far removed from standard progressive liberalism in Germany. Most Germans react to the mentioning of words like "Hitler" and "Holocaust" in the same way that dogs that have been often whipped react to the sound of a whip cracking.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trump's enemies are using Covid 19 to try to crash the economy. Their reasoning is they just MIGHT be able to blame that on Trump. It is their only hope to win the election and as I have explained, Trump is destroying their world--he really is destroying their reason for being.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Of course I am "much worse") I have guts to tell the truth while YOU hypocritically claim to protect it, but somehow end up telling only that "truth" which is convenient All other "truth" is lies for you I do not give a damn about Lisa Laflamme since I haven't had a TV since about 2004-05. I get news the way I want and from the sources I like. I do not need no Lisa Laflamme to tell me what's right and what's wrong. You seem to like suffering through her reporting Are you a masochist in disguise? Again, if I do not like something, ANYTHING, I just do not do it! Same with this Lisa Laflamme reporting-you do not like her, then just take your remote and change the damn channel. Better yet-get rid of your TV altogether. Watching Lisa Laflamme does NOT make your brave nor heroic
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We could have any type of world that we want through virtual reality. We could design white nationalist world and we could wear the head set and have the gloves and the vest and even one of those dome like tread Mills for walking. And peol Ple could buy all this equipment and we could start like a website for the virtual world and we could have a world where Hitler won or where the Confederacy won or even a futuristic Aryan world I mean the realitys are endless
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I did find this on another site: "Blacks are more closely related to Monkeys than whites. I will refer you to the online magazine "Nature" International Weekly Journal of Science, Volume 486, Issue 7404. It appears that over two dozen scientists of various fields (genetics, biology,ecc) contributed to the very lengthy and comprehensive article in which the Bonobo genome is compared to that of Chimpanzees and Humans. The findings are clear and available for all to see. You people need to understand that what is lacking in this era of political correction is TRUTH and in order to get to the TRUTH we need scientific facts, not ad hominem arguments."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I agree that White women and Black men are a despicable sight, and having lived all my life in the South, I see it once-in-every-three time I'm out and about. Most White women have some sense that it's not right, but if we don't keep our children out of the public schools, it'll gradually increase. The mulattoes are a serious problem. They are more likely to have food allergies, illnesses, disorders, and most of all, they hate themselves for their plight of not being able to identify with either Whites or Blacks. They are a most saddening sight, and we have to train up our kids right to ensure the mixed problem stays at bay.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Now who's "blackpilling"? Nope. I've said many times I don't know precisely how many people we need in North America to preserve our White genome, but I have a gut feeling that even if the present c. 200 million "whites" gets winnowed down to a few million, we'll still have more than enough. My gut also tells me that once Whitey has to bow his head and step out of the way of his dark masters, the "resistance" will be in full bloom. Did you skip over that part of my post? I said those "whites" who think they are "African" but LOOK WHITE will be gutted and strung up by offended negroes. They barely tolerate "whiggers" now. That isn't just "cultural appropriation", it's BIOLOGICAL. It really sets them off. Even those pukes who don't try to "act black" but merely sympathize with the "downtrodden people of color" will be dispensed with once they're no longer needed. People who don't come around to our way of thinking are a self-correcting problem. Bah. He was trying to get out of a jam. But if he did actually believe that, whatever. Chalk him up as another casualty when it all goes down. OK. If it gives some of you folks something to do until we need you for MORE IMPORTANT things.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">So you welcome you FDA CDC WHO CHINESE COMMUNIST OVER LORDS? Stand apart from me. Now. But for everyone else note the total lack of getting the point -- This one thinks ZOG will give you BROCCOLI after they take the BEEF? See -- Stalin -- 1929-32 Ukraine. No thank you. But I just can't.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SS-Hauptsturmführer György Hermándy-Berencz Waffenbrüder from HUNGARY served with the famous Hungarian SS Alarm-Regiment / 26. SS Freiwilligen Grenadier-Division 'Hungaria' Awarded German Cross in Gold 23 March 1945 for his actions at The Battle for Neuhammer. During a four day fierce battle the Alarm Regiment heroically blocks the Red Army while 2 divisions successfully escape. Finally the Alarm Regiment is evacuated after losing over half its men. 10 Hungarians are awarded the Iron Cross First Class, 20 receive the Iron Cross Second Class, Waffen-Untersturmfuhrer der SS Huba Szocs is awarded the Hungarian Golden Honour medal and one Hungarian Scharführer is awarded the Hungarian Great Golden Honor Medal for destroying 7 Russian tanks with a hand-held panzerfaust. In all the Hungarians destroyed 17 Soviet tanks. György Hermándy-Berencz also received: ✠ German Iron Cross First &amp; Second Class ✠ Hungarian Order of Heroes ✠ Hungarian Order of Merit ✠ Hungarian Order of the Holy Crown with Swords ✠ Hungarian Fire Cross ✠ Hungarian Combat Leadership Badge ✠ Hungarian Signum Laudis Badge in Gold w Crown &amp; Swords ✠ Hungarian Bravery Award in Bronze &amp; Silver
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm glad that you are one of those 5 percent of men that have women figured out. That's great. But about 80% of guys don't get it and they need some tutoring on this because so many of our guys have grown up without proper role models and have had to endure massive anti-white social engineering. That's why manuals like this are vitally important. Try to have a more open mind about these things and be more of a help to your fellow white brothers, and indirectly, to your fellow white women.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When I was in school I don't remember any big deal being made of the Holocaust. It was probably just some chapter in the history book, I can't really recall. Though, in a high school English class I was in, I do remember us reading a book detailing the Armenian genocide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh, knock it off. Like modern white American or even European men are anything to brag about either. The amount of marriageable white men I know can be counted on one hand. Any low value male that needs a "submissive" woman and gets scammed by an Asian for a green card deserves what he gets. White men need to take a long, hard look at themselves and think about why white American women would rather do anything but settle down with them. Maybe it has to do with all of the weird ideas about sex, marriage, and finances that the Jews have successfully fed white men. European women won't find low value males any more attractive when they verbally take a dump on our American sisters, trust me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I would like to make a point and I think it is a strong one: It is of absolutely no importance if the lesser races hate us. Their discrimination has no power since they are powerless and this includes the jews. The ones that hate Whites the most are the White race-traitors. It is the race-traitors that empower the jews. The blacks have discriminated against us on the inside since we enslaved them and without race-traitors, the jews would be kicked out long ago.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As we look around has our lands improved with these invaders or getting worse? We can see the answer in real time, can’t we? Would you like to go over the last few decades and compare? Or have you even been alive that long? Should we look at cities and areas of ruin in the USA? What is the current debt of the nation? Is it backed by anything? Do you know what a depression is and how you get there? Check &amp; mate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trump meeting US oil CEOs today at 3pm to discuss/confirm cuts; OPEC having emergency meeting Monday to do the same: Oil Prices Rise As President Trump Meets With Oil CEOs, OPEC Sets Emergency Meeting | Investor's Business Daily UCO up 30% today: UCO ProShares Ultra DJ-UBS Crude Oil Stock Price and Discussion | Stocktwits For Canadians: BETAPRO CRUDE OIL 2X DAILY BULL (HOU.TO) Stock Price, Quote, History &amp; News - Yahoo Finance You might do great, or quite badly depending on how those meetings go. I assume they will go well. Only quote me on that if you/the meetings do/go well lol . More: Saudi Arabia, Russia Press U.S. to Coordinate Oil Cuts, Pushing Up Prices - WSJ Edit - cancel that: Oil set to '''crater''' Monday as OPEC meeting delayed, tensions flare between Saudi Arabia and Russia IEA: OPEC Can’t Save The Oil Market | OilPrice.com
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saying that african people have inferior genetics is ironic considering the content of my OP. Europeans invaded africa, imposed oppressive systems like apartheid (much like they do here in the US) where they commit biological warfare, genocide, unequal distribution of resources, land and farmland after stealing it from the native population, etc., and then blame the native population for everything. And if the native population dares stand up for themselves, then things like this happen: "When Sékou Touré of Guinea decided in 1958 to get out of french colonial empire, and opted for the country independence, the french colonial elite in Paris got so furious, and in a historic act of fury the french administration in Guinea destroyed everything in the country which represented what they called the benefits from french colonization. Three thousand French left the country, taking all their property and destroying anything that which could not be moved: schools, nurseries, public administration buildings were crumbled; cars, books, medicine, research institute instruments, tractors were crushed and sabotaged; horses, cows in the farms were killed, and food in warehouses were burned or poisoned. The purpose of this outrageous act was to send a clear message to all other colonies that the consequences for rejecting France would be very high." ^ The europeans of course blame all of that destruction on the native population and their "inferior genetics" as well. Yes, the truth is everywhere. Especially on the internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is unlike me to offer comments on a book I have not read and have no intention of reading, but I'm willing to stick my neck out and make an exception in this case. From what blurbs and excerpts I have seen from this book, and from what information I can gather about Kelvin Pierce, he seems to be one of those sad neurotic individuals who never grew up and never will. Instead of being proud of being the son of a most remarkable man, he blames his own pitiful shortcomings on his father's lifelong devotion to save his people from extinction. If Kelvin Pierce had kept his neurosis to himself, it would be none of my business, but he didn't. Instead, he pimped himself out to his father's worst enemies and caused a ghostwritten screed to be produced that was deliberately designed to do the most damage possible to White Nationalism and to his own dead father's reputation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You know what pisses me off? These stupid morons who go around saying, "Her-derr, panda bears need to be preserved!" but then turn around and call us "racist" because we want to stick with our own. The other races take advantage of this weakness, and help themselves to our countries, our neighborhoods, and even our bodies. Then they come up against us and get pissy because we tell them they have a right to none of it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">X-ray analysis of artifacts from Henry VIII's warship the Mary Rose April 28, 2020 21st century X-ray technology has allowed University of Warwick scientists to peer back through time at the production of the armor worn by the crew of Henry VIII's favored warship, the Mary Rose. X-ray analysis of artifacts from Henry VIII's warship the Mary Rose
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">China coronavirus: Misinformation spreads online about origin and scale - BBC News Is' 'bat' 'soup' 'a' 'delicacy' 'in' 'China'?'' 'We' 'debunk' 'a' 'rumour' 'on' 'the' 'origin' 'of' 'the' 'coronavirus Even though, as is usual, most spread misinformation; in this current context, I don’t have any sympathy for these Chinese who have gone to Indonesia or the philipines to try these exotic foods and are now being misrepresented. It’s true that there is a political motive behind the vilification of china more than other Asian countries, especially ignoring southeast asia as they are not on the world stage even though they practice worse eating habits. It still doesn’t matter because china still has wet markets, even if they are a fraction of the populace who eat risky bush meat, that reputation becomes associated with all Asians so therefore, they are responsible for that backlash that all asians will be subjected to. That is how racial stigma and stereotypes operate, fair or unfair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There has been several groups of that sort over the years including Western spring, WIN, PLE UK, Live the dream, most where so short lived it was hard to even notice. And more established groups have at one point or another pushed the idea like c18 in the 90s, the RVF, and I remember a BM meeting calling for a land fund/land project or somthing like that, I remember people pledging money but all came to nothing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynic if you really believe that most of the white people on this site are dumb and rednecks then that tells me are the one who is very dumb. An intelligent person does not assume something about a subject he knows nothing about. I have been a member of this website since 2000 and posted and read what many people have said. We have people from all walks of life and I think they are generally more intelligent and also more aware than the average white person. I have talked to a number of people with advanced degrees and some with Phds There was a member here named Johnjoytree who had a PhD in physics and he passed away in 2014. Some members here may not be that smart or may have little education too. Every member of my family qualifies for Mensa and also have advanced degrees. I scored 780 out of 800on the GRE math section. I don't regard myself or other people here as evil. We have a right to come and exercise our freedom of speech. If you are so concerned about fighting evil maybe you should organize a boycott of Israel to protest it's apartheid. You sound like a negro. What do you hope to accomplish here? Keyboard Kommandos are a dime a dozen
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A lot of the questions at the end of your post are answered by common sense and/or Google. Look anywhere in the far North or far South of the world, and pick out the non-white countries. Good and ethical eugenic practices include encouraging young people to not be promiscuous, and not to marry or breed with complete losers. We evolved intelligence and a predisposition toward non-degenerate behavior because Europe was very difficult to survive in, natural selection only allowed the smart ones with good morals regarding their family life to survive and pass on their genes. As for a lot of the other questions - sorry, you need to figure it out yourself. White people have been holding non-whites' hands for centuries, now. I'm sorry that your parents acted like animals and didn't once think of the well-being of the human being they were creating, but it's not our job to fix that for you. You were certainly wronged by them, and we want to prevent that from happening in the future, for a variety of reasons. However, if you want to create a form of National Socialism for mixed race people, a good first step would be to stop expecting white people to fix your problems for you and stop being dependent on us. Nazi Germany didn't go around begging other nations to figure out their problems for them. There are many parts of Latin America that I think would be perfect for you. I'm sure there are cultures created from generations of race mixing that you could fit in with, perhaps in urban Brazil. And maybe all of the mixed race people there would help you.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are lots of names for Jews who pretend to be Goys. Marranos, Donmeh, Crypto-Jews, Covert Jews and probably a few more I can't think of right now. Anyone who has known a few Jews has known at least one who changed his/her name "because of anti-Semitism". They work as spies or are positioned in key positions for tribal benefit. Covert Jews operating in key positions of power or influence are often referred to as controlled opposition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Germany's top court to probe former judges' Nazi links Feb 19, 2020 Germany's Constitutional Court will investigate the backgrounds of its early judges to find out if they had links to the Nazi Party, court president Andreas Vosskuhle said in Karlsruhe. The court — made up of 16 judges from two senates — decided to formalize the process after two or three former judges were found to have links to Nazis, said Vosskuhle. The purpose of the investigation would be "to get more certainty about our past," Vosskuhle said. Initial discussions with historians have already begun, he added. Germany′s top court to probe former judges′ Nazi links | News | DW | 19.02.2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Safe as long as well managed. I've got an amateur radio and had RF burns from the antenna whilst foolishly tuning it up a ladder, that was ~25 watts and touching it. Like a cat scratch and quite deep. Don't forget that 5G is a specification, most deployed masts will not be use the higher frequencies and won't be vastly different in frequencies or power output to the current 4G. Handsets will use the lower end of the frequency spectrum as it's more efficient and less susceptible to interference due to buildings and atmospheric absorption etc. The higher frequencies will be typically used for high bandwidth temporary point-to-point data links between core networks and short term locations. Think Glastonbury to network backbone so the crusties with their iPhones can ask mommy and daddy for more money . They use a microwave dish rather than the rectangular lower frequency arrays. Anything that releases energy should be treated with caution, cats included
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Video Synopsis: German President Frank-Walter Steinmeier has said Germany is still dealing with the "same evil" that was responsible for the holocaust at the Fifth World Holocaust Forum at the Yad Vashem memorial museum in Jerusalem on Thursday. "I wish I could say that we Germans have learned from history once and for all. But I cannot say that when hatred is spreading. I cannot say that when Jewish children are spat on in the schoolyard, I cannot say that when crude anti-Semitism is cloaked in supposed criticism of Israeli policy. And I cannot say that, ladies and gentleman, when only a thick wooden door prevents a right-wing terrorist from causing a massacre, a bloodbath, in a synagogue in the city of Halle on Yom Kippur," he continued, vowing that the holocaust should "never again" be able to happen. Steinmeier allegedly gave his speech in English as not to offend any Holocaust survivors in the audience by speaking in German. The Halle attack occurred on October 9 2019. Two people were killed after a man opened fire near a synagogue where the Jewish community was observing the holiday of Yom Kippur, the holiest day in the Jewish calendar. One woman was shot dead outside the synagogue, near a Jewish cemetery, and one man was killed in 'Kiez Doner.' The ceremony marks the 75th anniversary of the liberation of Auschwitz and the International Holocaust Remembrance Day. The program includes speeches from heads of states and Holocaust survivors. Israel: "I wish I could say Germans have learned." Steinmeier at Holocaust Forum (2:14) "I bow in deepest sorrow for German acts." "Germany's responsibility does not expire." "The greatest con-job of the 20th century was cultural Marxists convincing Whites it's morally wrong for Whites to love and support their race."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If people here promote race mixing between black haired, black eyed mediteranians and northern blueeyed blond people, I think they should go to a liberal forum. Who else do you want to declare to be Aryan and promote race mixing? Mestizos have Aryan ancestry as well. Do you want to darken America. Most Aryans in middle and South America make efforts to keep the their race. Why would you undermine their effort? Because you 'like' the mixers? Nietzsche said: lower classes are all inclusive, higher classes are all exclusive. I am not against people with Aryan ancestry. Especially if they make efforts to keep Aryaness. I support them. But on the other hand I don't promote mixing. I lived in Costa Rica and Do Salvador. I like the people there. Especially in Costa Rica you find a lot of very white people. The ancestors of southern people made choices their off springs have to live with it. It isn't their fault. I understand they make any effort to keep and improve Aryaness. People in India are a good example how to keep Aryaness as much as they can. They were even able to keep a lot of knowledge of their Aryan ancestors and preserved what European pure Aryan lost. I value people who cherish their Aryaness and make a lot of efforts to uphold the culture, wisdom, race, humanenity and nobility. I am all for co-operation, but I don't want the mistakes their ancestors made seeping into pure Aryaness.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outrage after same-sex couple effigy burned at Croatian festival February 24, 2020 ZAGREB, Croatia — Croatia’s president and government joined activists Monday in expressing outrage at the burning during a carnival of an effigy showing a same-sex couple with their child. The incident occurred Sunday in the southern town of Imotski. A large effigy showing two men embracing each other was torched in front of cheering festival goers to the sound of the funeral music. President Zoran Milanovic condemned the incident as an “inhumane, totally unacceptable act.” He demanded that the organizers apologize, while an LGBT group announced legal action. “The event was observed by many children who could witness the spreading of hatred and inciting to violence,” Milanovic said in a statement. Outrage in Croatia after effigy burned of same-sex couple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This morning, a Negro's off leash bull tried to attack my smaller dog. I managed to get the beast unworthy of being called a dog off, and ran back home, but the entire time I was thinking, "crap, I should have brought a gun". Point is, I'd rather be a paranoid crazy person who always carries a gun, than ever find myself in a situation where my family member's life was threatened and I couldn't do anything about it. This is America, lots of people carry even when they're mowing the lawn or checking their mailbox. The world is becoming a scarier place every day, partly due to shifting racial demographics. Whites need guns. Arbery was a stupid, violent Negro who recognized the cop that had interrogated him for a previous stupid Negro decision that he had made, so he tried to kill the ex-cop to prevent being caught and imprisoned. Both of them recognized each other. That's one of the reasons the men were armed. If you try to grab a gun out of a person's hand, you must be suicidal, because that person is always justified in shooting you dead.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No way...Modern Germans are maybe 15-20% "WHG" tops. They're by and large a two-way mix of Neolithic (Anatolian farmer) and Bronze Age ("Steppe" pastoralist). The modern Europeans with the most WHG/Mesolithic Euro dna are Balto-Slavics/Finnics from the NorthEast. Haak et al. (2015) The distinct genotype and phenotype--the modern European--that we regard as "White" certainly seems to have originated in Europe during the Bronze Age, once all of the necessary elements were in place. The degree to which some of those earlier, contributing groups (steppe and Anatolian--WHGs were almost certainly dark-skinned) may have at least appeared "White" as we understand it, is a bit unclear.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">These People are giving the Jews a national platform to continue espousing their hate. Perhaps these people could fly the Palestinian flag instead?....and then let us see what the whining Rabbid Jew does.... Jewish Leader - "We are appalled at someone flying the Palestinian flag! Do these people not realize that Israeli Jews and Jews from around the world have successfully wiped out the Palestinian homeland and removed the right for Palestinians to return? Do these people not understand that it is Israel that are successfully carrying out a current Genocide?....If these people want to support Genocide they should fly our Jewish Israeli flag instead!, not a Swastika, and not even a Palestinian flag, but an Israeli flag. We Jews need to educate this cattle about how to promote Genocide correctly"..... Another thing - will this Rabbid Zionist be held accountable for himself breaching the Discrimination laws in Tasmania? This Rabbid is currently breaching those 3 attribute to Tasmania's laws.....I guess it is up to White Nationalists to make sure the Australian Government maintains the laws of the lands..... Oh well, the thought was there at least...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Switch to dailymotion, it censors less heavily. YT is owned by google, who are pushing their agenda and products. It 's why you literally can't stop getting those dumb buzzfeed ads. That's owned by google. It's straight propaganda, often pro-LGBT or pro-Chinese. It's also been infiltrated at the low-levels by leftist radicals who openly cooperate with agitators.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh hell Dirty, I thought it was all about Trump telling folks to drink bleach? Trump says injecting disinfectant could treat Covid-19 Once again, look who's talking about what. Oh, by the way, you have yet another "loose end" to reckon with...post #265 I know my intellect isn't in your league but hey, throw a nigga a bone
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The BNP website is back up I noticed. But it’s been down for the best part of 4 months and not a word of explanation on the new site. Very poor and unprofessional to do that. I doubt the new one will post more than one article a week/month as there’s nothing to report politically. The Chris Barnet blog re the court case not updated for 4 months. It’s still dead to all intents and purposes. How the hell they can pay full time wages to anyone is simply a fraudulent operation. Look at their accounts over 200 grand in wages a year. Literally a criminal gang of conn men running it for years now.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wow. I'm realizing the importance of AVOID THE GROID. Just imagine if these White guys would have never gotten involved. Our role is to create a White Etnostate NOT police the colored. The GA coast has been negrofied for years. Actually most of the state has ; let it go. In return the ingenuity and perseverance of these fine Gentlemen could be utilized for border enforcement after the blue/Red schism.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A Tory voter and a capitalist sympathiser/enabler? Yet I’m the one on the wrong forum Market Socialism has more in common with the goals of WN than Capitalism does but I guess it’s the old ‘everything I don’t like is communism’ argument which is just a rebranded version of the lefts ‘everything I don’t like is fascism’ cry...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I neglected to clarify why this (alleged) "Sartt" might be posting here (under a different name) in the wake of the rage-banning of "Coldfire" - because "Coldfire" was the only member willing to engage with "Sartt" and with "Coldfire" now gone from VNN I suspect "Sartt" migrated here under the new name of "SQLi". And "SQLi's" manner and style indicates to me that he's VNN's "Sartt".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doesn't matter, he trespassed onto private property. He broke the law. I wouldn't trespass onto private property, so it doesn't matter what anyone would think my intent was. Nobody thinks anything of me because I dont go around breaking the law. See how easy it is to stay out of trouble? Easiest thing ever! Evidence? You don't have any. Yes, because that's been the hallmark of American Law from the beginning. I've already pointed this out several pages ago. He trespassed. He broke the law. Evidence they opposed it?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Untrue. It is also a myth that these measures are new. Hitchens sometimes says things I agree with, he also says plenty of abject nonsense. Like anyone else, his words should be judged on their own merits; anyone can speak truth, or garbage, and because someone may have spoken truth on one issue does not mean they must be trusted on all issues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As the forums resident King Cynic, I'd expect nothing less from you. However, compare the 2000s to the 2010s in terms of Europe's politics. There's been a clear and substantial shift towards 'nationalism', even if it's mainly only the civic variety at the moment. The 2000s were almost completely pro-immigration. The 2010s are much more mixed in that regard. The fixation with the EU has also changed - the 2000s were its zenith and it's been on the defensive ever since the recession. There's every reason to believe this trend will continue and the 2020s will likewise see a substantial shift in our direction. One side-issue which I think is relevant is that for the first time since WW2 has the topic of Jewish influence been raised in mainstream political discourse. Only, it's from the far-left. I think the implications of this could be profound, even if they're not felt for a while yet. Granted, the 2010s has been another 'Great Leap Forward' in terms of LGBT stuff, but this is still a post-materialist bit of nonsense that most people can escape from to some extent, unlike migration. I'm sure we'll eventually have a backlash to that as well. People are still too economically comfortable, that's what it all boils down to. But the austerity of the 2010s has given people a shove compared to the cushy 2000s. We just need a few much bigger shoves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I'm bored with 'hate' words... We Whites recognize the differences of others. We can appreciate them, we just don't want to be them. We are self-sufficient and don't need others. If you see bad comments of others, so what? All howl at the moon. Sometimes you are pissed, sometimes you are happy, whatever... To be direct, Whites at this stage of life need to be concerned of ourselves. Time to be selfish. We don't have a lot of charity and such for others, we have bigger concerns right now.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Every year in the United States 700000 people die from diseases they catch while in the hospital. These deaths are called Iatrogenic deaths. Every one who works in a hospital is aware of this problem and is working to reduce it. There are entire medical journals devoted to this problem. The best way to reduce these deaths is to keep people out of the hospital who don't need to be there. The number of people who are put in jail or prison is greater than the number of people who enter a doctors office or a hospital. Phylakegenic deaths refers to deaths caused by diseases caught in jail or prison. The best way to reduce these deaths is to keep people out of jail or prison who don't need to be there. Among those who are arrested prosecutors will refuse to prosecute about one third of these cases. About half of those who have a trial will win their case. The ABA estimates five percent of the people in prison are innocent of the charges that put them there. Only one article has ever been published about Phylakegenic deaths in a criminal justice magazine. He advocated keeping those who have been released behind bars until it could be proven they are not contagious. You don't break the laws of nature they break you. Every one involved in the criminal justice system is a serial killer or a mass murderer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Well, Greeks in Cyprus, yes but I did not bring them up. Why Finnish? I thought my comment was quite clear - Finnish Don't Cluster With Europeans. Neither do Sardinians or Basques but they are excused because they are older stock. Basques apparently aren't mixed with Indo-European, and Sardinians are apparently Indo-Europeans unmixed with Protos. I do not care what is "noticeable" or not noticeable. Portuguese are 1 of 2 groups of Europeans that have the highest Non-White input, but nobody has any problem acknowledging that. That Puts the Finnish into Question. The question has to be answered before addressing the admixture in Southern Europeans. Does not make it clear. So.... Finnish are okay because of their body features, but you wouldn't care for Southern Europeans regardless of the admixture or not? This is what I read. (Honestly, this doesn't surprise me coming from a Nordicist, but I think that you should learn to be more polite. This isn't a forum for that.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Decent and marriageable White women in America are few and far between. I'm aware of many good men who'd like to find one. Marrying a foreign bride can have both it's blessings and pitfalls and dangers. We date to get to know one another, and mail order brides can be chancy. I've read if someone is considering such a thing, it's wise to visit them in their country and spend some time there, get to know them, their families, and the culture. When we marry someone, we marry their family and culture too. Boerseunn3 might have some insight. I'm vm'd him asking him if he would, since he lives there.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>95.74</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is the bait. It is godless Talmudic jews. Cultural Marxism. National Socialism is where we look after our own people and not all freeloaders and bums who manage to get here. Anarcho Syndicalism means we don't have bosses and decide ourselves what is best for us... like Iceland, where the bankers were drummed out of town. No more carpetbaggers and snake oil salesmen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nobody talks about that, but I find it very bad that a negro (Lewis Hamilton) is stealing Michael Schumacher's records. Everyone is praising him and claim that he was soooo much better than Sebastian Vettel, however, Mercedes has been dominating everything since 2014 and right before he retired, Nico Rosberg has beaten Lewis. It's kinda sad that Mercedes lost their identity. It definitely is far from bad that the second driver is a (blond) Finn, but why do they refuse to sign a German driver again after they started off German in 2010-12? And I don't even want to start on the Jews. Lance Stroll is the perfect example, he is anything but a good driver, but his father will always buy him a new team which needs the money. And we lost many drivers like Nico Hülkenberg not because of their lack of skills, but because they are not pay drivers. All that made me stop watching this sport I once loved. I really hope that bike racing (MotoGP and SBK) will remain white, but I doubt it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We go into the fact that Nature does not do Equality. THAT is 100% a LIE. Equality only exists for NUMBERS not Humans. T'is a hard fact. Bantu are animals with speech. Witch Doctor Cannibals are not equals, pussy hat antiwhite CUCK GOP. Oh yeah? Move to Darkest Africa! Cover is the Periodic Table -- That is Science -- Equality is FICTION! Nature's Iron Laws | Equality is a Vicious Stupid Lie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Let’s deal with this false narrative of there being a “string” of burglaries in that neighborhood. The only confirmed theft in that neighborhood was of Travis McMicheal’s gun from his truck. That’s it. Mr. English, the property owner indicated that he had some fishing gear that was missing but that the boat had been in several different locations so he wasn’t even sure where it came up missing from. He went on to say that in the videos that the person matching Arbery’s description was on the property, that person never stole anything. So, this “string” of burglaries is a false narrative. So, considering that the only known theft in the neighborhood was not even on the property in question, but on the shooters property (a property that there is no evidence to suggest that Arbery had ever been on) it is not reasonable nor lawful to chase someone with a gun who have no known connections to that one known theft. According to Georgia law, it must be a felony for a citizen to pursue a suspect. Arbery’s presence on the property multiple times is not a felony. The more times he went there without stealing anything confirms that his intent was not to steal. This is a classic example of why we don’t want vigilante justice in America because they can make unreasonable decisions in an effort to be the neighborhood hero or take it personally by conflating what happened on their property and what happened on someone else’s property. More importantly, if they are not identifiable as law enforcement, the can easily be confused for a lynch mob, as happened in this case.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simple, immigrate/flee the country. Impossible now but do you really think that it will be impossible forever?. Post-WWII American military hegemony over the entire earth will eventually be destroyed when the USA becomes inevitably socialist and slowly turns into a third-world country. Russia/Eastern Europe in 200 years may continue to weather/resist most mass-immigration from western europe which at the rate it is being invaded now will just become another part of the middle east before then. Putin is not a god and he will eventually die off, there is hope in the future when more countries become third world and less 1st world military countries that they will be weak enough for some WN militants in eastern europe to pull it off. Never give up hope, there may not be an opportunity right now in our lifetimes but there's bound to be one in the future.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">You need to learn a bit about jewishess. In order to qualify as a jew, your mother must have been a jew. On this very important fact, he ticks the box perfectly. Anything else is horse manure. Pretending to be a raised Christian, he can make any claim he likes in order to create the impression that he has a balanced POV regarding WW2, whereas, as I explained in my first post, he always reverts to the official version of history in his final analysis. This is a slight of hand tactic employed by the jude to fool people like you. Don't fall for their deception.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ok first the idea that white nationalists are stupid or on average unsuccessful is nothing more then what you and others like you want to believe. We are not the ones constantly inventing new things like institutional racism or systemic racism for every failure like liberals and race hustlers do to explain any black failure or disparity. However at the same time it is indeed not right for a young white kid to be passed up for a scholarship or college entry or whatever only because he is white. Where a black who can do much as maintain a b average gets a full ride at an ivy league University only because he is black. White nationalists like it or not are on average the most intelligent group if you compare them with political groups or other ideological groups.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wasn't aware of that. I started getting Britain First emails around Christmas 2018. Had no idea they were into jews. I'm American and had never heard of this group. I have noticed that the jews are the first to cry about "anti-Semitism" but then want open borders in White countries. They do this even if it means their communities are targeted. "As distressing as the statistics may be, representatives of the organized Jewish community in the UK have said unequivocally that the offer from Britain First is unwelcome. “They are a far-right, nasty, racist group that intimidates minorities, especially Muslims,” Dave Rich, a spokesman for the Community Security Trust told The Times of Israel." "But Rich doesn’t buy this. He claims Britain First does not really like Jews and is just using the Jews as a way of “winding up the Muslims.” “Other right wing groups like the English Defence League and the BNP have tried this kind of thing before, but we can see right through it,” he said. Simon Round, spokesman for the Board of Deputies of British Jews, echoed this position. “We are appalled — but not fooled — by the attempts of the far right to curry favor with our community. Our principled opposition to all forms of racism includes both anti-Semitism and Islamophobia. Such attitudes have no place in our inclusive society,” he said."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">They have human physical characteristics, but they're inferior to "other" humans in all aspects. I'd just say that they're subhuman. Even though that word is usually used as an offense it actually perfectly describes a Negro, biologically. Physical similarities between them and humans are major, but there are still some natural differences when it comes to their evolution and their organisms. 90% of Negro countries in Africa are mentally retarded on average, and those are the ones that came less in touch with the White man. You just can't unironically say that they're human in the strictest sense of the word. Such situation, along with many other similar ones, isn't present in any other race. And it wouldn't actually be like hating your dog for making a mess in the house. Even though Negroes are subhuman they still have the capacity to understand right from wrong.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I think you're misunderstanding what Ocko and I are saying. We're not arguing the genetic "whiteness" of anyone. We're saying there is MORE to being WHITE in the metaphysical or spiritual or psychological sense (take your pick). Let me repeat: Some may be fully "white" genetically, but totally lost to us in every other way. Indeed, they may see themselves as our mortal enemy. Do you want to include such people as "one of us" just because of their genetic profile? Not me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, some of the music was quite good, but the sentiments expressed in the lyrics were mostly banal and foolishly idealistic, typical for young folks in any era, I suppose. The jews never miss a trick or a trend, do they? More "pre-packaged rebellion" to be followed by the next "new thing". I thought Devo was a hoot myself back then, but with a very short shelf-life. Not surprised to learn that at least one of the members was (((guess what)))? At this point in my life, nothing would surprise me. "Cohen-cidence" or coincidence, the cunning jew wasted no time in exploiting it. The first cities appeared in the Near East, a semitic creation. When our ancestors began to settle in one spot and build permanent structures, they tended to follow a fortress/castle model with most of the people living outside the walls in open country. Only when they came under attack did they retreat to the fort for protection. If one studies the development of what we now think of as traditional cities, it was the commercial activity and presence of (((guess who?))) that drove them in that direction. The cancerous blight of the modern megalopolis is just the inevitable outcome of "jew-think". The semite feels safe in the rabbit warren of a city. Open spaces make him nervous. He can blend into the multiracial urban hustle and bustle, and most importantly, PROFIT from it.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, it isn't. It isn't "their city" and it isn't "their territory" in Europe. It could be very successfully argued that NONE of Asia Minor belongs to them, especially the coastal areas which were NATIVE LANDS for Greeks since the Bronze Age. If that makes me guilty of adopting the VERY SAME POSITION as the so-called "native Americans", so be it. The major difference is Europeans were a vastly more advanced civilization that the amerindians who were semi-nomadic tribal peoples with no concept of land ownership. The Byzantine Empire, aka Eastern Roman Empire, on the other hand was the pinnacle of European civilization during the Middle Ages, and Constantinople the crown jewel of Europe. The turks were nomadic savages who swept out of central Asia and conquered more civilized nations. We do NOT accept their "conquest" as valid, no matter how many centuries have passed. They are mere squatters on OUR land. We do not forget, we do not forgive, and one day the turk will be removed from Europe, God willing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I find your lack of faith disturbing. Perhaps a little more love for our white brothers and sisters and a little less disdain for those struggling economically would be more of a better sales pitch than defeatism. I understand your frustration, I REALLY do. If we want to vent our frustration, let us also provide examples of solutions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nope. They still have AASI ancestry, all of them, which is devastating. And the Indus-Valley/Harapppan Civilization was probably also Iranian Agriculturalists. Or what they are calling "Iranian agriculturalist related ancestry" As Stated earlier: Goats and Sheep are not native to South Asia. Additional information: source: An Ancient Harappan Genome Lacks Ancestry from Steppe Pastoralists or Iranian Farmers The Formation of Human Populations in South and Central Asia You know what, this might mean than Ancient Aryan Civilizations of India may have gone extinct twice through racemixing with the Natives. Not "Climate change and migration," as what is officially stated. And it was exclusively White males who did the racemixing, (can I just emphasis this, please.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It was worth a try, thanks for that, if you know any more tricks do post them up, this a long-term war. What sort of things were you posting that got deleted? I, for example, didn't post anything threatening, 'Hateful', Racist, (in fact it was anti-Racist), Fake news, conspiracy theories, it was just interracial rape statistics I put in a so-called comedy sketch comments section, "White Women's Workout" YouTube . I did put it up many times to each person who had a comment how funny the sketch was etc., and I did wonder if I had fell foul of a 'spamming' detection algorithm? Do you think they target the person, flag them, and then put restrictions on that account or certain words or sequencing of words?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you’re that eager to know, you should reach out to either the National Holocaust Museum or one of the several academic institutions that focus on genocide studies. If you introduce yourself as a skeptic, you may be surprised by the responses you get from people willing to talk to you. Then, you can relay the results of those conversations here.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, thank you!! As was mentioned here by Venice14: About Ahmaud Arbery people do, in fact, go jogging while armed. I really do not know why john012 or anyone else insists they do not. I've never done it but I know that other people do, especially if they may jog in dangerous neighborhoods - which I would avoid doing at all costs. And assuming this Arbery guy was actually "just out for a run" as the media was claiming, well then he is some special kind of ass-hat STUPID to have gone and jogged his black arse right into a neighborhood full of "armed to the teeth" "white supremacist/KKK/nazis/(insert your choice of white ethnic racial slur HERE)", never mind trespass or B&amp;E into a property belonging to a "white supremacist/KKK/nazis/(insert your choice of white ethnic racial slur HERE)". I mean, what the hell, have you idiots thought this story through? &lt;--- This is a rhetorical question, I already know you retards have put ZERO critical thought into this. The funny thing about all of this is that you people give negroes far less credit in terms of intelligence than we do. I mean, yeah, we say that they have a mean IQ of 85 because it's true, but YOU actually think they're dumb enough to just oh-so-innocently jog right into the jaws of certain death without any foresight whatsoever which couldn't be farther from reality. Absolutely priceless. It's hilarious how stupid you think blacks are while calling us the "bigots".Classic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I have just tried to put this comment up:I'm still waiting for Hollywood to make a film about *The Zebra Murders* , _The "Zebra" murders were a string of racially motivated murders and related attacks committed by a small group of Black Muslim serial killers in San Francisco, California from October 1973 to April 1974; they killed at least fifteen people and wounded eight others. All the victims were white. … Some authorities believe that the "Death Angels," as the perpetrators called themselves, may have killed as many as 73 or more victims_ .I am wondering if YouTube can detect when you use "cut'n'paste"? e2a: also had this post deleted:Emmett Till was a sex pest that was why he was sent away by his mother from where he lived, he had been pestering White women there.so maybe it has got nothing to do with "cut'n'paste"?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Are you serious? You quoted a source but did not present how they came to their conclusions. You did not reference any data, statistics, etc. All you did was: "Such in such a person says that -- slavery was bad for the economy and slowed down it's growth." Ok now where's the data to support their statements? Just because they say it, automatically means it's true? Then when I ask you to explain what information they used to draw their conclusions, I'm "ignoring facts" or "refusing to acknowledge" things?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get the wax out of your ears, as I said warmer than average winters have happened before, it is nothing new. It has nothing to do with CO2. But let’s just ignore the record breaking cold in North America recently, maybe a little inconvenient for you. You can’t have it both ways, for the month of February for example the record temperature has not been broken since 1943. That is 77 years. They tell us there is a climate emergency but the raw data does not show that. Both average and maximum temps would increase, that much is obvious.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, they have me on ignore. I only have the nastiest behaved guy from that thread on ignore. Some guys on here have different opinions than I do but are still capable of talking about it like adults, I like that. I wish we could have a space where only the big boys and girls could go to talk about these things, is all. They're interesting and productive conversations when they don't devolve into poo throwing contests.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">^^^ This is important and notable in understanding how the Jew twists things because the only proof that is given in that biography of his supposed pedophilia is taking one of his paintings and saying that a little girl looks like a little boy. THATS IT. Personally, I am not the biggest fan of Norman Rockwell because he did paint some works that showcased liberal politics and his views on civil rights, but this is a very good example of how Jews think. I guess I have to show examples because people take something normal from his body of work and suddenly he's pro white, I guess?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The people getting discriminated against are black people. They are treated as invisible as in acting like they don’t exist as a marginalized minority like the blacks want to be addressed here in the U.S. They don’t play that game in Mexico. Blacks aren’t given special treatment at all. Would you like it if we pretended you were just a dark skinned white person but then discriminated against you in all areas? You couldn’t even say it was because you were black, because you would not have that identity yet everyone would still treat you like a [email protected]@@er. Like I say it’s because the blacks in their countries don’t have the power as in the United States. Does Mexico have a Black Entertainment Channel? Does Asia have a magazine like Essence especially for blacks? Does Asia or Mexico have black colleges like Howard University? Look at Latin America and Chinese movies. How many leading roles are with black people. Now compare with the United States where blacks are over represented in Movies to the point where Hollywood remakes white movies replacing them with black people. Also over represented in music. Does Asia or Latin America have a month dedicated to black history? Does Mexico have affirmative action to let under qualified blacks into college? None of the above! Mexico and China give no black privileges to blacks. And so what is there for them to create a forum about?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">All mutations and changes are not for good! Some of those are purely harmfull. Still life will test more a less all .. good things, bad things, wise things, stupid things etc.. It is not one kind of coordinated or beforehand though process (skipping the bad/stupid ones away before those even see daylights). As newer mutations are often ''recessive'' the bad mutations / harmful changes will disappear as time goes and the good ones can only stay alive. Cold system some could say (yes, life has no emotions/feelings), but works ok in big picture (long scale). That's why we still will evidence life in Earth.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>44.51</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We had the dying of forests, we had the ozone holes, we had Planet Nibiru hit earth, we had Chernobyl destroying the earth, we had Fukushima destroying the oceans, we had evil Nazis killing all Jews, and on and on and on. Disaster is good business, when there is no disaster one has to make one. Since Einstein we don't have science anymore. It's all theory piled on a ton of other theories. A cardhouse which collapsed long time ago, but everbody continues like nothing ever happened. Science is a belief system which pretends to know reality. Which is a joke, they only know a tiny bit of the material world. They can't even proof that gravity exists. (It's all theory, nobody found anything what makes an apple fall to the ground). If Gravity exists the moon would fall into earth, (it's mathematical logical under the presumption that gravity exists). So you really should be concerned that the moon hits your hometown very soon. Y'all should pay me a falling-moon tax, I already keep the moon at it's place, but I need a lot of money to keep it there. I will have to send my little niece around to tell everybody how close the doom of the Earth is. It's already written in the Bible by some Jews. So please donate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Britain has been an easy place to control. It's an island. A corral. They used to export people to the sun baked wilderness of Australia for stealing a loaf of bread. Hanged for poaching a rabbit. 'Peasants' were on protein ration. No meat. The Lords ate anything that breathed. We have football, so if you go 20 miles up the road, you can get beaten up for supporting the wrong team. Insane. 'Football Crazy'. We are in lock down. 'How they will come for you?' Sell your job to India for the same price as a football player and if you complain you'll be blacklisted and never find work again.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That is because the vast majority crime is intraracial, meaning the victim and offender are of the same race. It doesn’t matter if Black people murder 1,000 people every year or even 1,000,000 as long as 95% of their victims are other Black people. Your average White person doesn’t give a damn about how violent non-white neighborhoods because they do not live in them. Most Whites won’t care if Blacks or Hispanics slaughter each other in their ghettos as long as the crime stays in the designated non-White areas. bringing up Black crime statistics or statistics of other races will get you an apathetic response at best or get you called a racist and hateful bigot at worst. Trust me, if Blacks or Mexicans went out of their way to kill or rape millions of White people police crackdowns and state of emergencies would be declared overnight. Just look at the European response to Islamic terrorism attacks. Police surveillance and arrests skyrocket after those events happen. Why is that? It’s because terrorists generally kill White people and gangsters do not. That is the difference.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dude, you guys colonized Palestine and instead of protecting the Palestinians with their own ethnostate, the way we gave the indians here there own ethnostates, you're genociding them. And that's besides your ethnostate in Russia. You're less than 3% of the global population and you have two ethnostates (and yet you're still in our hair!) so don't give me that bullshyt. GTFOH. The needle on on my Jewish Bullshyt-O-Meter is flying off the scale. You're severely testing the craftsmanship of my Jewish Bullshyt-O-Meter, Moishe. I'm happy to say that it's standing up to the abuse admirably. Oh yeah, lol! We're such a danger to you morons that you come right to our turf to defy our ideology! What a shmuck.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imagine if this was in reverse, where Stormfront members were on Twitter promoting violence against the SPLC. They would never let us hear the end of it, the FBI/Jewish press would be everywhere, and we would be sued into oblivion. This clearly demonstrates that there are double standards. The SPLC is cancer upon our way of life.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">That's incorrect. I had to stop reading halfway through,just no. You peoples obsession with assigning everything a statistic and a tier sounds practical but you're either not doing it right or you're starting off with bad information. What you call low tier men and also what you call normal nice guys have multiple girlfriends all the time. And lie and deceive about it. You're hell bent for some reason on creating a world that doesn't exist out of your theories. Boomers might be worthless and have no need to exist according to you people but they have enough real world experience to understand how things really work.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jewish council to write to TDs on how to spot anti-Semitism Feb 24, 2020 The Jewish Representative Council of Ireland plans to write to every member of the new Dáil and Seanad to highlight the risk of anti-Semitism in public debate. The move comes in the wake of controversy surrounding tweets by newly elected Sinn Féin TD Réada Cronin for which she has since apologised. Jewish council to write to TDs on how to spot anti-Semitism
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Based on pattern recognition, I think it was predictable that free internet speech would be engulfed by Jews. Even 18 years ago, I figured they would accomplish that objective by buying up all the ISP's. In 2000-2004 lots of people were still on dail-up and the companies who provided that were small and many. Youtube put an end to that. It got to the point that you just couldn't get around the net without high speed. Besides having bought out all the ISP's they have done so much more, including JIDF forces on every forum to enforce political correctness. At this point I suspect that 40% of forum members worldwide are Jews, each playing their own little role. But information control has always been their MO, and we should expect it every time we seek information about anything, both sides of every issue included.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Because official Segregation only concerned blacks. Chinese were not officially segregated, either - does that make Chinese white? Also, Jews were in power during segregation: List of Jewish members of the United States Congress - Wikipedia Why would they segregate themselves? Shlomo, I posted the genetic evidence proving Jews aren't white, which you conveniently neglected to address. Care to dispute it? No? Then catch the next cattlecar out of Dodge and have a nice trip. Hasta la bye-bye.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This is fact. Every guy that has women problems to the extreme always seem to be a 4 or below. Add to that some type of emotional cripple, or short. Just simply ugly, or way too plain. Or dumb / simple. Obnoxious, has terrible Hygiene, etc... Being someone who knows a lot of guys and women, I get to hear the complaints. Guys always tend to shoot too high, they always want a girl way better than they can get. For example, you have a slightly balding frumpy average looking dude who is always asking hot chicks out. ------&gt; That's a fail. But, many guys are flexible, if the pool to choose from is light, and all the women are average, they just take what they can get. Every time a guy complains too much, more than usual, if you ever get a look at the dude, you know EXACTLY why. Every time, man, every time. As far as women, they can be picky. And that is BY NATURE. A woman by nature looks for the best man to mate with. (same for a guy, but much stronger for a woman.) Women can size a man up within 5 minutes of talking to him. Maybe even faster. It's funny as hell. I've said before where I learned from women that if a man wears crappy shoes that is what his place looks like. Women want equal or better. And if there are many suitors around, why the hell would she go down? Nobody does that. n.o.b.o.d.y. A woman that invests in herself, has a good job, etc., she wants that in a guy. Who wants to be a support system for a man-child? Sure, really good looking people get away with stuff. Blame nature for the boo hoos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Update on the Corona Virus -- I for one Welcome our new CDC CHINESE COMMUNIST COLORED Over Lords. All Hail Our Greatest Strength -- Diveristy. May the Tolerance make us well. Coronavirus FAQs: Is A Homemade Mask Effective? And What's The Best Way To Wear One? Since the beginning of the global coronavirus pandemic, Americans have been told by the Centers for Disease Control and Prevention not to wear masks unless they are sick, caring for a sick person who is unable to wear one or working in health care. Numerous reasons have been given: That they don't offer significant protection from germs. That the most effective models need special fitting in order to work. That regular people don't typically wear them correctly. That they'll give people a false sense of security and cause them to be lax about hand-washing and social distancing. And most of all: that there aren't enough masks and respirators for the healthcare workers who desperately need them so leave the masks to them. Now there are big changes to that policy. +++++++++++++++++++++++++++++++++++++ Notice POLICY CHANGE -- NOT SCIENCE -- so they are either LIED BEFORE OR are lying now, which? Tell me. They want us scared weak and divided. tyrants always do. Source: Address : Corona Virus Pandemic Panic -- They need DNA databases and ENFORCED 'isolation' -- PRISON HOUSE USA!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Youtube video is no longer available, but it's no surprise that some Germans actually applaud their own destruction. White guilt is very strong in that country, so much so that on Feb. 13 there have been political demonstrations in which Germans actually celebrate the bombing of Dresden and hold up signs saying "Thank you Bomber Harris". One can only hope that such actions are counter-productive for these vermin by infuriating many more non-demented Germans and spurring them to nationalist activity.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hong Kong flu 1968 was far more deadly, with far higher morbidity. And the world population was only half what it is today. Ebola, SARS, coronavirus: Could outbreaks be on the rise? - Los Angeles Times And we didn't lock down then. This appears to me to be some sort of global reset.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wanted to post my meme here but the picture won't display. I actually think Hitler may have not even cracked the top 100,000 most evil people and I'm Jewish. I don't know though maybe he was a bit of a dick. I see the Fuhrer and the SS leadership as people making hard decisions in a very hard time with hard demographic and economic issues in play. Demographics and economics are pretty much iron laws so what they did may have looked very extreme but so were the circumstances.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Review – Your Stonehenge Feb 17, 2020 Visitors to Stonehenge have been taking photographs of the monument – and themselves – for almost 150 years. Lucia Marchini visited the site to explore a new exhibition showcasing some of these images, and the stories they tell. Today most of us carry around phones equipped with cameras, ready to take a photo of an interesting view should the need or desire arise. It was not always quite so easy to take a casual snap, but from the dawn of photography one thing that has remained unchanged is that visitors to Stonehenge have wanted to capture an image as a memento of their visit – as some 150 photos currently on display at the site’s visitor centre show. Review – Your Stonehenge - Current Archaeology
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">its one exam board OCR for retards.. the quote was from a marxist newspaper reporter. the link i gave you showed the syllabus re: negros in medieval England , as its aimed at 16 year olds i think even you can understand it. more on OCR 2015: The then Chief Executive of OCR suggested that students should be allowed to use Google and the Internet to research information during examinations. 2017: [I]A question in the reformed OCR GCSE English Literature exam, sat by over ten thousand students, swapped the surnames of the families in the play Romeo and Juliet. lol
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sakura Paola Hermosín Soon Sakura period begins in Japan, the cherry blossom, and I wanted to pay tribute traveling there from home playing this popular Japanese tune. I hope you like it a lot and wish you travel with me to Asia from home! Arigatō! Dexterity, Spanish martial art Skill is how the art of Spanish fencing is known. Nowadays it is recognized as a traditional martial art, but it had to go a long way for it. This art was created with components of a mathematical, philosophical and geometric type, used with the purpose of defeating the rival under the chivalric precepts of Christianity ...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Right now the situation is good. Thanks to the Coronavirus many Jews returned to Israel and they closed the airport. Also many Jews in the U.S and Europe died from the corona, so if all Jews would return to Israel and they would keep the airport closed that would be perfect.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LOL, that's really cute. You are trying to defend his inability to defend his unsubstantiated and biased assertions. If you had any idea what constitutes proof, you would realize that he has provided nothing that fits that definition. But yes, you are right, I'm sure he does see the futility of the situation when confronted with a direct challenge to prove claims he has made that have no foundation in truth, but heavily steeped in his prejudiced and hatred of black people.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If the population of Western Civilization gets replaced by any non-white group, it will no longer be Western Civilization. It sure is nice that East Asians have a higher IQ, and commit less crime. I'd still be heartbroken if my child married one, or if we had to hand off our society to them. They already have Asia, why do they need the West?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nothing wrong to demonstrate that those flaunting democracy and democratic values are actually hypocrites, when democracy (and especially freedom) works against their agenda. Hold them accountable and point out that they are denying "rights and freedom" to White Nationalists (and conservatives, libertarians, Christians and others). That said there is another trend: Globoleftists nowadays argue that democracy and freedom demands that we must welcome everybody in our country and that refusing this would not only "racist", but also anti-democratic and anti-liberty as well. That argument is of course right rich. Your citizen rights and this right includes voting rights, become entire worthless and meaning less, if their is no exclusivity connected to them. Can you see why, or do I need to explain it to you.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh really? 20 years ago when it was suggested in Congress that we FINALLY end affirmative action(hiring someone based SOLELY on race rather than ability), the negros chimped out and the proposal was dropped. Food stamps, section 8 housing, welfare money and debt forgiveness, not to mention the free rides to college where most don't qualify to be there, but will be given degrees anyway based again solely on their race. Negros have never STOPPED demanding things from us. Your race has been a useless and endless 160 year money pit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Why not just help without making it about politics, marching with signs that the average American would find offensive, or dressed like 1990's NSM rejects? I'm sure SWN Tennessee achieved SO much in there photo-op..give us a break down Billy Boy..what did they actually accomplish? What money or food did they distribute, what aid was rendered,etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oh I hear you loud and clear. Its your way or the highway here. I am not going to push it because I know I cannot win. I will stay within the box of "truth" and not venture out of it. If I get too close to the edge, please let me know before you ban me.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I should have answered my own question with: 'However, there is a plan to ethnically cleanse Scotland and the cheerleaders of that plan at the moment are the SNP and drive for Scottish 'independence'. Once they get their way, their ethnic cleansing will be far worse than anything 'England' purportedly did many hundreds of years ago, and it will be permanent.' Not exactly a soundbite but it'll do.
+</t>
         </is>
       </c>
     </row>
